--- a/hasil uji/jumlahBAT.xlsx
+++ b/hasil uji/jumlahBAT.xlsx
@@ -466,60 +466,60 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[1 1 0 1 1 1 0 0 0 1 0 1 0 0 0 0 0 0 1 0 0 1 0 0 1 0 1 1 0 0 1 0 0 0 1 1 0
- 1 1 1 1 1 1 0 1 0 1 1 1 1 0 0 0 1 0 1 1 1 0 0 1 1 0 0 0 1 0 1 0 0 1 1 1 0
- 1 0 0 0 0 0 1 1 0 0 0 0 0 0 1 1 0 1 0 0 1 0 1 0 1 0 0 0 0 1 0 0 1 0 0 0 1
- 1 1 0 1 0 1 1 0 1 0 1 1 1 1 0 0 1 1 1 0 1 0 0 1 1 0 1 0 1 0 0 1 1 0 1 1 1
- 0 1 0 1 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 1 1 1 1 0 0 1 0 0 0 1 1 0 0 0 0 1
- 0 0 1 1 1 1 0 0 1 0 0 1 1 1 0 0 1 1 1 1 1 0 0 1 0 1 1 0 0 0 0 1 1 0 1 0 0
- 1 0 1 0 1 0 0 1 0 1 1 0 0 0 1 0 1 1 0 0 0 1 1 1 0 1 1 1 0 1 1 0 1 1 0 1 1
- 1 0 0 1 1 1 1 0 0 1 0 1 1 1 0 0 1 1 1 0 1 1 1 0 1 0 0 1 1 0 1 1 0 1 0 0 1
- 1 0 1 1 1 1 1 0 1 0 0 1 0 0 1 1 1 1 0 0 1 1 0 1 0 1 0 1 0 1 0 1 1 1 1 0 0
- 1 1 1 1 1 0 1 0 1 1 1 0 1 0 0 0 1 1 0 0 0 1 0 0 1 1 1 0 1 1 1 0 1 0 1 1 1
- 0 0 0 0 1 1 1 1 0 0 0 1 0 1 1 0 0 0 1 0 1 1 1 1 0 0 0 0 0 1 0 0 1 1 1 0 1
- 0 0 0 0 0 1 1 1 1 1 0 1 0 0 1 1 1 1 1 1 1 1 0 0 1 1 1 1 1 0 0 1 0 1 0 1 0
- 0 1 0 1 1 0 0 0 0 0 1 1 0 0 0 1 1 0 0 0 0 0 0 0 1 0 0 1 1 0 0 0 0 0 0 1 0
- 0 1 1 1 1 1 1 0 1 0 1 1 0 0 0 1 0 1 1 0 1 0 1 1 0 1 0 0 0 0 0 0 0 1 1 0 0
- 0 0 1 1 1 1 1 1 0 1 0 1 1 0 1 0 1 0 1 0 1 0 1 1 0 1 1 0 0 0 1 0 0 0 1 1 0
- 0 0 1 1 1 1 0 1 0 0 1 0 1 0 1 1 0 1 1 1 1 0 0 0 0 0 0 0 1 1 1 0 1 1 1 1 0
- 1 1 1 0 0 0 0 1 1 0 1 1 1 1 0 1 1 0 1 0 1 0 1 0 1 0 0 0 0 1 0 1 0 1 1 1 1
- 0 1 1 1 0 0 1 1 0 0 1 0 0 0 1 0 0 1 1 0 0 0 0 1 0 1 1 0 0 0 1 1 1 1 0 0 1
- 1 0 0 0 1 1 0 1 0 1 1 0 0 1 0 1 1 0 0 0 0 0 0 1 1 1 0 0 0 0 1 1 1 0 0 0 1
- 1 0 0 0 1 0 1 1 0 0 0 1 1 1 0 1 0 0 0 1 1 1 1 0 0 1 0 1 1 1 1 1 1 0 1 1 1
- 0 0 0 1 1 1 0 1 1 1 1 1 0]</t>
+          <t>[0 1 1 1 1 0 0 0 0 0 1 0 1 1 1 0 1 1 1 1 1 1 0 1 0 0 1 0 0 0 1 1 0 1 1 1 0
+ 1 0 1 0 0 0 0 1 0 1 0 0 0 1 1 1 0 1 1 0 0 1 1 0 1 1 1 0 1 0 0 1 1 0 0 1 1
+ 0 1 1 0 0 1 0 1 0 0 0 1 0 0 1 1 0 1 0 1 1 1 1 1 0 0 1 1 1 0 0 0 0 1 0 1 0
+ 1 0 0 0 1 1 0 1 1 0 1 0 0 1 1 0 1 0 1 0 0 1 0 0 1 0 1 1 1 1 1 0 0 1 1 0 1
+ 1 0 0 1 0 1 1 1 0 0 0 1 1 1 1 1 1 1 1 1 0 1 0 0 0 0 0 1 0 0 0 0 1 0 0 1 0
+ 0 0 0 1 0 1 1 1 1 0 0 1 1 1 1 0 1 0 0 0 1 0 0 0 1 1 0 0 0 1 1 1 1 1 0 0 0
+ 0 1 1 0 1 1 0 0 1 0 0 0 1 1 0 1 1 0 1 0 1 1 0 0 0 1 0 1 0 1 1 0 0 0 1 1 1
+ 0 1 0 0 1 1 1 0 0 0 0 0 1 0 0 0 1 0 0 1 0 1 0 1 1 0 0 1 1 0 0 0 1 1 0 0 0
+ 1 1 1 1 0 1 0 0 1 0 1 0 0 1 1 1 0 1 0 1 1 0 0 0 0 0 0 0 1 1 1 1 0 1 0 0 1
+ 1 0 1 1 1 0 1 1 0 1 1 1 0 1 1 0 1 0 0 0 0 1 1 0 1 1 0 1 0 0 0 0 1 1 1 1 1
+ 1 1 1 0 0 0 0 0 1 1 0 1 1 1 1 1 1 1 0 0 0 0 0 1 0 0 1 1 0 1 0 1 1 0 1 1 1
+ 0 0 1 0 0 1 1 1 0 1 0 1 0 1 0 1 1 1 1 1 1 1 0 1 0 1 0 1 0 0 1 1 0 1 1 1 0
+ 1 1 1 1 1 0 0 1 1 1 0 0 1 0 0 0 0 0 0 0 1 1 1 0 0 0 0 0 1 0 1 0 0 0 1 1 0
+ 1 1 1 0 0 1 1 1 1 0 0 1 0 0 0 0 1 1 0 1 0 1 1 1 0 0 1 0 0 1 0 0 0 0 1 0 1
+ 0 0 1 1 1 1 0 1 1 1 1 1 0 0 1 1 1 1 0 0 0 1 0 1 0 1 1 0 0 1 1 0 0 1 1 0 1
+ 1 1 0 0 1 1 0 1 1 0 1 1 1 1 1 0 1 0 1 1 0 0 1 1 1 0 1 1 0 0 0 1 1 0 1 0 1
+ 1 0 1 0 1 0 1 0 0 1 1 1 0 0 1 0 1 1 0 0 0 0 0 0 1 0 1 1 1 1 0 0 1 0 1 1 0
+ 0 1 0 0 1 0 1 1 1 0 1 1 1 0 1 1 1 1 0 0 1 1 1 0 1 1 1 0 1 0 0 1 1 1 0 0 0
+ 0 0 0 0 0 0 1 1 0 0 0 1 1 0 0 0 0 1 1 0 0 1 1 1 1 1 0 0 1 0 1 0 1 1 0 0 1
+ 1 1 1 1 1 1 1 1 1 0 1 1 0 1 1 0 1 0 0 0 0 0 1 0 0 1 0 0 0 1 1 1 0 1 1 0 1
+ 0 0 1 0 0 1 1 0 1 1 0 0 0]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[  0   1   3   4   5   9  11  18  21  24  26  27  30  34  35  37  38  39
-  40  41  42  44  46  47  48  49  53  55  56  57  60  61  65  67  70  71
-  72  74  80  81  88  89  91  94  96  98 103 106 110 111 112 114 116 117
- 119 121 122 123 124 127 128 129 131 134 135 137 139 142 143 145 146 147
- 149 151 152 159 167 168 169 170 171 174 178 179 184 187 188 189 190 193
- 196 197 198 201 202 203 204 205 208 210 211 216 217 219 222 224 226 229
- 231 232 236 238 239 243 244 245 247 248 249 251 252 254 255 257 258 259
- 262 263 264 265 268 270 271 272 275 276 277 279 280 281 283 286 287 289
- 290 292 295 296 298 299 300 301 302 304 307 310 311 312 313 316 317 319
- 321 323 325 327 328 329 330 333 334 335 336 337 339 341 342 343 345 349
- 350 354 357 358 359 361 362 363 365 367 368 369 374 375 376 377 381 383
- 384 388 390 391 392 393 399 402 403 404 406 412 413 414 415 416 418 421
- 422 423 424 425 426 427 428 431 432 433 434 435 438 440 442 445 447 448
- 454 455 459 460 468 471 472 479 482 483 484 485 486 487 489 491 492 496
- 498 499 501 503 504 506 514 515 520 521 522 523 524 525 527 529 530 532
- 534 536 538 540 541 543 544 548 552 553 557 558 559 560 562 565 567 569
- 570 572 573 574 575 583 584 585 587 588 589 590 592 593 594 599 600 602
- 603 604 605 607 608 610 612 614 616 621 623 625 626 627 628 630 631 632
- 635 636 639 643 646 647 652 654 655 659 660 661 662 665 666 670 671 673
- 675 676 679 681 682 689 690 691 696 697 698 702 703 707 709 710 714 715
- 716 718 722 723 724 725 728 730 731 732 733 734 735 737 738 739 743 744
- 745 747 748 749 750 751]</t>
+          <t>[  1   2   3   4  10  12  13  14  16  17  18  19  20  21  23  26  30  31
+  33  34  35  37  39  44  46  50  51  52  54  55  58  59  61  62  63  65
+  68  69  72  73  75  76  79  81  85  88  89  91  93  94  95  96  97 100
+ 101 102 107 109 111 115 116 118 119 121 124 125 127 129 132 135 137 138
+ 139 140 141 144 145 147 148 151 153 154 155 159 160 161 162 163 164 165
+ 166 167 169 175 180 183 188 190 191 192 193 196 197 198 199 201 205 209
+ 210 214 215 216 217 218 223 224 226 227 230 234 235 237 238 240 242 243
+ 247 249 251 252 256 257 258 260 263 264 265 271 275 278 280 282 283 286
+ 287 291 292 296 297 298 299 301 304 306 309 310 311 313 315 316 324 325
+ 326 327 329 332 333 335 336 337 339 340 342 343 344 346 347 349 354 355
+ 357 358 360 365 366 367 368 369 370 371 372 378 379 381 382 383 384 385
+ 386 387 393 396 397 399 401 402 404 405 406 409 412 413 414 416 418 420
+ 422 423 424 425 426 427 428 430 432 434 437 438 440 441 442 444 445 446
+ 447 448 451 452 453 456 464 465 466 472 474 478 479 481 482 483 486 487
+ 488 489 492 497 498 500 502 503 504 507 510 515 517 520 521 522 523 525
+ 526 527 528 529 532 533 534 535 539 541 543 544 547 548 551 552 554 555
+ 556 559 560 562 563 565 566 567 568 569 571 573 574 577 578 579 581 582
+ 586 587 589 591 592 594 596 598 601 602 603 606 608 609 616 618 619 620
+ 621 624 626 627 630 633 635 636 637 639 640 641 643 644 645 646 649 650
+ 651 653 654 655 657 660 661 662 672 673 677 678 683 684 687 688 689 690
+ 691 694 696 698 699 702 703 704 705 706 707 708 709 710 711 713 714 716
+ 717 719 725 728 732 733 734 736 737 739 742 745 746 748 749]</t>
         </is>
       </c>
       <c r="D2" t="n">
         <v>0.9736842105263158</v>
       </c>
       <c r="E2" t="n">
-        <v>63.69589686393738</v>
+        <v>52.25616931915283</v>
       </c>
     </row>
     <row r="3">
@@ -528,58 +528,59 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[1 1 0 0 1 0 1 1 0 0 0 1 0 1 0 0 0 1 0 0 1 1 1 0 1 1 0 0 0 1 1 0 0 1 1 1 1
- 0 1 1 0 1 1 0 1 1 1 0 0 0 0 0 0 0 1 1 1 0 1 0 0 1 0 0 0 1 1 1 0 1 1 0 1 0
- 1 0 1 1 1 0 0 0 1 1 0 1 0 1 1 0 0 0 0 0 1 0 1 1 0 1 1 1 1 1 0 1 1 1 1 0 1
- 0 0 1 1 0 1 1 1 1 1 1 0 0 0 0 1 1 1 1 1 1 1 1 1 1 1 0 0 0 0 0 0 1 0 1 1 1
- 0 1 0 1 1 0 0 1 0 0 1 1 1 0 1 0 1 1 0 1 1 1 1 1 1 0 0 1 0 0 1 0 0 0 0 0 1
- 1 0 0 1 0 0 1 1 1 1 0 1 1 0 0 0 1 1 0 1 1 1 0 0 0 0 0 1 0 1 0 0 1 0 1 0 1
- 1 0 0 1 0 1 1 0 0 0 1 0 1 0 1 0 0 1 1 0 0 1 1 1 0 1 0 1 0 0 1 0 1 1 0 1 1
- 0 0 0 0 1 0 0 0 1 0 1 0 0 1 0 1 0 0 1 1 1 0 0 0 1 0 1 1 0 0 0 0 0 0 0 0 1
- 1 0 0 1 1 1 0 0 0 0 0 1 0 0 1 1 0 1 1 1 0 1 0 1 0 1 0 0 1 1 0 1 1 0 0 0 1
- 0 0 1 0 0 0 0 0 0 0 0 1 0 0 1 0 0 1 0 0 1 0 0 1 1 1 0 1 0 0 1 0 1 0 1 0 1
- 0 0 0 0 1 1 0 0 0 0 1 1 1 1 0 0 0 0 0 0 1 0 1 1 1 0 1 0 0 1 0 1 1 0 1 0 1
- 0 1 0 0 1 1 0 0 0 1 0 0 1 0 0 0 0 1 1 1 1 1 1 0 0 0 0 1 0 0 0 0 0 1 1 0 0
- 0 0 1 0 0 0 0 1 1 0 1 0 1 1 0 1 1 1 1 1 1 1 0 1 0 1 0 1 1 0 1 0 1 0 0 1 0
- 0 0 1 0 0 0 1 0 1 0 0 0 1 1 0 0 1 0 0 1 0 0 1 0 1 1 0 0 0 0 1 0 0 0 0 0 0
- 0 1 1 1 0 0 0 1 1 0 0 1 1 0 1 1 0 1 1 0 1 0 0 1 1 1 1 1 0 0 0 1 1 1 0 0 0
- 0 0 0 1 1 1 1 1 0 0 0 0 0 0 0 0 1 1 0 0 1 0 1 0 0 0 0 1 1 1 0 0 0 1 1 0 0
- 0 0 1 1 0 1 1 1 0 0 1 1 1 0 1 1 1 1 0 0 1 0 1 0 1 1 0 1 0 0 1 0 0 1 1 1 0
- 0 1 1 0 1 0 0 1 1 1 1 1 0 0 1 1 1 0 1 1 0 1 0 0 0 0 1 1 1 0 1 1 0 0 0 0 0
- 1 0 1 1 0 1 1 1 0 0 1 1 1 1 0 1 0 0 1 1 0 1 1 0 0 1 1 0 1 0 1 1 0 0 1 0 0
- 1 0 0 0 1 0 1 1 0 1 0 0 1 0 1 0 1 0 0 0 1 0 1 0 0 0 1 1 1 0 1 0 1 1 0 1 0
- 1 0 0 0 1 0 0 0 1 0 0 1 0]</t>
+          <t>[1 0 0 0 0 1 0 1 1 0 0 0 1 1 0 0 0 0 1 1 1 0 0 1 0 1 1 0 1 0 0 1 1 0 0 1 1
+ 1 1 0 0 0 0 0 0 1 0 1 1 0 0 0 1 0 1 0 0 0 0 1 0 1 1 0 1 0 1 0 1 0 0 1 0 1
+ 1 0 0 1 1 0 1 1 0 0 1 1 0 0 0 0 0 1 0 1 1 0 1 0 1 1 1 1 1 0 1 1 0 0 0 1 1
+ 0 1 1 1 1 0 0 1 0 0 1 0 0 1 0 1 0 1 0 0 1 0 1 1 0 0 0 0 0 1 0 0 0 1 1 0 0
+ 1 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 1 0 1 0 0 1 1 1 1 0 0 0 0 0
+ 1 1 1 0 1 0 1 0 1 1 0 1 0 0 1 1 1 1 0 1 1 0 0 0 1 0 0 0 1 0 1 0 1 1 1 0 1
+ 0 1 0 0 0 1 0 1 0 0 0 1 0 1 1 0 1 1 0 1 0 0 1 0 0 0 0 1 0 1 1 1 0 0 1 1 0
+ 1 0 1 1 1 1 0 0 0 1 0 1 0 1 0 0 1 0 0 1 1 0 0 0 1 1 0 0 0 1 0 0 0 1 0 1 1
+ 0 0 0 0 1 1 1 1 1 0 0 1 1 0 0 1 0 1 1 1 1 1 0 0 0 0 1 1 0 0 1 1 0 1 0 1 1
+ 0 1 0 1 0 1 0 1 0 1 1 0 1 1 1 0 1 1 1 1 1 0 0 1 1 1 0 0 1 1 0 0 1 0 0 0 0
+ 0 1 0 1 1 0 1 1 0 1 1 1 0 1 0 0 1 1 1 1 1 0 1 0 0 0 0 0 1 0 0 0 1 1 1 0 1
+ 1 1 1 0 0 1 0 1 0 1 1 1 0 0 0 0 0 1 0 1 1 1 0 0 1 0 1 1 1 1 1 1 1 1 1 0 1
+ 1 1 0 0 1 0 0 0 0 0 1 1 0 0 0 0 1 0 0 0 0 0 1 1 1 0 1 1 0 1 1 1 0 1 1 1 1
+ 1 1 0 1 0 1 0 0 1 0 0 1 1 0 0 0 0 1 0 0 1 1 1 1 1 0 1 0 1 1 1 1 1 1 1 1 0
+ 0 0 1 1 1 0 0 1 1 1 1 1 1 0 0 0 1 1 1 1 0 1 0 0 1 0 0 0 0 0 0 0 0 1 1 0 0
+ 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 1 1 0 0 1 1 0 1 1 0 1 0 1 0 1 1 0 1 1 0
+ 1 0 0 0 1 1 1 1 1 1 0 1 0 0 0 0 0 1 0 1 0 1 0 1 0 0 0 0 1 0 0 0 0 1 0 1 1
+ 0 1 1 1 0 0 0 1 0 1 1 1 1 0 1 1 0 0 0 0 1 1 1 1 0 0 1 0 1 0 0 1 1 1 1 1 1
+ 0 1 0 1 0 1 1 0 1 0 0 0 1 0 0 1 0 1 1 0 1 1 0 1 1 1 0 0 1 0 1 0 1 1 1 1 0
+ 0 1 1 0 0 0 0 1 0 0 0 0 0 1 1 1 1 1 1 0 0 1 0 1 0 1 0 1 1 0 0 0 0 1 1 1 1
+ 1 1 0 0 0 0 1 1 1 1 0 0 1]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[  0   1   4   6   7  11  13  17  20  21  22  24  25  29  30  33  34  35
-  36  38  39  41  42  44  45  46  54  55  56  58  61  65  66  67  69  70
-  72  74  76  77  78  82  83  85  87  88  94  96  97  99 100 101 102 103
- 105 106 107 108 110 113 114 116 117 118 119 120 121 126 127 128 129 130
- 131 132 133 134 135 136 143 145 146 147 149 151 152 155 158 159 160 162
- 164 165 167 168 169 170 171 172 175 178 184 185 188 191 192 193 194 196
- 197 201 202 204 205 206 212 214 217 219 221 222 225 227 228 232 234 236
- 239 240 243 244 245 247 249 252 254 255 257 258 263 267 269 272 274 277
- 278 279 283 285 286 295 296 299 300 301 307 310 311 313 314 315 317 319
- 321 324 325 327 328 332 335 344 347 350 353 356 357 358 360 363 365 367
- 369 374 375 380 381 382 383 390 392 393 394 396 399 401 402 404 406 408
- 411 412 416 419 424 425 426 427 428 429 434 440 441 446 451 452 454 456
- 457 459 460 461 462 463 464 465 467 469 471 472 474 476 479 483 487 489
- 493 494 497 500 503 505 506 511 519 520 521 525 526 529 530 532 533 535
- 536 538 541 542 543 544 545 549 550 551 558 559 560 561 562 571 572 575
- 577 582 583 584 588 589 594 595 597 598 599 602 603 604 606 607 608 609
- 612 614 616 617 619 622 625 626 627 630 631 633 636 637 638 639 640 643
- 644 645 647 648 650 655 656 657 659 660 666 668 669 671 672 673 676 677
- 678 679 681 684 685 687 688 691 692 694 696 697 700 703 707 709 710 712
- 715 717 719 723 725 729 730 731 733 735 736 738 740 744 748 751]</t>
+          <t>[  0   5   7   8  12  13  18  19  20  23  25  26  28  31  32  35  36  37
+  38  45  47  48  52  54  59  61  62  64  66  68  71  73  74  77  78  80
+  81  84  85  91  93  94  96  98  99 100 101 102 104 105 109 110 112 113
+ 114 115 118 121 124 126 128 131 133 134 140 144 145 148 152 155 167 170
+ 171 173 176 177 178 179 185 186 187 189 191 193 194 196 199 200 201 202
+ 204 205 209 213 215 217 218 219 221 223 227 229 233 235 236 238 239 241
+ 244 249 251 252 253 256 257 259 261 262 263 264 268 270 272 275 278 279
+ 283 284 288 292 294 295 300 301 302 303 304 307 308 311 313 314 315 316
+ 317 322 323 326 327 329 331 332 334 336 338 340 342 343 345 346 347 349
+ 350 351 352 353 356 357 358 361 362 365 371 373 374 376 377 379 380 381
+ 383 386 387 388 389 390 392 398 402 403 404 406 407 408 409 412 414 416
+ 417 418 424 426 427 428 431 433 434 435 436 437 438 439 440 441 443 444
+ 445 448 454 455 460 466 467 468 470 471 473 474 475 477 478 479 480 481
+ 482 484 486 489 492 493 498 501 502 503 504 505 507 509 510 511 512 513
+ 514 515 516 520 521 522 525 526 527 528 529 530 534 535 536 537 539 542
+ 551 552 556 560 570 572 573 576 577 579 580 582 584 586 587 589 590 592
+ 596 597 598 599 600 601 603 609 611 613 615 620 625 627 628 630 631 632
+ 636 638 639 640 641 643 644 649 650 651 652 655 657 660 661 662 663 664
+ 665 667 669 671 672 674 678 681 683 684 686 687 689 690 691 694 696 698
+ 699 700 701 704 705 710 716 717 718 719 720 721 724 726 728 730 731 736
+ 737 738 739 740 741 746 747 748 749 752]</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.9736842105263158</v>
+        <v>0.9868421052631579</v>
       </c>
       <c r="E3" t="n">
-        <v>115.4151492118835</v>
+        <v>105.3467655181885</v>
       </c>
     </row>
     <row r="4">
@@ -588,59 +589,59 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[1 0 0 1 1 0 0 1 1 1 0 0 1 0 1 0 0 1 1 1 0 0 0 1 1 0 1 0 1 0 0 1 0 1 0 0 1
- 0 1 0 0 0 1 0 0 1 1 1 0 1 1 1 0 1 1 0 0 0 0 1 1 1 1 0 1 0 1 0 0 0 1 1 1 1
- 1 0 0 0 1 0 1 0 0 1 0 0 0 0 0 1 1 0 0 0 1 1 1 0 0 1 0 0 1 0 1 0 0 1 0 0 0
- 0 1 1 0 1 1 1 0 1 1 1 1 0 1 1 0 1 1 1 0 1 1 0 0 1 0 1 0 0 1 0 0 1 1 1 0 1
- 1 1 0 0 1 1 1 1 0 1 1 1 0 0 0 0 0 1 1 0 1 1 0 0 0 0 1 1 1 1 1 0 1 1 1 1 0
- 1 0 0 0 0 0 0 0 0 1 1 1 0 0 1 1 0 1 1 1 0 1 1 1 1 0 0 0 0 0 0 1 0 1 1 0 0
- 0 1 1 0 1 1 1 0 0 1 1 1 1 0 1 0 0 0 1 0 1 0 0 0 0 1 0 0 1 0 0 1 0 1 1 0 1
- 0 1 0 0 1 1 1 0 1 1 0 0 0 1 1 0 0 1 1 0 0 1 1 0 0 0 0 0 0 1 1 0 0 1 0 0 0
- 1 0 1 0 0 0 0 0 0 1 0 1 1 0 1 0 0 1 0 0 0 1 1 0 0 1 1 1 1 0 1 1 0 1 1 1 1
- 0 0 0 1 1 1 1 0 0 0 1 1 1 0 1 0 0 1 0 0 1 0 1 0 0 0 0 1 1 0 1 0 1 1 0 1 1
- 1 1 0 0 0 1 1 0 1 1 1 0 1 1 0 1 1 0 1 1 1 1 1 1 1 0 0 0 0 0 0 1 0 0 1 0 1
- 0 1 1 1 0 0 0 1 1 0 1 1 0 1 0 0 1 1 1 0 1 0 0 0 0 1 1 0 0 1 0 1 1 1 1 0 1
- 0 1 1 0 1 1 0 1 1 0 1 0 0 1 0 1 0 1 1 0 0 0 1 0 1 0 1 1 0 0 1 0 0 0 1 1 1
- 0 0 0 1 1 1 0 0 0 1 0 1 0 1 0 1 0 0 0 0 0 1 0 1 1 1 0 1 1 1 0 1 1 0 1 1 1
- 0 0 0 0 1 0 0 0 1 0 1 0 0 1 0 0 1 1 1 1 1 0 1 1 1 1 0 0 1 1 0 1 0 1 1 0 1
- 1 0 1 1 0 0 0 0 0 0 0 0 1 1 0 0 1 0 0 1 1 0 1 0 0 0 1 1 1 1 1 0 0 1 1 1 1
- 1 1 1 1 1 1 0 0 0 0 1 1 0 1 1 0 0 0 1 0 1 0 1 1 1 0 1 0 0 1 0 0 1 1 0 0 1
- 0 1 0 0 0 1 1 0 0 0 1 1 1 1 0 0 0 0 1 0 0 1 1 1 1 1 0 0 1 0 0 1 1 1 0 1 0
- 1 1 0 0 0 0 0 1 0 1 1 1 1 0 0 0 0 0 1 0 1 1 0 0 1 1 1 1 1 0 1 0 1 0 0 1 0
- 0 0 0 0 1 0 0 1 0 0 1 0 0 0 1 1 0 0 1 0 0 1 0 0 0 0 1 0 1 1 1 1 0 0 0 1 0
- 0 0 1 0 0 0 0 1 1 1 0 1 0]</t>
+          <t>[1 0 1 1 0 1 0 0 0 0 1 0 0 0 0 0 1 1 0 1 1 0 1 0 1 1 0 1 0 1 0 0 1 1 0 1 0
+ 0 0 1 1 0 1 0 1 0 0 1 0 1 1 1 1 0 1 1 1 1 1 1 1 0 1 1 1 0 1 0 1 1 0 0 1 0
+ 1 1 0 1 1 0 1 1 0 1 0 1 0 0 1 0 0 1 1 0 0 0 1 0 1 1 0 1 1 0 0 1 0 1 0 0 1
+ 0 0 1 0 0 1 0 0 1 0 1 0 1 1 0 0 0 0 0 0 0 1 0 0 1 0 0 0 1 1 1 1 1 1 0 1 1
+ 0 1 0 0 0 1 1 1 1 1 0 1 1 1 0 0 1 0 0 1 0 0 1 1 0 1 1 0 1 1 0 0 0 1 0 1 0
+ 0 0 0 1 1 0 1 0 0 0 0 1 1 0 1 0 0 1 1 1 1 0 1 0 0 1 0 0 1 1 0 0 0 1 1 0 0
+ 0 0 1 1 1 0 1 0 1 1 0 1 1 0 0 0 0 0 1 0 0 1 0 1 1 1 1 0 0 1 1 1 0 0 1 1 1
+ 1 0 0 1 0 1 1 1 0 0 1 1 0 0 0 0 0 1 0 0 0 0 1 0 1 0 0 0 1 0 0 1 1 0 0 0 0
+ 0 0 0 1 1 1 1 0 1 1 1 1 1 1 1 0 0 1 1 0 1 0 0 1 0 0 0 1 1 1 0 0 0 1 1 1 0
+ 1 1 1 0 0 1 1 1 0 0 1 0 1 0 1 0 1 0 1 1 0 1 0 0 1 0 0 0 0 1 1 0 1 1 0 0 0
+ 0 1 0 0 0 1 1 0 1 0 1 0 1 0 0 1 1 0 0 0 0 1 1 0 1 1 1 0 0 1 0 0 0 0 1 0 1
+ 1 1 1 1 0 0 1 1 1 1 1 0 1 0 1 0 1 0 1 0 1 1 1 0 1 0 0 1 1 1 1 1 0 0 0 1 1
+ 1 1 0 0 0 0 1 0 1 1 0 0 1 1 0 1 0 0 1 0 0 1 0 1 1 0 0 0 1 0 0 1 0 1 0 0 1
+ 0 1 1 1 0 1 0 0 1 1 0 0 1 1 1 1 0 1 1 1 1 1 0 1 1 0 1 1 0 0 1 1 0 0 1 0 0
+ 0 1 0 0 0 1 0 0 1 1 1 1 1 1 1 0 0 1 1 1 1 0 1 0 0 0 0 0 1 1 1 1 1 1 1 0 1
+ 0 1 1 1 0 0 0 0 0 0 0 1 0 0 0 1 1 0 0 0 1 0 1 1 0 0 0 1 0 1 0 1 0 1 1 0 0
+ 0 1 1 0 1 1 0 0 0 0 0 1 0 0 0 0 1 0 1 1 1 1 0 1 0 0 1 0 0 0 1 1 1 0 0 0 1
+ 0 1 0 0 1 0 0 1 0 1 1 1 1 1 0 0 0 1 0 1 0 1 1 0 0 0 0 1 0 0 0 1 0 0 1 0 1
+ 0 0 0 0 0 0 1 0 0 1 1 1 1 1 0 1 0 1 1 1 1 0 0 0 0 1 0 1 0 0 1 0 0 0 1 1 1
+ 1 0 1 0 1 1 0 0 1 1 1 0 0 0 0 0 1 0 0 0 0 1 0 0 1 1 1 0 1 1 1 0 1 0 1 0 1
+ 0 0 0 0 1 0 0 1 0 1 0 0 0]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[  0   3   4   7   8   9  12  14  17  18  19  23  24  26  28  31  33  36
-  38  42  45  46  47  49  50  51  53  54  59  60  61  62  64  66  70  71
-  72  73  74  78  80  83  89  90  94  95  96  99 102 104 107 112 113 115
- 116 117 119 120 121 122 124 125 127 128 129 131 132 135 137 140 143 144
- 145 147 148 149 152 153 154 155 157 158 159 165 166 168 169 174 175 176
- 177 178 180 181 182 183 185 194 195 196 199 200 202 203 204 206 207 208
- 209 216 218 219 223 224 226 227 228 231 232 233 234 236 240 242 247 250
- 253 255 256 258 260 263 264 265 267 268 272 273 276 277 280 281 288 289
- 292 296 298 305 307 308 310 313 317 318 321 322 323 324 326 327 329 330
- 331 332 336 337 338 339 343 344 345 347 350 353 355 360 361 363 365 366
- 368 369 370 371 375 376 378 379 380 382 383 385 386 388 389 390 391 392
- 393 394 401 404 406 408 409 410 414 415 417 418 420 423 424 425 427 432
- 433 436 438 439 440 441 443 445 446 448 449 451 452 454 457 459 461 462
- 466 468 470 471 474 478 479 480 484 485 486 490 492 494 496 502 504 505
- 506 508 509 510 512 513 515 516 517 522 526 528 531 534 535 536 537 538
- 540 541 542 543 546 547 549 551 552 554 555 557 558 567 568 571 574 575
- 577 581 582 583 584 585 588 589 590 591 592 593 594 595 596 597 602 603
- 605 606 610 612 614 615 616 618 621 624 625 628 630 634 635 639 640 641
- 642 647 650 651 652 653 654 657 660 661 662 664 666 667 673 675 676 677
- 678 684 686 687 690 691 692 693 694 696 698 701 707 710 713 717 718 721
- 724 729 731 732 733 734 738 742 747 748 749 751]</t>
+          <t>[  0   2   3   5  10  16  17  19  20  22  24  25  27  29  32  33  35  39
+  40  42  44  47  49  50  51  52  54  55  56  57  58  59  60  62  63  64
+  66  68  69  72  74  75  77  78  80  81  83  85  88  91  92  96  98  99
+ 101 102 105 107 110 113 116 119 121 123 124 132 135 139 140 141 142 143
+ 144 146 147 149 153 154 155 156 157 159 160 161 164 167 170 171 173 174
+ 176 177 181 183 188 189 191 196 197 199 202 203 204 205 207 210 213 214
+ 218 219 224 225 226 228 230 231 233 234 240 243 245 246 247 248 251 252
+ 253 256 257 258 259 262 264 265 266 269 270 276 281 283 287 290 291 299
+ 300 301 302 304 305 306 307 308 309 310 313 314 316 319 323 324 325 329
+ 330 331 333 334 335 338 339 340 343 345 347 349 351 352 354 357 362 363
+ 365 366 371 375 376 378 380 382 385 386 391 392 394 395 396 399 404 406
+ 407 408 409 410 413 414 415 416 417 419 421 423 425 427 428 429 431 434
+ 435 436 437 438 442 443 444 445 450 452 453 456 457 459 462 465 467 468
+ 472 475 477 480 482 483 484 486 489 490 493 494 495 496 498 499 500 501
+ 502 504 505 507 508 511 512 515 519 523 526 527 528 529 530 531 532 535
+ 536 537 538 540 546 547 548 549 550 551 552 554 556 557 558 566 570 571
+ 575 577 578 582 584 586 588 589 593 594 596 597 603 608 610 611 612 613
+ 615 618 622 623 624 628 630 633 636 638 639 640 641 642 646 648 650 651
+ 656 660 663 665 672 675 676 677 678 679 681 683 684 685 686 691 693 696
+ 700 701 702 703 705 707 708 711 712 713 719 724 727 728 729 731 732 733
+ 735 737 739 744 747 749]</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.9868421052631579</v>
+        <v>0.9736842105263158</v>
       </c>
       <c r="E4" t="n">
-        <v>170.1425096988678</v>
+        <v>160.2647819519043</v>
       </c>
     </row>
     <row r="5">
@@ -649,59 +650,59 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>[0 1 0 0 0 0 0 1 0 1 1 0 1 0 1 1 1 0 0 0 0 1 0 1 0 1 0 1 1 1 0 0 1 0 1 0 0
- 1 0 1 1 0 0 1 0 0 1 1 1 1 1 1 0 1 0 1 0 1 0 1 1 0 1 1 0 1 1 0 1 0 1 0 0 0
- 1 1 1 1 0 0 0 0 0 0 0 0 0 1 0 1 0 1 0 0 0 1 0 0 0 0 0 1 0 1 1 1 0 1 0 1 0
- 1 0 0 0 0 0 1 1 1 0 1 0 1 0 1 1 1 1 0 1 0 0 1 0 1 0 0 1 0 0 1 0 0 1 0 1 1
- 0 1 1 1 1 1 0 0 1 1 1 1 0 0 1 0 0 1 1 1 0 1 0 1 1 0 0 0 0 1 0 0 0 1 0 0 0
- 1 1 0 0 0 0 1 0 0 1 1 0 1 0 0 0 1 0 1 0 1 0 0 1 1 0 1 0 0 0 1 0 1 0 0 1 0
- 0 0 1 0 0 1 1 0 1 0 0 1 0 1 1 1 1 1 0 1 1 0 1 1 1 1 1 0 0 1 1 1 0 1 0 0 1
- 1 0 0 1 0 0 0 0 0 0 1 1 0 1 0 0 0 0 0 0 0 1 0 0 0 0 1 0 1 0 1 1 0 0 0 0 0
- 0 1 0 1 1 0 0 1 0 0 1 1 1 0 0 0 0 0 1 1 0 1 0 1 0 1 0 1 0 0 1 0 0 1 1 1 1
- 0 1 1 1 1 0 1 0 0 0 0 1 1 1 0 0 0 0 0 1 1 0 0 0 1 0 1 0 1 1 0 1 1 0 1 0 1
- 0 1 0 1 0 0 1 1 0 0 0 1 1 1 1 1 1 0 1 1 0 0 1 1 1 0 1 0 1 0 0 0 1 0 0 1 0
- 1 0 1 1 0 0 1 0 1 0 0 1 1 1 1 1 0 1 1 1 1 1 0 0 1 1 1 0 0 1 0 0 1 1 1 0 0
- 0 1 0 0 1 1 1 0 0 0 0 0 0 1 1 0 0 0 1 1 0 1 0 1 1 0 0 1 0 1 1 1 0 1 0 0 0
- 0 1 0 1 0 1 0 1 0 0 1 0 1 1 0 0 0 1 0 1 1 0 0 0 1 0 1 1 1 0 0 0 1 1 1 0 1
- 0 0 0 1 0 1 1 1 1 0 1 0 1 1 0 0 1 0 1 0 0 0 1 0 0 0 1 0 0 0 0 1 0 0 0 0 0
- 0 0 0 1 1 1 1 0 0 1 0 1 1 0 0 0 0 0 1 0 0 0 1 0 0 1 1 0 0 1 0 1 1 1 0 0 1
- 1 0 1 1 0 1 1 1 0 1 0 0 1 1 0 1 1 0 0 0 0 1 1 0 0 1 0 1 0 0 1 1 1 0 1 1 1
- 0 0 1 0 0 1 0 1 1 0 0 0 1 0 1 1 1 0 1 1 1 0 0 0 0 0 1 1 1 0 0 1 1 1 1 0 1
- 1 0 0 1 1 1 1 0 0 1 1 0 0 1 0 0 0 1 1 1 0 1 1 1 1 1 1 0 1 0 0 1 1 1 1 0 0
- 1 1 0 1 0 1 0 0 1 0 0 0 0 1 1 1 1 0 1 1 1 0 1 1 0 1 0 1 0 1 0 0 1 0 1 1 0
- 0 0 1 0 1 0 1 1 1 1 1 1 0]</t>
+          <t>[1 0 1 0 0 0 1 1 1 0 1 0 1 1 0 0 1 0 0 1 1 0 0 0 0 0 1 1 0 0 0 1 1 0 1 0 0
+ 0 1 1 1 0 1 1 0 1 1 0 1 1 0 0 0 1 1 1 0 0 1 1 0 1 1 1 1 1 1 0 1 1 1 1 1 1
+ 1 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 1 1 0 0 1 0 1 0 1 0 1 0 0 0 1 0 0 1 1 1 1
+ 0 0 0 1 0 0 0 1 1 0 1 0 1 0 1 1 0 1 0 0 0 1 0 0 0 1 1 0 1 0 1 0 1 1 1 0 0
+ 0 1 0 0 0 1 1 0 0 1 1 0 1 0 1 1 1 1 0 0 1 1 0 1 1 1 1 1 0 0 1 0 1 0 0 1 0
+ 0 0 1 0 1 0 1 0 1 1 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0
+ 1 1 1 0 0 1 0 1 0 1 1 1 0 0 0 1 0 1 0 1 1 0 0 0 1 0 1 0 1 1 0 0 0 1 1 0 1
+ 0 1 1 0 1 1 1 1 1 1 0 0 0 0 1 0 0 1 1 1 0 1 0 0 1 1 0 1 0 0 1 1 0 0 1 1 1
+ 1 1 0 0 1 0 1 1 0 0 1 0 0 1 1 0 1 1 0 1 0 0 0 0 1 0 1 1 0 1 0 0 0 0 1 1 0
+ 1 1 1 1 1 1 1 0 0 1 1 1 1 1 1 1 1 0 0 0 1 0 0 0 0 0 0 0 1 1 1 1 0 1 1 0 0
+ 1 0 0 1 1 0 0 1 0 1 0 0 1 1 1 0 0 0 1 0 0 1 1 1 0 0 1 1 0 0 1 1 1 1 0 1 0
+ 0 1 1 0 1 0 1 0 1 0 0 1 1 0 1 0 0 0 0 1 1 1 1 0 0 1 0 0 0 1 0 1 1 1 1 1 0
+ 1 1 0 1 1 1 0 0 0 1 0 1 0 1 1 0 0 0 1 1 0 0 0 1 1 0 0 1 0 0 1 1 0 0 0 1 0
+ 0 0 1 1 0 1 1 1 1 1 1 1 1 1 0 0 0 0 1 1 1 1 0 0 0 0 1 1 0 1 1 0 0 0 0 0 0
+ 1 0 1 1 0 1 1 1 0 1 1 1 0 1 0 1 0 0 1 0 0 1 0 1 0 1 0 1 0 0 0 0 1 0 0 1 1
+ 1 1 0 0 1 0 0 1 0 0 0 0 1 1 0 0 0 0 1 1 1 1 1 0 0 0 0 1 1 0 1 0 1 1 0 1 0
+ 1 1 0 0 1 0 0 1 0 1 0 0 0 0 0 1 0 0 0 1 0 1 0 0 1 0 1 0 0 1 1 0 0 0 1 1 0
+ 0 0 1 1 1 0 1 1 1 0 0 0 0 1 1 0 0 0 1 1 1 1 0 1 0 1 0 1 0 1 1 1 0 0 1 1 0
+ 1 0 1 0 1 0 0 0 0 0 1 1 1 0 0 0 0 1 1 1 1 1 1 0 0 0 0 0 0 1 0 1 0 1 1 1 0
+ 0 1 1 0 0 0 0 0 1 0 0 0 1 1 0 1 0 1 0 1 1 1 0 1 1 0 0 1 1 0 0 0 0 1 1 0 0
+ 0 0 1 0 1 1 1 0 0 1 1 0 1]</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[  1   7   9  10  12  14  15  16  21  23  25  27  28  29  32  34  37  39
-  40  43  46  47  48  49  50  51  53  55  57  59  60  62  63  65  66  68
-  70  74  75  76  77  87  89  91  95 101 103 104 105 107 109 111 117 118
- 119 121 123 125 126 127 128 130 133 135 138 141 144 146 147 149 150 151
- 152 153 156 157 158 159 162 165 166 167 169 171 172 177 181 185 186 191
- 194 195 197 201 203 205 208 209 211 215 217 220 224 227 228 230 233 235
- 236 237 238 239 241 242 244 245 246 247 248 251 252 253 255 258 259 262
- 269 270 272 280 285 287 289 290 297 299 300 303 306 307 308 314 315 317
- 319 321 323 326 329 330 331 332 334 335 336 337 339 344 345 346 352 353
- 357 359 361 362 364 365 367 369 371 373 376 377 381 382 383 384 385 386
- 388 389 392 393 394 396 398 402 405 407 409 410 413 415 418 419 420 421
- 422 424 425 426 427 428 431 432 433 436 439 440 441 445 448 449 450 457
- 458 462 463 465 467 468 471 473 474 475 477 482 484 486 488 491 493 494
- 498 500 501 505 507 508 509 513 514 515 517 521 523 524 525 526 528 530
- 531 534 536 540 544 549 558 559 560 561 564 566 567 573 577 580 581 584
- 586 587 588 591 592 594 595 597 598 599 601 604 605 607 608 613 614 617
- 619 622 623 624 626 627 628 631 634 636 637 641 643 644 645 647 648 649
- 655 656 657 660 661 662 663 665 666 669 670 671 672 675 676 679 683 684
- 685 687 688 689 690 691 692 694 697 698 699 700 703 704 706 708 711 716
- 717 718 719 721 722 723 725 726 728 730 732 735 737 738 742 744 746 747
- 748 749 750 751]</t>
+          <t>[  0   2   6   7   8  10  12  13  16  19  20  26  27  31  32  34  38  39
+  40  42  43  45  46  48  49  53  54  55  58  59  61  62  63  64  65  66
+  68  69  70  71  72  73  74  80  86  90  91  94  96  98 100 104 107 108
+ 109 110 114 118 119 121 123 125 126 128 132 136 137 139 141 143 144 145
+ 149 153 154 157 158 160 162 163 164 165 168 169 171 172 173 174 175 178
+ 180 183 187 189 191 193 194 200 202 218 220 222 223 224 227 229 231 232
+ 233 237 239 241 242 246 248 250 251 255 256 258 260 261 263 264 265 266
+ 267 268 273 276 277 278 280 283 284 286 289 290 293 294 295 296 297 300
+ 302 303 306 309 310 312 313 315 320 322 323 325 330 331 333 334 335 336
+ 337 338 339 342 343 344 345 346 347 348 349 353 361 362 363 364 366 367
+ 370 373 374 377 379 382 383 384 388 391 392 393 396 397 400 401 402 403
+ 405 408 409 411 413 415 418 419 421 426 427 428 429 432 436 438 439 440
+ 441 442 444 445 447 448 449 453 455 457 458 462 463 467 468 471 474 475
+ 479 483 484 486 487 488 489 490 491 492 493 494 499 500 501 502 507 508
+ 510 511 518 520 521 523 524 525 527 528 529 531 533 536 539 541 543 545
+ 550 553 554 555 556 559 562 567 568 573 574 575 576 577 582 583 585 587
+ 588 590 592 593 596 599 601 607 611 613 616 618 621 622 626 627 631 632
+ 633 635 636 637 642 643 647 648 649 650 652 654 656 658 659 660 663 664
+ 666 668 670 676 677 678 683 684 685 686 687 688 695 697 699 700 701 704
+ 705 711 715 716 718 720 722 723 724 726 727 730 731 736 737 742 744 745
+ 746 749 750 752]</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.9736842105263158</v>
+        <v>0.9868421052631579</v>
       </c>
       <c r="E5" t="n">
-        <v>184.7447733879089</v>
+        <v>191.9560368061066</v>
       </c>
     </row>
     <row r="6">
@@ -710,61 +711,64 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[1 0 0 1 0 0 0 0 1 0 1 0 1 1 1 1 1 1 1 0 0 0 1 0 1 0 0 1 0 0 1 1 1 1 1 0 0
- 1 1 1 0 1 0 0 1 1 0 0 1 1 1 0 0 0 0 0 0 1 0 0 1 1 1 0 0 1 1 1 1 1 1 1 0 1
- 1 1 0 1 0 0 0 1 0 1 0 1 0 1 1 0 1 0 1 0 0 1 0 1 0 0 0 0 1 0 0 1 0 0 0 0 0
- 0 1 0 1 0 0 0 0 0 0 1 1 0 0 1 1 1 1 1 1 1 0 1 0 1 1 0 0 0 0 1 1 1 0 1 0 0
- 1 1 0 1 1 1 1 0 1 1 1 1 1 1 1 1 0 1 1 0 0 1 1 1 1 1 0 1 1 0 1 0 0 1 1 1 1
- 1 1 1 1 1 0 0 1 0 1 1 1 1 1 1 1 1 1 0 1 1 0 1 0 1 0 1 0 0 0 0 1 0 0 1 1 1
- 1 1 0 0 1 0 0 1 0 1 1 0 1 1 1 1 1 1 1 0 1 0 0 0 1 0 0 0 0 1 1 0 1 1 0 1 1
- 1 0 0 1 0 1 1 0 0 1 1 1 0 1 0 0 0 1 0 1 0 1 1 1 0 0 1 1 0 0 0 0 0 1 0 0 1
- 1 1 1 0 1 1 0 0 1 1 0 0 0 0 0 1 0 1 0 1 1 0 1 1 1 0 1 0 1 1 1 0 1 1 1 1 1
- 0 0 0 1 1 0 0 1 1 0 1 1 1 1 0 1 1 1 0 0 1 0 1 1 0 0 1 1 1 1 1 1 1 0 0 0 1
- 1 0 1 1 0 0 1 0 1 1 0 1 1 0 1 1 1 1 0 1 1 1 1 1 1 0 1 0 0 0 0 0 0 1 0 1 0
- 1 1 1 0 1 0 0 0 0 1 1 0 0 1 0 1 1 1 1 1 1 1 1 0 0 0 1 0 0 1 0 0 0 0 1 1 1
- 0 1 0 0 1 0 0 1 1 0 0 0 1 0 1 1 0 0 1 1 1 0 1 0 1 0 1 1 1 0 0 0 1 1 1 0 1
- 1 0 1 1 0 1 0 1 1 0 0 0 1 1 0 1 0 1 0 0 1 0 0 0 1 0 0 1 0 1 1 1 1 1 1 0 0
- 0 1 1 1 1 0 0 0 0 1 0 0 0 1 0 1 1 0 1 1 1 0 1 0 1 1 0 0 1 1 1 0 1 1 1 0 1
- 0 0 1 0 1 0 0 0 1 1 0 1 0 1 0 0 0 0 1 1 0 1 0 1 0 1 1 1 1 0 0 0 1 1 1 1 1
- 1 1 0 0 1 0 0 1 1 0 1 0 1 1 1 1 1 0 0 1 1 1 0 1 0 0 1 0 1 0 0 0 1 0 0 1 1
- 0 1 1 0 1 1 1 0 0 1 0 0 1 1 0 1 1 1 0 1 0 1 0 1 1 1 0 1 1 0 1 1 1 1 0 0 1
- 0 0 0 1 0 0 1 0 0 0 1 0 0 0 1 0 0 1 1 1 0 0 0 0 0 1 1 0 0 0 0 1 1 1 0 0 1
- 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 1 0 1 1 1 0 0 0 1 1 0 1 1 0 1 1 0 0 1 0
- 1 0 0 0 1 1 0 1 0 1 1 1 0]</t>
+          <t>[1 1 1 0 1 1 1 1 1 0 1 0 0 0 0 0 1 1 1 0 1 0 1 0 1 0 1 1 1 1 1 0 0 1 1 1 1
+ 1 1 0 0 1 0 1 1 0 0 1 0 1 0 1 1 1 1 0 1 1 1 1 0 0 1 0 1 0 1 0 0 0 0 1 1 1
+ 1 1 1 1 0 0 0 0 1 0 0 1 1 1 0 0 1 0 0 1 1 1 0 1 0 1 0 1 1 1 0 0 0 1 1 1 0
+ 0 1 0 1 0 1 1 0 0 1 0 1 0 0 0 0 1 1 1 1 1 1 0 1 1 1 1 1 0 0 1 1 1 1 1 1 1
+ 1 1 1 0 1 0 0 1 1 0 1 1 0 1 0 1 1 1 1 1 1 1 1 1 1 0 1 1 0 1 1 1 0 0 0 1 1
+ 0 0 1 1 1 1 0 1 1 1 1 0 0 1 1 1 1 1 1 0 1 0 0 1 0 1 1 1 1 0 0 0 1 1 1 0 1
+ 1 0 1 0 0 0 1 0 1 0 0 1 1 1 1 1 1 0 1 1 1 0 0 0 1 1 1 1 0 0 1 1 1 0 1 1 1
+ 1 0 1 0 1 0 0 1 0 1 1 1 0 1 1 1 0 1 0 1 0 1 1 1 1 1 0 1 1 0 0 0 1 0 1 0 0
+ 1 1 1 1 0 0 0 1 1 1 0 0 1 0 1 1 1 0 1 1 0 1 1 1 0 0 0 1 0 0 0 1 1 1 1 1 0
+ 1 0 1 1 1 1 0 1 1 1 0 1 1 0 0 1 1 0 0 0 1 0 1 1 1 0 1 0 0 0 1 1 1 0 1 1 1
+ 0 0 0 1 0 1 1 0 0 1 1 0 1 0 0 0 1 0 0 0 1 1 0 1 1 1 1 0 0 1 0 0 1 0 0 1 0
+ 1 0 1 1 0 1 0 0 1 1 0 1 0 1 0 0 1 1 1 1 1 1 0 0 0 1 1 0 1 0 1 1 1 1 1 1 0
+ 1 0 1 1 1 1 1 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 1 0 1 0 1 1 0 0 1 1 1 1 0 1 1
+ 1 0 1 1 1 0 1 1 0 1 1 1 0 1 1 1 1 1 1 1 0 0 1 0 1 0 1 1 0 0 1 1 1 1 1 1 0
+ 0 0 1 1 1 0 1 1 0 1 0 1 0 1 0 1 0 1 1 0 1 1 1 1 1 1 1 0 1 0 1 0 1 1 1 0 1
+ 1 0 0 1 0 0 0 0 0 1 1 1 0 0 1 1 1 0 1 1 1 0 1 0 1 1 1 0 1 0 1 0 0 1 1 1 0
+ 1 0 0 1 1 1 1 0 0 0 1 1 1 1 0 1 1 1 1 1 1 1 1 0 1 1 0 1 1 1 0 1 0 0 0 0 0
+ 1 0 0 1 1 0 1 1 0 1 1 1 1 1 1 1 0 1 0 0 0 1 1 1 0 1 0 1 0 0 0 1 0 0 0 1 0
+ 0 1 1 1 0 0 1 1 1 1 0 1 1 0 1 1 1 1 1 1 1 1 0 1 1 0 1 1 1 1 1 1 0 1 1 1 1
+ 1 0 1 1 0 1 1 0 1 1 1 0 0 1 0 1 1 0 1 1 1 0 1 1 1 0 0 0 1 1 1 0 1 1 1 1 1
+ 0 1 1 1 1 1 1 1 1 1 1 1 0]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[  0   3   8  10  12  13  14  15  16  17  18  22  24  27  30  31  32  33
-  34  37  38  39  41  44  45  48  49  50  57  60  61  62  65  66  67  68
-  69  70  71  73  74  75  77  81  83  85  87  88  90  92  95  97 102 105
- 112 114 121 122 125 126 127 128 129 130 131 133 135 136 141 142 143 145
- 148 149 151 152 153 154 156 157 158 159 160 161 162 163 165 166 169 170
- 171 172 173 175 176 178 181 182 183 184 185 186 187 188 189 192 194 195
- 196 197 198 199 200 201 202 204 205 207 209 211 216 219 220 221 222 223
- 226 229 231 232 234 235 236 237 238 239 240 242 246 251 252 254 255 257
- 258 259 262 264 265 268 269 270 272 276 278 280 281 282 285 286 292 295
- 296 297 298 300 301 304 305 311 313 315 316 318 319 320 322 324 325 326
- 328 329 330 331 332 336 337 340 341 343 344 345 346 348 349 350 353 355
- 356 359 360 361 362 363 364 365 369 370 372 373 376 378 379 381 382 384
- 385 386 387 389 390 391 392 393 394 396 403 405 407 408 409 411 416 417
- 420 422 423 424 425 426 427 428 429 433 436 441 442 443 445 448 451 452
- 456 458 459 462 463 464 466 468 470 471 472 476 477 478 480 481 483 484
- 486 488 489 493 494 496 498 501 505 508 510 511 512 513 514 515 519 520
- 521 522 527 531 533 534 536 537 538 540 542 543 546 547 548 550 551 552
- 554 557 559 563 564 566 568 573 574 576 578 580 581 582 583 587 588 589
- 590 591 592 593 596 599 600 602 604 605 606 607 608 611 612 613 615 618
- 620 624 627 628 630 631 633 634 635 638 641 642 644 645 646 648 650 652
- 653 654 656 657 659 660 661 662 665 669 672 676 680 683 684 685 691 692
- 697 698 699 702 716 718 720 722 723 724 728 729 731 732 734 735 738 740
- 744 745 747 749 750 751]</t>
+          <t>[  0   1   2   4   5   6   7   8  10  16  17  18  20  22  24  26  27  28
+  29  30  33  34  35  36  37  38  41  43  44  47  49  51  52  53  54  56
+  57  58  59  62  64  66  71  72  73  74  75  76  77  82  85  86  87  90
+  93  94  95  97  99 101 102 103 107 108 109 112 114 116 117 120 122 127
+ 128 129 130 131 132 134 135 136 137 138 141 142 143 144 145 146 147 148
+ 149 150 152 155 156 158 159 161 163 164 165 166 167 168 169 170 171 172
+ 174 175 177 178 179 183 184 187 188 189 190 192 193 194 195 198 199 200
+ 201 202 203 205 208 210 211 212 213 217 218 219 221 222 224 228 230 233
+ 234 235 236 237 238 240 241 242 246 247 248 249 252 253 254 256 257 258
+ 259 261 263 266 268 269 270 272 273 274 276 278 280 281 282 283 284 286
+ 287 291 293 296 297 298 299 303 304 305 308 310 311 312 314 315 317 318
+ 319 323 327 328 329 330 331 333 335 336 337 338 340 341 342 344 345 348
+ 349 353 355 356 357 359 363 364 365 367 368 369 373 375 376 379 380 382
+ 386 390 391 393 394 395 396 399 402 405 407 409 410 412 415 416 418 420
+ 423 424 425 426 427 428 432 433 435 437 438 439 440 441 442 444 446 447
+ 448 449 450 455 461 466 468 470 471 474 475 476 477 479 480 481 483 484
+ 485 487 488 490 491 492 494 495 496 497 498 499 500 503 505 507 508 511
+ 512 513 514 515 516 520 521 522 524 525 527 529 531 533 535 536 538 539
+ 540 541 542 543 544 546 548 550 551 552 554 555 558 564 565 566 569 570
+ 571 573 574 575 577 579 580 581 583 585 588 589 590 592 595 596 597 598
+ 602 603 604 605 607 608 609 610 611 612 613 614 616 617 619 620 621 623
+ 629 632 633 635 636 638 639 640 641 642 643 644 646 650 651 652 654 656
+ 660 664 667 668 669 672 673 674 675 677 678 680 681 682 683 684 685 686
+ 687 689 690 692 693 694 695 696 697 699 700 701 702 703 705 706 708 709
+ 711 712 713 716 718 719 721 722 723 725 726 727 731 732 733 735 736 737
+ 738 739 741 742 743 744 745 746 747 748 749 750 751]</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.9868421052631579</v>
+        <v>0.9736842105263158</v>
       </c>
       <c r="E6" t="n">
-        <v>231.5330550670624</v>
+        <v>258.4082019329071</v>
       </c>
     </row>
     <row r="7">
@@ -773,59 +777,59 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[1 0 1 0 0 0 1 0 0 0 0 1 0 1 0 1 1 0 0 0 1 1 1 0 1 1 0 0 0 1 1 0 1 0 0 0 0
- 0 0 0 1 0 1 1 0 1 1 1 0 0 0 1 0 1 1 1 1 0 1 0 1 0 1 0 1 1 0 1 0 0 1 1 1 0
- 1 1 1 0 1 0 0 0 0 0 0 0 1 0 1 1 0 0 0 0 1 1 0 1 0 0 0 1 0 0 1 0 1 0 1 1 0
- 0 1 0 1 0 0 0 1 0 0 1 1 0 0 0 1 1 0 1 0 1 1 0 1 0 1 1 0 1 1 1 1 1 1 1 1 0
- 1 0 0 0 0 0 0 0 0 1 1 1 1 1 1 1 0 0 1 0 0 0 1 1 1 1 0 0 0 1 1 0 1 1 0 1 1
- 0 1 1 1 1 0 1 1 0 1 1 1 0 0 0 1 1 1 1 0 0 0 0 0 1 0 1 1 0 1 0 0 0 0 0 1 1
- 0 1 0 0 0 1 0 1 0 1 1 0 0 0 1 0 1 1 0 1 1 0 1 1 1 1 0 0 0 1 0 1 0 0 1 0 0
- 1 0 0 1 1 1 1 0 0 0 1 1 0 0 1 0 1 0 0 1 0 0 1 0 0 0 0 1 1 1 1 0 0 0 1 1 0
- 1 1 0 1 1 1 1 1 0 0 0 0 0 0 0 0 1 0 1 1 1 0 1 0 0 0 0 1 1 1 1 0 0 1 0 0 0
- 0 0 0 1 1 1 0 0 0 0 0 1 1 0 1 0 1 1 0 1 0 0 1 0 0 0 1 0 1 1 0 0 1 1 1 1 1
- 0 1 0 0 0 0 0 1 0 0 1 1 0 0 1 0 1 1 1 1 0 0 0 1 0 1 0 1 0 1 0 1 1 1 0 1 0
- 0 1 1 0 1 0 0 0 0 0 1 1 1 0 0 0 1 0 0 1 0 1 0 0 0 1 0 0 0 0 0 1 1 0 0 1 0
- 1 1 1 1 1 1 1 0 1 0 1 0 1 1 1 1 0 1 0 1 1 1 1 1 1 1 0 1 0 0 0 0 1 1 0 0 1
- 1 1 1 1 0 1 0 0 0 1 1 0 0 1 0 0 1 1 0 1 1 1 0 0 1 0 1 0 0 1 1 1 1 0 1 1 0
- 1 0 1 1 1 0 1 0 0 0 1 0 0 1 0 0 1 1 0 0 0 0 0 0 0 1 0 0 1 1 0 0 0 1 0 0 0
- 0 1 0 1 0 0 0 1 1 1 1 1 1 0 0 0 1 1 1 0 0 1 1 0 1 0 1 0 0 0 0 1 0 1 0 1 0
- 1 0 0 1 1 1 0 0 1 0 0 0 1 0 0 1 0 0 0 1 1 1 1 1 1 0 0 1 1 0 0 0 0 1 1 1 0
- 0 1 0 0 1 0 1 0 1 0 0 1 1 0 1 1 1 1 0 1 1 1 0 0 1 0 1 1 1 1 1 1 1 0 1 0 1
- 0 1 0 0 0 0 1 1 1 0 1 0 1 1 0 0 0 1 0 1 0 1 1 0 0 1 0 0 0 0 1 0 0 1 1 0 1
- 0 0 1 0 0 0 1 0 1 1 0 0 1 0 0 1 0 1 0 1 0 1 0 1 0 0 0 1 1 1 0 1 1 1 0 1 1
- 0 1 0 1 0 1 0 1 1 0 1 0 1]</t>
+          <t>[1 0 1 0 1 0 1 1 1 0 1 1 0 1 0 1 1 1 0 1 1 1 1 0 0 1 1 0 0 1 0 0 0 1 0 0 0
+ 0 0 0 1 0 0 0 0 0 0 0 0 0 1 1 1 1 1 1 0 1 0 1 0 0 1 0 0 0 0 0 0 0 1 0 0 0
+ 0 1 0 1 1 1 1 0 1 0 1 1 1 1 1 0 1 1 0 1 0 1 1 0 1 1 0 0 1 1 0 1 1 0 1 0 1
+ 1 0 0 1 1 0 0 0 0 1 0 0 1 1 1 1 0 1 0 0 1 1 0 1 1 0 0 1 0 1 1 0 0 1 0 1 1
+ 0 1 0 0 0 0 0 0 1 1 0 0 1 1 1 0 0 1 0 1 0 0 0 0 1 0 1 1 1 1 1 0 0 1 1 0 1
+ 0 1 1 1 1 1 1 0 1 1 1 0 1 0 1 0 1 1 0 1 0 0 0 0 1 0 0 1 1 0 0 0 0 1 1 1 1
+ 0 1 0 1 1 0 0 1 0 0 1 0 1 1 1 1 0 0 0 1 0 1 0 1 0 0 0 0 0 1 1 1 1 0 1 1 0
+ 1 0 0 0 0 1 1 1 1 1 0 1 0 1 0 0 0 1 1 0 0 1 1 0 0 0 0 1 0 1 0 0 1 0 0 1 1
+ 0 1 1 1 1 1 0 1 0 1 1 1 0 1 1 0 0 1 1 1 1 0 0 0 1 0 1 0 0 0 1 1 1 0 0 1 0
+ 1 0 1 1 0 1 0 0 0 0 0 1 1 0 0 1 0 1 0 0 0 0 0 0 0 1 1 0 0 1 0 1 0 1 1 0 1
+ 0 1 0 0 0 1 1 0 1 0 1 1 0 1 0 1 0 1 0 0 0 1 1 0 1 1 1 1 0 1 0 1 1 1 0 0 1
+ 1 1 0 1 0 0 0 0 0 1 1 1 0 0 0 0 0 0 1 1 0 1 1 1 0 1 1 1 0 1 0 1 0 0 1 1 0
+ 1 1 0 0 0 1 1 0 1 1 0 1 0 0 0 1 0 1 1 0 1 1 1 1 0 1 0 1 1 0 0 0 0 1 1 1 1
+ 1 1 0 0 0 1 1 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 1 1 0 1 1 1 1 1 1 1 0 1 0 0
+ 1 1 1 1 0 0 0 1 1 1 0 0 1 1 1 0 0 0 1 0 1 0 0 1 0 1 0 1 0 0 1 0 0 1 0 0 0
+ 1 1 1 0 0 0 0 0 1 0 0 0 1 0 1 1 1 1 0 1 1 1 0 1 1 1 0 0 0 1 0 0 0 1 0 0 0
+ 0 1 1 0 1 0 1 1 1 1 1 0 1 0 0 0 0 0 0 0 1 0 1 1 0 1 0 0 1 0 0 0 1 1 0 1 1
+ 1 0 0 1 1 1 0 0 0 1 1 0 0 0 1 0 1 1 1 1 0 1 1 1 1 0 1 0 0 1 0 1 0 0 1 0 0
+ 0 1 0 1 1 0 1 1 0 1 0 1 0 0 1 0 0 0 1 1 0 0 0 1 1 0 1 1 0 0 0 0 1 1 0 1 1
+ 1 0 0 1 0 1 1 0 0 0 0 0 1 0 1 0 0 0 1 1 1 0 1 0 0 0 0 0 1 1 0 0 0 1 0 0 0
+ 0 0 0 1 1 1 1 0 0 1 1 0 0]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[  0   2   6  11  13  15  16  20  21  22  24  25  29  30  32  40  42  43
-  45  46  47  51  53  54  55  56  58  60  62  64  65  67  70  71  72  74
-  75  76  78  86  88  89  94  95  97 101 104 106 108 109 112 114 118 121
- 122 126 127 129 131 132 134 136 137 139 140 141 142 143 144 145 146 148
- 157 158 159 160 161 162 163 166 170 171 172 173 177 178 180 181 183 184
- 186 187 188 189 191 192 194 195 196 200 201 202 203 209 211 212 214 220
- 221 223 227 229 231 232 236 238 239 241 242 244 245 246 247 251 253 256
- 259 262 263 264 265 269 270 273 275 278 281 286 287 288 289 293 294 296
- 297 299 300 301 302 303 312 314 315 316 318 323 324 325 326 329 336 337
- 338 344 345 347 349 350 352 355 359 361 362 365 366 367 368 369 371 377
- 380 381 384 386 387 388 389 393 395 397 399 401 402 403 405 408 409 411
- 417 418 419 423 426 428 432 438 439 442 444 445 446 447 448 449 450 452
- 454 456 457 458 459 461 463 464 465 466 467 468 469 471 476 477 480 481
- 482 483 484 486 490 491 494 497 498 500 501 502 505 507 510 511 512 513
- 515 516 518 520 521 522 524 528 531 534 535 543 546 547 551 556 558 562
- 563 564 565 566 567 571 572 573 576 577 579 581 586 588 590 592 595 596
- 597 600 604 607 611 612 613 614 615 616 619 620 625 626 627 630 633 635
- 637 640 641 643 644 645 646 648 649 650 653 655 656 657 658 659 660 661
- 663 665 667 672 673 674 676 678 679 683 685 687 688 691 696 699 700 702
- 705 709 711 712 715 718 720 722 724 726 730 731 732 734 735 736 738 739
- 741 743 745 747 748 750 752]</t>
+          <t>[  0   2   4   6   7   8  10  11  13  15  16  17  19  20  21  22  25  26
+  29  33  40  50  51  52  53  54  55  57  59  62  70  75  77  78  79  80
+  82  84  85  86  87  88  90  91  93  95  96  98  99 102 103 105 106 108
+ 110 111 114 115 120 123 124 125 126 128 131 132 134 135 138 140 141 144
+ 146 147 149 156 157 160 161 162 165 167 172 174 175 176 177 178 181 182
+ 184 186 187 188 189 190 191 193 194 195 197 199 201 202 204 209 212 213
+ 218 219 220 221 223 225 226 229 232 234 235 236 237 241 243 245 251 252
+ 253 254 256 257 259 264 265 266 267 268 270 272 276 277 280 281 286 288
+ 291 294 295 297 298 299 300 301 303 305 306 307 309 310 313 314 315 316
+ 320 322 326 327 328 331 333 335 336 338 344 345 348 350 358 359 362 364
+ 366 367 369 371 375 376 378 380 381 383 385 387 391 392 394 395 396 397
+ 399 401 402 403 406 407 408 410 416 417 418 425 426 428 429 430 432 433
+ 434 436 438 441 442 444 445 449 450 452 453 455 459 461 462 464 465 466
+ 467 469 471 472 477 478 479 480 481 482 486 487 492 496 504 505 507 508
+ 509 510 511 512 513 515 518 519 520 521 525 526 527 530 531 532 536 538
+ 541 543 545 548 551 555 556 557 563 567 569 570 571 572 574 575 576 578
+ 579 580 584 588 593 594 596 598 599 600 601 602 604 612 614 615 617 620
+ 624 625 627 628 629 632 633 634 638 639 643 645 646 647 648 650 651 652
+ 653 655 658 660 663 667 669 670 672 673 675 677 680 684 685 689 690 692
+ 693 698 699 701 702 703 706 708 709 715 717 721 722 723 725 731 732 736
+ 743 744 745 746 749 750]</t>
         </is>
       </c>
       <c r="D7" t="n">
         <v>0.9736842105263158</v>
       </c>
       <c r="E7" t="n">
-        <v>255.1862173080444</v>
+        <v>314.069286108017</v>
       </c>
     </row>
     <row r="8">
@@ -834,59 +838,61 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>[1 1 1 0 0 0 0 1 0 1 1 1 1 0 1 1 1 1 0 1 0 1 0 1 1 1 1 0 1 0 0 1 0 1 0 1 0
- 1 0 0 0 1 1 1 1 1 0 0 1 1 1 0 0 1 0 1 0 0 1 1 0 0 1 0 1 1 1 1 0 0 1 0 0 0
- 1 1 1 0 0 1 0 1 0 0 0 0 0 0 1 1 0 1 0 0 0 1 1 0 0 1 1 1 1 1 0 1 1 0 0 1 1
- 1 0 1 1 1 0 1 0 0 1 1 1 1 0 0 0 0 0 0 0 1 0 0 1 0 1 0 1 0 1 0 0 0 0 0 0 0
- 0 0 1 0 1 0 1 0 0 1 1 1 1 1 1 1 1 0 0 0 1 0 0 1 0 1 1 0 0 0 1 1 0 1 0 1 0
- 0 1 0 0 1 1 1 1 0 1 1 1 1 1 1 1 1 1 1 1 1 1 1 0 0 1 0 1 1 1 0 1 0 1 0 1 0
- 1 1 0 0 0 0 1 1 1 0 1 0 0 1 1 1 1 1 1 1 1 1 1 1 0 0 0 0 0 0 0 1 0 0 0 0 0
- 0 1 0 0 0 0 1 0 0 1 0 1 1 1 1 1 1 1 0 1 0 1 1 0 0 0 1 1 0 1 0 1 1 1 1 1 0
- 0 1 0 1 0 1 0 1 0 0 1 1 1 1 1 1 1 1 1 1 0 0 0 0 0 1 1 1 0 0 1 0 1 0 1 0 1
- 1 1 1 0 1 1 1 1 1 0 0 1 0 0 0 0 0 1 1 0 0 0 0 1 0 0 1 0 0 0 0 1 1 1 1 1 1
- 1 1 1 0 0 0 1 0 0 1 0 1 0 0 1 1 0 0 1 1 0 1 0 1 1 0 0 0 0 0 1 1 1 0 0 1 0
- 0 1 0 0 1 1 1 0 0 1 0 1 0 0 1 1 0 1 1 0 1 1 1 0 0 1 1 1 1 0 1 1 1 0 1 0 1
- 1 1 0 0 1 1 0 1 0 0 0 0 1 0 0 1 1 1 0 0 1 1 0 1 0 1 1 1 1 1 1 0 0 0 1 0 1
- 0 1 0 0 0 1 1 1 0 1 1 0 1 0 1 0 0 0 1 1 1 0 1 0 1 1 0 1 0 1 1 1 0 0 1 0 1
- 0 1 1 1 0 0 1 0 1 0 0 0 0 1 0 0 1 0 1 1 1 1 1 1 0 1 1 0 1 1 0 0 0 1 1 1 1
- 0 1 1 0 0 1 0 1 0 1 1 0 1 0 0 1 1 0 1 0 0 1 1 1 1 1 1 1 0 1 0 0 0 1 0 0 0
- 0 0 0 1 1 0 0 1 1 0 0 0 0 0 1 0 0 0 0 1 0 1 1 1 0 1 1 0 1 0 0 1 1 0 0 1 1
- 0 0 1 0 0 1 1 1 0 0 1 0 0 1 0 0 0 0 0 1 0 0 1 0 1 1 0 0 0 0 1 0 0 1 1 0 0
- 0 0 1 1 1 1 1 1 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 1 0 1 1 0 0 0 0 1 0 1 1 0 0
- 1 0 0 0 0 0 1 1 0 1 0 0 1 0 0 0 1 0 0 0 1 1 0 0 1 0 0 1 1 1 0 1 0 0 0 0 1
- 0 0 0 0 0 1 0 1 0 1 1 0 0]</t>
+          <t>[1 1 0 1 1 1 1 1 1 0 1 1 0 1 1 0 0 1 1 1 1 0 1 1 0 0 1 1 1 1 1 0 1 1 1 0 1
+ 0 1 1 0 0 0 0 1 1 1 1 0 1 1 1 1 1 0 1 0 1 1 0 1 0 0 0 1 0 1 1 1 1 1 0 1 1
+ 1 1 1 0 1 1 0 1 0 1 1 1 1 1 1 1 1 1 0 0 0 1 1 1 0 1 0 0 0 1 1 1 1 0 0 0 1
+ 0 1 0 0 1 1 0 1 1 1 1 0 1 0 0 0 0 0 1 0 0 0 1 0 1 0 1 0 0 1 0 0 1 1 0 1 0
+ 1 1 1 0 1 1 0 0 0 0 1 1 1 0 0 1 0 0 0 1 1 1 0 1 0 1 1 1 1 1 1 0 0 1 1 0 0
+ 1 1 0 1 1 0 1 1 0 1 0 0 0 1 1 0 0 0 0 0 1 0 1 0 0 1 0 0 0 1 0 0 1 1 0 1 1
+ 1 0 1 1 0 1 1 1 0 1 1 0 0 1 1 1 1 1 1 1 0 1 0 0 1 1 1 0 0 1 0 1 1 1 1 0 1
+ 0 0 0 0 1 0 0 0 1 0 0 1 0 0 1 1 1 0 0 0 0 0 1 1 1 1 0 0 0 1 0 0 0 0 1 0 0
+ 0 1 0 1 1 1 1 1 0 1 0 0 0 1 1 0 1 0 1 0 0 1 0 1 0 1 0 0 1 0 1 1 1 0 1 1 1
+ 0 0 1 1 1 1 1 0 1 1 0 0 0 1 1 1 0 1 1 0 1 1 0 1 0 0 0 1 0 0 1 1 0 0 0 1 0
+ 1 0 1 1 1 1 1 0 1 1 0 1 1 1 1 0 0 0 0 1 0 1 0 0 0 1 1 1 1 0 1 1 0 0 1 0 0
+ 0 1 0 1 1 1 0 0 1 1 0 1 0 1 1 0 0 1 1 1 1 1 1 1 1 1 0 1 0 1 0 1 0 1 1 0 1
+ 0 1 0 1 1 0 0 1 1 1 0 1 0 0 0 0 0 1 1 0 0 1 0 0 1 0 0 0 1 0 1 0 0 1 1 0 0
+ 0 1 0 0 0 0 0 1 0 0 1 1 0 0 0 1 1 0 1 0 0 1 0 1 1 1 1 1 1 0 1 1 1 0 0 0 1
+ 0 0 1 1 0 0 0 1 1 1 1 0 1 1 0 0 0 1 1 1 0 1 0 1 0 1 0 1 0 1 0 1 1 0 0 0 0
+ 1 0 0 1 0 1 1 1 1 0 1 0 1 0 1 0 1 0 0 1 0 0 1 1 0 1 0 0 0 1 0 1 0 0 1 0 0
+ 0 1 1 1 1 0 0 0 0 1 1 0 1 1 0 1 1 0 1 1 1 0 0 0 1 0 1 1 1 1 0 0 1 0 0 1 0
+ 1 0 1 1 0 1 1 0 1 1 1 1 0 1 1 1 0 1 1 1 1 1 1 0 1 1 1 0 1 1 1 1 1 1 0 0 0
+ 1 1 1 0 1 1 1 0 0 0 1 0 0 0 1 0 1 0 1 0 1 1 1 0 1 0 0 1 0 1 0 0 1 1 0 0 0
+ 1 0 1 1 1 1 0 0 0 0 0 0 1 1 1 0 0 0 1 0 1 0 1 0 0 0 1 1 1 0 0 1 0 1 0 0 1
+ 1 0 0 0 0 1 0 0 1 1 1 0 1]</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[  0   1   2   7   9  10  11  12  14  15  16  17  19  21  23  24  25  26
-  28  31  33  35  37  41  42  43  44  45  48  49  50  53  55  58  59  62
-  64  65  66  67  70  74  75  76  79  81  88  89  91  95  96  99 100 101
- 102 103 105 106 109 110 111 113 114 115 117 120 121 122 123 131 134 136
- 138 140 150 152 154 157 158 159 160 161 162 163 164 168 171 173 174 178
- 179 181 183 186 189 190 191 192 194 195 196 197 198 199 200 201 202 203
- 204 205 206 207 210 212 213 214 216 218 220 222 223 228 229 230 232 235
- 236 237 238 239 240 241 242 243 244 245 253 260 265 268 270 271 272 273
- 274 275 276 278 280 281 285 286 288 290 291 292 293 294 297 299 301 303
- 306 307 308 309 310 311 312 313 314 315 321 322 323 326 328 330 332 333
- 334 335 337 338 339 340 341 344 350 351 356 359 364 365 366 367 368 369
- 370 371 372 376 379 381 384 385 388 389 391 393 394 400 401 402 405 408
- 411 412 413 416 418 421 422 424 425 427 428 429 432 433 434 435 437 438
- 439 441 443 444 445 448 449 451 456 459 460 461 464 465 467 469 470 471
- 472 473 474 478 480 482 486 487 488 490 491 493 495 499 500 501 503 505
- 506 508 510 511 512 515 517 519 520 521 524 526 531 534 536 537 538 539
- 540 541 543 544 546 547 551 552 553 554 556 557 560 562 564 565 567 570
- 571 573 576 577 578 579 580 581 582 584 588 595 596 599 600 606 611 613
- 614 615 617 618 620 623 624 627 628 631 634 635 636 639 642 648 651 653
- 654 659 662 663 668 669 670 671 672 673 680 684 689 691 692 697 699 700
- 703 709 710 712 715 719 723 724 727 730 731 732 734 739 745 747 749 750]</t>
+          <t>[  0   1   3   4   5   6   7   8  10  11  13  14  17  18  19  20  22  23
+  26  27  28  29  30  32  33  34  36  38  39  44  45  46  47  49  50  51
+  52  53  55  57  58  60  64  66  67  68  69  70  72  73  74  75  76  78
+  79  81  83  84  85  86  87  88  89  90  91  95  96  97  99 103 104 105
+ 106 110 112 115 116 118 119 120 121 123 129 133 135 137 140 143 144 146
+ 148 149 150 152 153 158 159 160 163 167 168 169 171 173 174 175 176 177
+ 178 181 182 185 186 188 189 191 192 194 198 199 205 207 210 214 217 218
+ 220 221 222 224 225 227 228 229 231 232 235 236 237 238 239 240 241 243
+ 246 247 248 251 253 254 255 256 258 263 267 270 273 274 275 281 282 283
+ 284 288 293 297 299 300 301 302 303 305 309 310 312 314 317 319 321 324
+ 326 327 328 330 331 332 335 336 337 338 339 341 342 346 347 348 350 351
+ 353 354 356 360 363 364 368 370 372 373 374 375 376 378 379 381 382 383
+ 384 389 391 395 396 397 398 400 401 404 408 410 411 412 415 416 418 420
+ 421 424 425 426 427 428 429 430 431 432 434 436 438 440 441 443 445 447
+ 448 451 452 453 455 461 462 465 468 472 474 477 478 482 488 491 492 496
+ 497 499 502 504 505 506 507 508 509 511 512 513 517 520 521 525 526 527
+ 528 530 531 535 536 537 539 541 543 545 547 549 550 555 558 560 561 562
+ 563 565 567 569 571 574 577 578 580 584 586 589 593 594 595 596 601 602
+ 604 605 607 608 610 611 612 616 618 619 620 621 624 627 629 631 632 634
+ 635 637 638 639 640 642 643 644 646 647 648 649 650 651 653 654 655 657
+ 658 659 660 661 662 666 667 668 670 671 672 676 680 682 684 686 687 688
+ 690 693 695 698 699 703 705 706 707 708 715 716 717 721 723 725 729 730
+ 731 734 736 739 740 745 748 749 750 752]</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.9736842105263158</v>
+        <v>0.9868421052631579</v>
       </c>
       <c r="E8" t="n">
-        <v>316.2361900806427</v>
+        <v>349.3360385894775</v>
       </c>
     </row>
     <row r="9">
@@ -895,59 +901,64 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>[1 0 0 0 1 0 0 0 1 0 0 1 0 1 0 1 0 0 0 1 0 1 1 0 1 0 1 0 1 0 0 0 0 0 1 0 0
- 1 0 1 0 0 1 1 0 0 0 1 1 0 1 1 0 1 1 0 0 1 1 0 0 1 0 0 1 0 0 0 1 0 0 1 1 1
- 1 1 0 1 1 1 0 0 1 1 1 1 1 1 1 0 0 0 0 1 0 1 0 0 1 0 0 0 1 0 0 1 1 0 0 0 0
- 0 1 0 0 1 1 0 1 0 1 1 1 1 0 0 0 0 0 0 0 1 1 0 0 1 0 0 0 0 0 1 0 1 0 1 0 0
- 1 0 1 0 1 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 1 0 0 1 1 0 0 1 0
- 1 1 0 0 1 0 1 0 0 1 0 0 0 0 1 1 1 0 0 1 0 1 0 1 1 0 0 0 1 1 1 1 1 0 0 1 1
- 1 0 0 0 0 1 0 1 1 0 1 0 0 1 0 1 0 0 0 1 0 0 1 1 0 0 0 0 0 1 1 1 0 1 1 1 0
- 1 1 1 1 1 1 1 0 1 0 0 1 0 1 0 0 1 0 0 0 0 1 0 1 1 1 1 0 1 0 0 0 0 1 0 0 0
- 0 0 0 0 1 0 0 0 1 1 1 0 0 0 1 1 0 1 0 1 1 0 1 0 1 1 1 1 0 1 0 1 1 0 0 0 0
- 1 0 1 1 1 1 1 1 0 0 1 0 0 1 1 1 1 0 1 1 0 1 1 0 0 1 1 1 1 1 1 1 0 1 1 0 1
- 1 0 0 0 0 1 1 1 1 1 0 1 1 1 0 0 1 0 1 0 0 0 1 0 0 1 0 1 1 1 0 0 1 0 1 1 1
- 0 0 0 0 1 0 0 0 0 1 0 1 1 0 1 0 0 0 0 1 1 0 1 0 0 0 1 0 0 1 0 1 1 0 1 0 0
- 0 0 0 0 1 0 1 0 1 1 0 0 1 0 0 1 1 1 0 0 1 1 1 1 1 0 0 1 0 0 0 0 0 0 0 0 1
- 1 1 1 1 0 0 1 0 0 1 1 1 1 1 1 0 0 1 1 0 0 0 0 1 0 0 0 0 1 1 0 1 0 0 1 0 1
- 0 1 1 1 1 0 1 0 1 1 1 0 1 0 1 0 0 0 1 0 0 1 1 0 1 0 1 0 0 1 0 1 1 0 1 1 1
- 1 1 1 0 1 0 0 0 1 1 1 1 0 0 1 1 0 1 1 0 1 0 0 0 1 1 0 1 1 1 0 1 1 1 1 1 0
- 0 1 0 0 1 1 0 0 1 1 0 1 1 1 1 1 1 1 1 0 1 0 1 0 0 0 0 1 0 0 1 0 0 0 0 1 1
- 1 0 0 1 0 1 0 1 1 1 1 0 0 1 1 1 0 1 0 0 0 1 0 0 0 0 1 1 1 1 1 1 0 0 0 1 0
- 0 1 0 0 1 0 0 1 1 1 0 1 1 1 1 1 0 1 1 1 1 1 1 1 1 0 1 1 1 0 0 0 0 0 0 1 0
- 0 1 0 1 0 0 1 0 1 1 1 0 1 1 1 0 0 1 1 0 1 1 1 1 0 1 1 0 1 1 0 1 1 1 0 0 0
- 0 0 1 1 0 0 1 0 0 0 1 1 0]</t>
+          <t>[1 1 0 0 1 0 0 1 0 0 1 1 0 1 1 1 1 0 0 0 1 1 1 1 1 1 0 0 1 1 1 1 1 1 1 0 0
+ 0 1 0 1 0 0 0 0 0 0 0 0 0 1 0 1 1 1 0 0 1 1 0 0 1 1 0 1 1 1 1 1 0 1 1 1 1
+ 1 1 0 1 1 0 1 1 1 0 0 0 1 1 1 0 0 1 0 1 1 0 1 0 0 0 1 1 1 1 0 0 1 0 1 1 0
+ 1 0 1 0 1 1 0 0 1 0 0 1 0 0 1 1 1 1 1 1 1 0 1 1 1 0 0 0 1 1 0 1 1 0 1 1 0
+ 0 0 1 1 0 1 0 1 1 1 1 0 1 0 1 1 1 0 0 1 0 0 1 0 1 0 1 0 1 0 1 1 0 1 0 1 1
+ 1 1 0 1 1 0 1 0 0 0 0 1 0 1 0 1 0 1 1 1 1 1 0 1 0 1 1 1 0 1 0 1 0 0 1 1 1
+ 0 1 1 1 1 0 1 0 1 0 1 1 0 1 0 1 1 1 0 0 1 1 1 0 0 0 0 1 0 1 0 1 1 1 1 1 1
+ 0 0 1 1 1 1 1 0 0 0 0 1 1 1 0 0 1 0 0 1 0 1 1 0 1 0 0 0 1 1 0 1 0 0 1 1 1
+ 1 0 0 1 0 1 1 0 1 0 1 1 0 1 1 1 0 1 1 1 0 0 0 0 1 0 1 1 1 0 1 1 0 1 1 0 0
+ 1 1 1 1 0 1 1 1 0 1 1 1 0 0 1 1 0 1 1 1 0 1 0 0 0 0 1 0 1 1 1 1 0 1 1 1 1
+ 0 1 0 0 0 1 0 0 1 0 1 1 1 1 1 1 1 1 0 0 1 0 1 0 0 1 1 1 1 0 0 0 1 1 1 1 1
+ 1 1 1 0 0 1 1 1 1 1 1 1 1 0 1 1 0 0 1 1 0 0 0 1 0 0 0 1 1 1 0 1 1 1 0 1 1
+ 1 0 1 1 0 1 1 0 1 0 1 1 1 0 1 1 0 0 1 1 1 0 1 0 0 0 0 1 1 1 1 1 1 1 1 0 1
+ 1 1 0 0 1 1 1 1 1 1 0 1 1 1 1 0 1 1 1 0 1 1 0 1 0 0 0 1 1 1 1 0 1 1 0 0 0
+ 1 1 1 1 1 0 1 1 0 0 0 0 0 1 1 1 1 1 1 1 0 0 1 1 1 0 1 1 1 0 1 0 1 1 1 0 0
+ 0 1 0 0 0 1 1 1 1 0 1 0 0 0 1 1 1 1 0 0 1 1 1 0 1 1 0 1 0 0 0 0 0 0 0 1 1
+ 1 0 1 1 0 1 0 1 1 0 1 0 0 0 1 1 0 0 0 1 1 1 1 1 0 1 0 1 1 1 1 1 0 1 0 1 1
+ 1 0 0 1 1 1 1 1 1 1 1 0 1 1 0 0 1 1 1 0 1 1 1 1 0 1 0 0 1 0 1 1 1 1 1 1 1
+ 0 1 1 1 1 0 1 1 1 0 0 1 1 1 0 0 1 1 0 0 0 1 1 0 1 1 1 1 1 1 1 1 1 0 1 0 0
+ 1 1 1 0 0 0 0 1 1 1 0 0 0 1 0 1 1 1 0 1 0 0 0 0 0 1 0 1 1 1 1 0 1 0 1 0 1
+ 1 1 0 1 1 1 0 1 1 1 0 0 1]</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[  0   4   8  11  13  15  19  21  22  24  26  28  34  37  39  42  43  47
-  48  50  51  53  54  57  58  61  64  68  71  72  73  74  75  77  78  79
-  82  83  84  85  86  87  88  93  95  98 102 105 106 112 115 116 118 120
- 121 122 123 131 132 135 141 143 145 148 150 152 153 156 174 175 176 179
- 180 183 185 186 189 191 194 199 200 201 204 206 208 209 213 214 215 216
- 217 220 221 222 227 229 230 232 235 237 241 244 245 251 252 253 255 256
- 257 259 260 261 262 263 264 265 267 270 272 275 280 282 283 284 285 287
- 292 300 304 305 306 310 311 313 315 316 318 320 321 322 323 325 327 328
- 333 335 336 337 338 339 340 343 346 347 348 349 351 352 354 355 358 359
- 360 361 362 363 364 366 367 369 370 375 376 377 378 379 381 382 383 386
- 388 392 395 397 398 399 402 404 405 406 411 416 418 419 421 426 427 429
- 433 436 438 439 441 448 450 452 453 456 459 460 461 464 465 466 467 468
- 471 480 481 482 483 484 487 490 491 492 493 494 495 498 499 504 509 510
- 512 515 517 519 520 521 522 524 526 527 528 530 532 536 539 540 542 544
- 547 549 550 552 553 554 555 556 557 559 563 564 565 566 569 570 572 573
- 575 579 580 582 583 584 586 587 588 589 590 593 596 597 600 601 603 604
- 605 606 607 608 609 610 612 614 619 622 627 628 629 632 634 636 637 638
- 639 642 643 644 646 650 655 656 657 658 659 660 664 667 670 673 674 675
- 677 678 679 680 681 683 684 685 686 687 688 689 690 692 693 694 701 704
- 706 709 711 712 713 715 716 717 720 721 723 724 725 726 728 729 731 732
- 734 735 736 742 743 746 750 751]</t>
+          <t>[  0   1   4   7  10  11  13  14  15  16  20  21  22  23  24  25  28  29
+  30  31  32  33  34  38  40  50  52  53  54  57  58  61  62  64  65  66
+  67  68  70  71  72  73  74  75  77  78  80  81  82  86  87  88  91  93
+  94  96 100 101 102 103 106 108 109 111 113 115 116 119 122 125 126 127
+ 128 129 130 131 133 134 135 139 140 142 143 145 146 150 151 153 155 156
+ 157 158 160 162 163 164 167 170 172 174 176 178 179 181 183 184 185 186
+ 188 189 191 196 198 200 202 203 204 205 206 208 210 211 212 214 216 219
+ 220 221 223 224 225 226 228 230 232 233 235 237 238 239 242 243 244 249
+ 251 253 254 255 256 257 258 261 262 263 264 265 270 271 272 275 278 280
+ 281 283 287 288 290 293 294 295 296 299 301 302 304 306 307 309 310 311
+ 313 314 315 320 322 323 324 326 327 329 330 333 334 335 336 338 339 340
+ 342 343 344 347 348 350 351 352 354 359 361 362 363 364 366 367 368 369
+ 371 375 378 380 381 382 383 384 385 386 387 390 392 395 396 397 398 402
+ 403 404 405 406 407 408 409 412 413 414 415 416 417 418 419 421 422 425
+ 426 430 434 435 436 438 439 440 442 443 444 446 447 449 450 452 454 455
+ 456 458 459 462 463 464 466 471 472 473 474 475 476 477 478 480 481 482
+ 485 486 487 488 489 490 492 493 494 495 497 498 499 501 502 504 508 509
+ 510 511 513 514 518 519 520 521 522 524 525 531 532 533 534 535 536 537
+ 540 541 542 544 545 546 548 550 551 552 556 560 561 562 563 565 569 570
+ 571 572 575 576 577 579 580 582 590 591 592 594 595 597 599 600 602 606
+ 607 611 612 613 614 615 617 619 620 621 622 623 625 627 628 629 632 633
+ 634 635 636 637 638 639 641 642 645 646 647 649 650 651 652 654 657 659
+ 660 661 662 663 664 665 667 668 669 670 672 673 674 677 678 679 682 683
+ 687 688 690 691 692 693 694 695 696 697 698 700 703 704 705 710 711 712
+ 716 718 719 720 722 728 730 731 732 733 735 737 739 740 741 743 744 745
+ 747 748 749 752]</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.9868421052631579</v>
+        <v>0.9736842105263158</v>
       </c>
       <c r="E9" t="n">
-        <v>347.4814381599426</v>
+        <v>436.3943281173706</v>
       </c>
     </row>
     <row r="10">
@@ -956,60 +967,59 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>[0 1 1 0 0 1 0 1 0 1 0 1 1 1 1 1 1 0 0 0 1 1 0 0 1 1 0 1 1 1 0 0 1 1 1 1 0
- 0 1 0 0 1 0 0 0 1 0 0 1 0 0 0 1 1 0 1 0 1 1 0 0 0 1 1 0 1 1 0 1 1 1 0 0 1
- 0 1 1 1 0 0 1 0 0 0 0 0 0 1 0 1 1 1 0 0 1 0 1 1 1 0 0 1 0 1 1 0 1 0 1 1 0
- 1 0 1 1 0 1 0 1 1 1 1 0 0 0 1 1 1 0 1 0 1 1 0 1 0 1 1 0 0 0 0 0 1 1 0 1 0
- 0 1 0 0 0 1 0 1 0 1 1 1 0 1 1 0 1 0 1 1 1 0 0 0 0 1 0 1 0 0 0 0 1 0 1 0 0
- 0 0 1 1 0 0 0 0 0 1 1 1 0 0 0 1 0 1 1 0 1 1 0 1 0 1 1 1 0 1 1 0 0 1 1 0 0
- 0 1 0 1 0 0 1 0 1 0 0 1 0 1 1 1 1 1 0 1 0 0 1 0 0 1 1 0 0 1 0 0 0 0 1 0 0
- 1 0 0 0 0 0 1 1 1 1 1 1 1 1 0 0 1 0 1 1 1 1 0 1 1 1 0 1 1 1 0 1 1 1 0 0 1
- 1 1 0 0 0 1 0 1 0 0 1 0 0 0 0 0 1 0 1 0 0 1 1 1 1 1 1 1 0 0 0 1 1 1 1 0 1
- 0 0 0 0 0 0 1 0 1 1 1 1 1 1 1 0 1 1 0 1 0 0 0 0 1 0 0 0 1 1 0 1 0 1 0 1 0
- 0 0 1 1 1 1 0 0 0 1 1 0 0 1 1 1 0 0 0 1 1 0 1 1 0 0 1 0 0 1 1 0 0 1 1 1 1
- 1 1 0 0 0 0 1 0 1 0 0 1 1 0 0 0 1 0 1 1 1 1 1 1 0 1 1 1 1 0 0 0 1 1 1 1 1
- 1 1 1 0 0 1 0 0 0 1 0 0 0 0 0 1 1 1 1 0 1 0 0 1 0 1 1 1 0 1 0 0 1 0 1 1 0
- 0 0 1 0 1 1 1 1 0 0 1 1 1 1 1 1 0 1 0 0 1 0 1 1 1 0 1 1 0 0 1 1 1 1 0 0 1
- 1 1 1 0 1 0 0 0 0 1 1 0 1 1 0 0 1 0 0 1 1 0 0 1 0 1 1 0 0 1 1 0 0 1 1 1 1
- 0 1 1 1 1 0 0 0 0 1 1 0 1 1 0 1 0 0 1 0 1 1 0 1 1 1 0 0 1 0 0 1 1 1 0 1 1
- 0 0 0 0 0 1 0 1 1 1 0 0 0 1 1 0 1 0 0 0 0 0 0 1 1 1 1 1 0 0 0 0 1 1 0 1 0
- 1 0 0 0 0 0 0 1 1 0 0 1 0 1 1 1 1 1 1 1 0 1 0 1 1 0 0 0 0 0 1 1 1 0 0 0 1
- 0 1 1 1 0 1 1 0 1 0 0 0 0 1 0 1 0 1 0 1 1 1 1 0 0 1 0 1 0 0 0 1 0 1 0 1 1
- 1 1 1 1 0 1 0 1 0 0 0 0 1 0 1 1 1 1 1 0 1 1 0 0 1 1 0 0 0 1 1 1 0 1 0 0 0
- 0 0 1 0 1 1 0 0 1 0 0 1 0]</t>
+          <t>[1 0 0 1 1 0 1 0 0 0 1 1 0 1 0 0 1 0 1 1 1 0 0 1 0 1 0 0 0 0 1 0 1 0 1 0 0
+ 1 1 1 1 1 0 1 1 0 0 1 0 1 0 0 1 1 1 0 1 1 1 1 1 1 1 1 0 1 1 1 1 0 1 1 0 0
+ 0 1 1 0 1 0 0 0 1 0 0 1 1 1 1 0 1 1 0 1 1 0 0 1 0 1 0 1 1 0 0 0 0 1 1 0 0
+ 0 0 0 0 1 0 1 0 1 0 1 1 1 1 0 1 1 0 0 0 0 1 0 1 0 0 0 1 1 0 0 0 1 0 1 0 0
+ 0 1 1 1 0 1 0 1 1 1 0 0 1 1 0 1 0 0 1 1 0 1 1 0 0 1 0 0 0 0 0 0 1 0 0 1 0
+ 1 0 1 1 0 1 0 1 1 0 0 1 0 0 0 1 0 1 0 0 0 0 0 0 1 0 0 1 0 0 0 1 1 1 0 0 0
+ 0 1 0 0 1 1 0 1 1 0 1 1 0 1 1 1 1 0 1 0 1 0 1 1 1 0 1 0 1 0 0 1 1 1 1 1 0
+ 1 1 1 0 0 0 1 1 1 0 0 1 0 0 0 1 0 0 1 1 0 0 0 0 1 0 1 1 1 1 1 0 1 0 1 1 0
+ 1 1 1 0 0 1 0 0 0 0 1 0 0 0 0 0 1 1 0 0 0 1 0 0 1 1 1 0 1 0 0 1 1 1 0 1 0
+ 1 1 0 1 0 0 0 0 0 0 0 1 0 0 0 1 1 1 0 0 0 1 1 1 1 1 1 0 1 1 1 0 0 1 1 0 1
+ 0 1 1 0 1 1 0 0 0 0 0 1 1 0 1 1 1 1 1 0 1 0 1 0 1 0 1 0 1 0 1 1 1 0 0 0 1
+ 0 1 0 0 1 0 1 0 1 1 1 1 0 1 0 0 0 0 1 0 1 1 0 1 1 1 0 0 1 0 0 0 1 0 1 1 0
+ 1 0 0 0 1 0 0 0 0 1 1 0 1 0 1 0 1 0 1 1 1 0 1 0 1 1 0 0 0 1 0 0 1 0 0 0 1
+ 1 1 0 0 0 1 0 1 0 1 1 0 0 0 0 0 0 1 1 0 0 0 1 0 1 1 1 0 1 0 0 1 0 1 1 1 1
+ 1 1 1 0 0 1 0 0 1 0 1 1 0 1 1 0 0 0 0 1 1 1 0 0 0 0 0 1 0 1 0 1 0 1 1 0 0
+ 1 0 1 0 1 0 1 0 1 0 1 0 1 1 1 1 1 1 1 0 0 1 0 1 1 1 1 0 0 1 1 1 1 1 1 1 1
+ 0 0 0 1 0 0 1 1 1 0 0 1 1 0 1 1 1 1 0 1 1 0 0 0 1 0 0 1 1 0 1 1 0 0 0 0 0
+ 0 1 0 0 0 1 0 1 1 1 1 1 1 1 0 0 1 1 1 1 0 1 1 0 0 1 0 1 0 0 1 1 1 1 0 0 1
+ 0 0 0 0 1 1 1 0 1 0 0 0 0 1 1 0 0 1 0 0 1 1 0 0 0 1 0 1 0 0 0 1 1 0 0 1 0
+ 1 1 0 1 0 0 0 0 0 1 1 0 1 1 0 1 1 1 0 0 1 0 1 1 1 1 0 1 1 1 0 1 1 1 0 0 0
+ 0 0 0 0 1 0 1 0 1 0 1 0 0]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[  1   2   5   7   9  11  12  13  14  15  16  20  21  24  25  27  28  29
-  32  33  34  35  38  41  45  48  52  53  55  57  58  62  63  65  66  68
-  69  70  73  75  76  77  80  87  89  90  91  94  96  97  98 101 103 104
- 106 108 109 111 113 114 116 118 119 120 121 125 126 127 129 131 132 134
- 136 137 143 144 146 149 153 155 157 158 159 161 162 164 166 167 168 173
- 175 180 182 187 188 194 195 196 200 202 203 205 206 208 210 211 212 214
- 215 218 219 223 225 228 230 233 235 236 237 238 239 241 244 247 248 251
- 256 259 265 266 267 268 269 270 271 272 275 277 278 279 280 282 283 284
- 286 287 288 290 291 292 295 296 297 301 303 306 312 314 317 318 319 320
- 321 322 323 327 328 329 330 332 339 341 342 343 344 345 346 347 349 350
- 352 357 361 362 364 366 368 372 373 374 375 379 380 383 384 385 389 390
- 392 393 396 399 400 403 404 405 406 407 408 413 415 418 419 423 425 426
- 427 428 429 430 432 433 434 435 439 440 441 442 443 444 445 446 449 453
- 459 460 461 462 464 467 469 470 471 473 476 478 479 483 485 486 487 488
- 491 492 493 494 495 496 498 501 503 504 505 507 508 511 512 513 514 517
- 518 519 520 522 527 528 530 531 534 537 538 541 543 544 547 548 551 552
- 553 554 556 557 558 559 564 565 567 568 570 573 575 576 578 579 580 583
- 586 587 588 590 591 597 599 600 601 605 606 608 615 616 617 618 619 624
- 625 627 629 636 637 640 642 643 644 645 646 647 648 650 652 653 659 660
- 661 665 667 668 669 671 672 674 679 681 683 685 686 687 688 691 693 697
- 699 701 702 703 704 705 706 708 710 715 717 718 719 720 721 723 724 727
- 728 732 733 734 736 742 744 745 748 751]</t>
+          <t>[  0   3   4   6  10  11  13  16  18  19  20  23  25  30  32  34  37  38
+  39  40  41  43  44  47  49  52  53  54  56  57  58  59  60  61  62  63
+  65  66  67  68  70  71  75  76  78  82  85  86  87  88  90  91  93  94
+  97  99 101 102 107 108 115 117 119 121 122 123 124 126 127 132 134 138
+ 139 143 145 149 150 151 153 155 156 157 160 161 163 166 167 169 170 173
+ 180 183 185 187 188 190 192 193 196 200 202 209 212 216 217 218 223 226
+ 227 229 230 232 233 235 236 237 238 240 242 244 245 246 248 250 253 254
+ 255 256 257 259 260 261 265 266 267 270 274 277 278 283 285 286 287 288
+ 289 291 293 294 296 297 298 301 306 312 313 317 320 321 322 324 327 328
+ 329 331 333 334 336 344 348 349 350 354 355 356 357 358 359 361 362 363
+ 366 367 369 371 372 374 375 381 382 384 385 386 387 388 390 392 394 396
+ 398 400 401 402 406 408 411 413 415 416 417 418 420 425 427 428 430 431
+ 432 435 439 441 442 444 448 453 454 456 458 460 462 463 464 466 468 469
+ 473 476 480 481 482 486 488 490 491 498 499 503 505 506 507 509 512 514
+ 515 516 517 518 519 520 523 526 528 529 531 532 537 538 539 545 547 549
+ 551 552 555 557 559 561 563 565 567 568 569 570 571 572 573 576 578 579
+ 580 581 584 585 586 587 588 589 590 591 595 598 599 600 603 604 606 607
+ 608 609 611 612 616 619 620 622 623 630 634 636 637 638 639 640 641 642
+ 645 646 647 648 650 651 654 656 659 660 661 662 665 670 671 672 674 679
+ 680 683 686 687 691 693 697 698 701 703 704 706 712 713 715 716 718 719
+ 720 723 725 726 727 728 730 731 732 734 735 736 744 746 748 750]</t>
         </is>
       </c>
       <c r="D10" t="n">
         <v>0.9736842105263158</v>
       </c>
       <c r="E10" t="n">
-        <v>340.0320088863373</v>
+        <v>476.2471890449524</v>
       </c>
     </row>
     <row r="11">
@@ -1018,63 +1028,60 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>[1 0 1 1 0 1 0 0 0 0 0 0 1 1 0 0 1 1 0 0 1 1 1 1 0 1 0 1 1 1 0 1 0 1 1 0 1
- 0 1 0 1 1 1 0 1 0 1 0 1 0 1 1 1 0 0 0 1 0 1 1 1 0 1 0 0 0 0 1 1 0 1 1 0 1
- 1 1 1 0 1 1 1 0 1 0 1 0 0 1 1 0 1 1 1 1 1 0 0 0 1 1 1 1 0 0 1 1 0 0 0 0 1
- 0 1 0 0 1 1 1 1 1 1 1 0 1 0 0 0 0 0 0 1 1 1 1 0 0 1 1 1 0 1 1 1 1 0 0 1 1
- 0 1 1 0 0 1 0 0 1 1 1 1 0 1 1 1 1 0 0 1 0 1 0 1 1 1 1 1 0 0 1 1 1 1 0 1 1
- 1 0 0 1 1 1 0 0 0 0 1 1 1 0 1 0 1 1 1 0 0 0 0 1 0 0 1 1 0 1 1 1 1 0 1 0 0
- 1 0 1 1 0 1 1 1 0 0 1 0 0 1 1 0 1 0 0 1 1 1 1 0 0 0 0 1 1 1 1 1 1 1 0 1 1
- 0 0 0 0 1 1 1 1 1 0 0 0 0 0 0 1 1 1 0 0 1 1 0 1 0 0 0 1 1 1 1 0 1 0 1 0 1
- 1 0 0 0 1 1 1 0 1 1 0 1 1 1 1 0 0 1 1 0 1 0 1 1 1 0 0 0 0 0 1 0 1 1 0 1 0
- 0 1 1 0 0 1 0 0 0 1 0 1 1 0 1 0 1 1 0 0 0 0 1 0 0 1 1 1 1 1 1 0 1 1 1 1 0
- 1 0 1 1 0 0 0 1 0 1 1 1 0 1 1 0 0 1 0 1 0 0 0 1 1 0 1 0 0 1 1 0 0 0 1 0 0
- 1 1 1 0 1 0 1 1 1 1 1 1 1 0 1 1 1 0 0 1 1 0 1 1 1 0 0 0 0 1 0 0 1 1 0 0 1
- 0 0 1 1 1 1 1 1 0 0 1 1 1 1 1 1 0 0 1 1 1 0 1 0 1 0 0 1 0 0 1 0 0 1 0 1 1
- 0 1 1 1 1 1 1 1 0 0 1 0 1 0 1 0 1 0 0 1 0 1 1 1 0 0 0 1 1 1 0 1 1 1 1 0 1
- 1 0 0 0 0 1 1 1 1 1 1 0 0 1 0 1 1 0 1 1 0 1 0 1 0 0 1 1 1 0 1 1 0 1 0 0 1
- 1 1 0 1 1 1 0 1 0 0 0 0 1 1 1 0 1 1 1 0 1 1 1 1 0 1 1 0 1 0 0 1 1 0 1 1 0
- 0 0 0 0 1 1 1 1 1 1 0 1 1 0 0 1 0 0 1 1 1 1 1 0 1 0 1 1 1 1 0 1 1 1 1 1 1
- 0 1 0 1 0 1 1 1 1 1 1 1 1 0 1 0 0 1 1 0 1 1 0 1 1 0 1 1 1 1 1 1 1 1 0 1 1
- 1 1 1 1 1 1 1 0 1 1 0 1 0 0 1 1 1 1 1 1 1 0 0 1 0 1 1 1 0 1 0 0 1 1 0 1 1
- 1 1 1 1 0 1 1 1 1 0 1 1 1 1 1 0 0 1 1 0 0 1 0 1 1 0 0 1 0 0 1 0 1 1 1 1 1
- 0 0 0 0 0 1 1 1 0 0 0 1 0]</t>
+          <t>[1 1 1 1 1 1 1 0 0 1 0 0 1 1 1 0 0 0 0 1 0 1 1 1 0 0 0 0 0 0 0 0 1 0 1 1 0
+ 0 0 0 1 1 1 0 1 1 1 0 0 1 0 0 0 1 0 0 1 0 1 0 0 0 1 0 0 1 0 0 0 0 1 0 1 1
+ 1 1 0 0 1 0 0 1 0 1 0 0 0 0 0 1 0 0 0 0 1 1 1 0 1 1 0 1 0 0 0 1 0 0 1 1 1
+ 0 1 1 1 1 1 1 1 1 1 1 0 1 1 0 1 0 0 0 1 1 0 1 1 1 0 0 0 1 1 0 1 0 1 1 1 1
+ 0 1 1 0 1 0 0 1 0 0 0 0 0 0 0 0 1 0 1 1 1 1 0 0 0 0 0 1 0 0 1 1 0 1 0 0 1
+ 0 1 1 1 1 1 1 0 0 1 0 1 0 1 0 1 1 1 0 0 1 0 0 1 1 1 1 1 0 1 0 0 0 1 1 0 0
+ 1 0 1 0 1 0 0 0 0 0 0 0 1 1 1 1 1 1 1 0 1 1 0 1 1 1 1 0 1 0 0 0 0 0 0 1 0
+ 1 0 0 0 1 1 1 1 0 1 0 1 1 1 1 0 0 0 0 0 0 0 1 0 0 1 1 1 1 1 0 1 1 1 0 1 1
+ 1 1 0 1 1 0 1 1 1 1 1 1 1 0 0 1 0 1 1 0 1 1 0 1 1 1 1 0 0 0 0 1 1 0 0 1 0
+ 0 1 1 1 1 0 0 0 1 0 1 0 0 0 1 0 1 0 0 0 1 1 1 1 0 1 1 1 0 1 0 0 0 1 0 1 0
+ 0 1 1 1 0 1 0 1 1 0 0 0 0 0 1 0 1 1 1 1 1 1 0 1 1 1 1 1 0 1 1 0 0 0 1 0 1
+ 0 0 1 0 0 1 0 1 0 0 0 0 0 0 1 1 1 0 1 0 1 1 0 0 1 1 1 0 1 1 0 0 1 1 0 1 1
+ 1 1 1 1 0 0 0 1 0 1 0 1 1 1 1 0 1 0 0 0 0 0 0 1 0 1 0 0 0 1 1 0 1 0 0 1 0
+ 0 1 0 1 0 1 0 0 0 0 1 1 1 1 1 0 0 0 0 1 1 1 0 1 0 0 1 1 1 1 0 1 0 0 0 0 0
+ 0 0 0 1 1 1 0 1 0 0 1 0 0 0 1 0 1 0 0 1 0 1 1 1 1 0 1 0 1 0 1 0 0 0 1 1 1
+ 1 0 1 0 1 1 0 0 0 0 1 1 1 1 0 1 0 1 0 1 1 1 1 1 0 0 0 0 1 1 1 0 1 1 1 0 1
+ 0 0 0 0 0 1 1 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 1 0 1 0 0 0 0 0 0 1 1 0 1 1
+ 0 1 1 1 1 1 0 1 1 0 0 0 0 0 1 0 1 1 1 0 1 1 1 0 1 0 1 0 1 1 1 0 1 1 0 0 1
+ 1 0 0 1 1 1 1 1 0 1 0 1 0 0 1 0 1 0 0 0 0 1 1 1 1 1 1 1 1 1 0 0 0 1 0 0 1
+ 0 0 1 0 1 0 1 1 0 0 0 0 1 1 0 0 1 0 0 1 1 1 1 1 1 1 1 0 0 0 1 0 1 1 0 0 0
+ 1 0 0 0 1 0 0 1 1 0 1 0 0]</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[  0   2   3   5  12  13  16  17  20  21  22  23  25  27  28  29  31  33
-  34  36  38  40  41  42  44  46  48  50  51  52  56  58  59  60  62  67
-  68  70  71  73  74  75  76  78  79  80  82  84  87  88  90  91  92  93
-  94  98  99 100 101 104 105 110 112 115 116 117 118 119 120 121 123 130
- 131 132 133 136 137 138 140 141 142 143 146 147 149 150 153 156 157 158
- 159 161 162 163 164 167 169 171 172 173 174 175 178 179 180 181 183 184
- 185 188 189 190 195 196 197 199 201 202 203 208 211 212 214 215 216 217
- 219 222 224 225 227 228 229 232 235 236 238 241 242 243 244 249 250 251
- 252 253 254 255 257 258 263 264 265 266 267 274 275 276 279 280 282 286
- 287 288 289 291 293 295 296 300 301 302 304 305 307 308 309 310 313 314
- 316 318 319 320 326 328 329 331 334 335 338 342 344 345 347 349 350 355
- 358 359 360 361 362 363 365 366 367 368 370 372 373 377 379 380 381 383
- 384 387 389 393 394 396 399 400 404 407 408 409 411 413 414 415 416 417
- 418 419 421 422 423 426 427 429 430 431 436 439 440 443 446 447 448 449
- 450 451 454 455 456 457 458 459 462 463 464 466 468 471 474 477 479 480
- 482 483 484 485 486 487 488 491 493 495 497 500 502 503 504 508 509 510
- 512 513 514 515 517 518 523 524 525 526 527 528 531 533 534 536 537 539
- 541 544 545 546 548 549 551 554 555 556 558 559 560 562 567 568 569 571
- 572 573 575 576 577 578 580 581 583 586 587 589 590 596 597 598 599 600
- 601 603 604 607 610 611 612 613 614 616 618 619 620 621 623 624 625 626
- 627 628 630 632 634 635 636 637 638 639 640 641 643 646 647 649 650 652
- 653 655 656 657 658 659 660 661 662 664 665 666 667 668 669 670 671 672
- 674 675 677 680 681 682 683 684 685 686 689 691 692 693 695 698 699 701
- 702 703 704 705 706 708 709 710 711 713 714 715 716 717 720 721 724 726
- 727 730 733 735 736 737 738 739 745 746 747 751]</t>
+          <t>[  0   1   2   3   4   5   6   9  12  13  14  19  21  22  23  32  34  35
+  40  41  42  44  45  46  49  53  56  58  62  65  70  72  73  74  75  78
+  81  83  89  94  95  96  98  99 101 105 108 109 110 112 113 114 115 116
+ 117 118 119 120 121 123 124 126 130 131 133 134 135 139 140 142 144 145
+ 146 147 149 150 152 155 164 166 167 168 169 175 178 179 181 184 186 187
+ 188 189 190 191 194 196 198 200 201 202 205 208 209 210 211 212 214 218
+ 219 222 224 226 234 235 236 237 238 239 240 242 243 245 246 247 248 250
+ 257 259 263 264 265 266 268 270 271 272 273 281 284 285 286 287 288 290
+ 291 292 294 295 296 297 299 300 302 303 304 305 306 307 308 311 313 314
+ 316 317 319 320 321 322 327 328 331 334 335 336 337 341 343 347 349 353
+ 354 355 356 358 359 360 362 366 368 371 372 373 375 377 378 384 386 387
+ 388 389 390 391 393 394 395 396 397 399 400 404 406 409 412 414 421 422
+ 423 425 427 428 431 432 433 435 436 439 440 442 443 444 445 446 447 451
+ 453 455 456 457 458 460 467 469 473 474 476 479 482 484 486 491 492 493
+ 494 495 500 501 502 504 507 508 509 510 512 521 522 523 525 528 532 534
+ 537 539 540 541 542 544 546 548 552 553 554 555 557 559 560 565 566 567
+ 568 570 572 574 575 576 577 578 583 584 585 587 588 589 591 597 598 599
+ 611 614 615 617 624 625 627 628 630 631 632 633 634 636 637 643 645 646
+ 647 649 650 651 653 655 657 658 659 661 662 665 666 669 670 671 672 673
+ 675 677 680 682 687 688 689 690 691 692 693 694 695 699 702 705 707 709
+ 710 715 716 719 722 723 724 725 726 727 728 729 733 735 736 740 744 747
+ 748 750]</t>
         </is>
       </c>
       <c r="D11" t="n">
         <v>0.9868421052631579</v>
       </c>
       <c r="E11" t="n">
-        <v>406.5652024745941</v>
+        <v>486.9669201374054</v>
       </c>
     </row>
   </sheetData>

--- a/hasil uji/jumlahBAT.xlsx
+++ b/hasil uji/jumlahBAT.xlsx
@@ -466,19 +466,65 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[1 1 0 1 1 0 0 1 1 0 0 0 0 0 1 0 0 0 1 0 0 1 1 1 1 1 1 1 0 1]</t>
+          <t>[1 0 1 1 1 1 0 1 0 1 1 0 0 0 1 1 0 0 1 1 1 0 1 1 1 0 1 0 0 1 0 0 0 1 1 0 0
+ 1 1 0 1 0 1 0 1 0 0 1 1 1 1 1 1 0 1 1 1 0 0 1 0 1 0 0 1 1 0 1 0 0 1 1 1 1
+ 1 1 1 1 0 0 1 1 1 1 1 0 0 1 1 1 0 1 1 0 1 1 0 1 1 0 1 0 1 0 1 0 0 0 0 1 1
+ 0 0 0 1 1 1 1 1 1 1 0 1 1 1 1 1 0 0 1 1 0 0 1 0 0 0 1 1 1 0 1 1 1 1 0 0 1
+ 0 0 1 1 1 1 0 0 0 1 1 1 0 1 1 1 1 1 1 1 1 1 0 0 0 0 0 1 1 1 1 0 1 0 0 1 0
+ 1 1 0 0 0 1 0 1 0 0 0 1 1 0 1 0 1 1 0 0 1 1 1 1 0 0 1 1 0 0 0 0 1 1 0 1 1
+ 0 1 0 1 0 0 0 1 1 1 1 1 0 1 1 0 1 1 1 1 0 1 1 1 1 1 1 0 1 1 1 0 0 1 1 1 1
+ 1 1 0 0 1 1 1 1 0 1 1 0 1 1 1 0 1 0 0 1 1 1 0 1 0 1 0 1 1 1 1 1 0 0 1 0 1
+ 1 1 0 1 1 0 1 1 0 1 1 1 1 1 0 0 0 1 1 1 1 1 0 0 1 1 0 1 0 1 1 1 1 1 0 0 1
+ 0 1 0 0 0 0 1 0 1 1 1 1 1 1 0 0 0 1 0 1 0 1 1 1 0 1 1 1 0 1 1 0 1 0 1 0 0
+ 0 1 1 1 0 1 1 0 1 1 0 1 1 0 1 1 0 1 1 1 0 1 1 0 1 0 1 1 0 1 0 1 1 1 1 1 1
+ 0 0 1 1 1 0 0 1 1 1 0 0 1 1 0 0 0 0 1 1 0 1 0 1 0 1 1 0 0 1 1 1 1 1 0 0 0
+ 1 0 1 1 1 1 1 1 1 1 0 1 1 1 0 0 1 1 0 1 0 0 1 1 1 1 1 1 1 0 1 1 1 1 1 1 0
+ 1 1 1 0 1 1 1 1 0 0 0 1 0 1 1 1 0 1 1 1 1 0 1 0 1 0 0 1 0 0 1 1 1 1 1 1 0
+ 0 0 1 1 1 0 0 1 0 0 0 0 1 1 1 1 1 0 1 1 1 0 0 1 0 1 1 0 1 1 0 0 0 1 0 0 1
+ 0 1 0 1 1 0 1 1 0 1 0 1 1 0 1 1 1 0 0 1 0 0 1 1 0 0 1 1 0 1 0 1 0 0 0 0 1
+ 1 0 0 1 1 0 1 1 1 1 0 1 0 0 1 1 1 1 1 0 0 0 0 1 0 1 1 0 1 0 0 1 1 1 1 1 1
+ 0 1 0 1 1 1 1 1 1 1 1 0 1 1 1 1 1 0 1 1 1 1 0 1 0 1 1 1 1 1 1 1 1 0 1 0 1
+ 1 0 1 0 0 0 0 1 1 1 1 0 1 0 0 1 1 1 1 1 0 1 1 1 0 0 1 0 1 1 0 1 1 1 1 1 0
+ 1 1 1 1 0 1 1 1 1 1 0 0 0 0 1 0 0 0 1 1 0 1 0 1 1 1 1 1 1 0 0 1 1 0 1 1 0
+ 1 1 0 1 1 1 1 1 0 1 1 1 1]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[ 0  1  3  4  7  8 14 18 21 22 23 24 25 26 27 29]</t>
+          <t>[  0   2   3   4   5   7   9  10  14  15  18  19  20  22  23  24  26  29
+  33  34  37  38  40  42  44  47  48  49  50  51  52  54  55  56  59  61
+  64  65  67  70  71  72  73  74  75  76  77  80  81  82  83  84  87  88
+  89  91  92  94  95  97  98 100 102 104 109 110 114 115 116 117 118 119
+ 120 122 123 124 125 126 129 130 133 137 138 139 141 142 143 144 147 150
+ 151 152 153 157 158 159 161 162 163 164 165 166 167 168 169 175 176 177
+ 178 180 183 185 186 190 192 196 197 199 201 202 205 206 207 208 211 212
+ 217 218 220 221 223 225 229 230 231 232 233 235 236 238 239 240 241 243
+ 244 245 246 247 248 250 251 252 255 256 257 258 259 260 263 264 265 266
+ 268 269 271 272 273 275 278 279 280 282 284 286 287 288 289 290 293 295
+ 296 297 299 300 302 303 305 306 307 308 309 313 314 315 316 317 320 321
+ 323 325 326 327 328 329 332 334 339 341 342 343 344 345 346 350 352 354
+ 355 356 358 359 360 362 363 365 367 371 372 373 375 376 378 379 381 382
+ 384 385 387 388 389 391 392 394 396 397 399 401 402 403 404 405 406 409
+ 410 411 414 415 416 419 420 425 426 428 430 432 433 436 437 438 439 440
+ 444 446 447 448 449 450 451 452 453 455 456 457 460 461 463 466 467 468
+ 469 470 471 472 474 475 476 477 478 479 481 482 483 485 486 487 488 492
+ 494 495 496 498 499 500 501 503 505 508 511 512 513 514 515 516 520 521
+ 522 525 530 531 532 533 534 536 537 538 541 543 544 546 547 551 554 556
+ 558 559 561 562 564 566 567 569 570 571 574 577 578 581 582 584 586 591
+ 592 595 596 598 599 600 601 603 606 607 608 609 610 615 617 618 620 623
+ 624 625 626 627 628 630 632 633 634 635 636 637 638 639 641 642 643 644
+ 645 647 648 649 650 652 654 655 656 657 658 659 660 661 663 665 666 668
+ 673 674 675 676 678 681 682 683 684 685 687 688 689 692 694 695 697 698
+ 699 700 701 703 704 705 706 708 709 710 711 712 717 721 722 724 726 727
+ 728 729 730 731 734 735 737 738 740 741 743 744 745 746 747 749 750 751
+ 752]</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.9824561403508771</v>
+        <v>0.9210526315789473</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1387972831726074</v>
+        <v>1.680215835571289</v>
       </c>
     </row>
     <row r="3">
@@ -487,19 +533,64 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[0 0 1 0 1 1 1 0 0 0 1 0 1 1 1 0 0 0 1 0 1 1 1 1 1 1 1 1 0 1]</t>
+          <t>[1 0 0 0 1 0 1 0 0 1 1 1 1 0 0 1 1 0 0 1 0 1 0 1 1 1 0 1 1 0 1 1 0 1 0 1 1
+ 1 1 0 1 1 1 1 1 0 1 1 1 0 1 0 1 0 0 0 1 0 1 1 1 0 1 0 1 0 1 1 0 1 1 1 0 0
+ 0 1 1 1 1 1 1 1 1 0 1 0 1 0 0 1 0 0 0 0 0 1 0 0 1 1 1 0 0 0 1 0 1 0 1 1 1
+ 0 1 1 1 0 1 1 0 1 1 1 0 1 1 0 1 0 1 1 1 1 1 0 1 1 1 1 1 0 1 1 0 1 1 1 0 0
+ 1 0 1 0 0 0 1 0 0 1 1 1 1 1 1 0 0 1 1 0 0 1 1 0 0 1 0 0 0 1 0 1 1 1 0 1 1
+ 1 1 1 1 0 1 0 1 1 0 0 1 1 0 0 1 0 1 1 1 0 1 0 0 0 1 1 0 0 1 1 0 1 1 0 1 0
+ 1 1 1 0 1 1 1 0 1 1 1 0 1 1 1 1 1 0 1 1 0 0 0 0 1 0 1 1 0 1 0 0 0 0 1 1 0
+ 1 1 0 1 1 1 0 1 1 1 0 1 1 0 1 1 1 1 1 1 0 1 0 0 0 1 1 0 0 1 0 1 0 1 1 1 1
+ 0 1 1 0 1 1 1 1 1 1 0 0 1 0 0 1 1 1 0 0 0 0 0 1 1 0 0 1 0 1 0 0 1 0 1 1 1
+ 0 1 1 1 1 1 1 0 1 0 1 1 1 0 0 0 0 1 0 1 1 1 0 1 1 1 0 1 1 1 1 0 1 0 1 1 1
+ 0 0 0 0 1 0 1 1 1 0 1 1 1 1 0 1 0 0 0 0 1 1 1 1 1 1 0 1 1 0 1 1 0 0 1 0 1
+ 1 1 0 1 0 0 1 0 1 1 1 0 0 1 1 1 1 1 1 1 1 1 1 1 0 1 1 0 1 0 0 1 1 0 1 0 0
+ 1 0 0 0 1 1 1 1 1 1 0 1 1 0 0 1 0 1 1 1 0 1 1 1 1 1 1 1 1 1 1 1 0 1 1 1 0
+ 0 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 0 1 0 0 1 0 1 1 1 0 0 0 1 1 1 1 1 1 0 1
+ 1 0 1 1 1 0 0 1 1 0 1 0 0 0 1 1 1 0 0 1 1 0 1 0 1 0 1 0 0 1 1 0 0 1 1 0 0
+ 1 1 1 1 1 1 1 0 0 0 1 1 0 1 1 1 0 0 1 1 0 1 1 1 1 0 1 1 0 1 0 0 0 1 1 1 1
+ 1 1 1 0 1 0 1 1 0 0 1 1 1 1 1 0 0 1 0 1 1 1 1 1 0 1 1 0 1 0 1 1 0 1 0 0 1
+ 1 1 0 1 1 1 1 0 0 1 1 0 1 1 1 1 0 1 0 1 0 1 1 0 1 1 1 0 1 0 1 1 1 1 0 1 1
+ 1 1 1 1 0 1 1 0 0 1 1 1 1 0 0 1 1 1 1 1 1 0 1 0 1 1 0 1 0 1 1 0 1 0 1 0 1
+ 1 0 1 0 0 1 1 1 1 0 0 0 1 1 0 0 0 1 0 0 1 0 1 0 1 0 1 1 1 0 1 0 0 0 1 0 1
+ 1 0 1 0 1 0 0 0 1 1 0 1 1]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[ 2  4  5  6 10 12 13 14 18 20 21 22 23 24 25 26 27 29]</t>
+          <t>[  0   4   6   9  10  11  12  15  16  19  21  23  24  25  27  28  30  31
+  33  35  36  37  38  40  41  42  43  44  46  47  48  50  52  56  58  59
+  60  62  64  66  67  69  70  71  75  76  77  78  79  80  81  82  84  86
+  89  95  98  99 100 104 106 108 109 110 112 113 114 116 117 119 120 121
+ 123 124 126 128 129 130 131 132 134 135 136 137 138 140 141 143 144 145
+ 148 150 154 157 158 159 160 161 162 165 166 169 170 173 177 179 180 181
+ 183 184 185 186 187 188 190 192 193 196 197 200 202 203 204 206 210 211
+ 214 215 217 218 220 222 223 224 226 227 228 230 231 232 234 235 236 237
+ 238 240 241 246 248 249 251 256 257 259 260 262 263 264 266 267 268 270
+ 271 273 274 275 276 277 278 280 284 285 288 290 292 293 294 295 297 298
+ 300 301 302 303 304 305 308 311 312 313 319 320 323 325 328 330 331 332
+ 334 335 336 337 338 339 341 343 344 345 350 352 353 354 356 357 358 360
+ 361 362 363 365 367 368 369 374 376 377 378 380 381 382 383 385 390 391
+ 392 393 394 395 397 398 400 401 404 406 407 408 410 413 415 416 417 420
+ 421 422 423 424 425 426 427 428 429 430 432 433 435 438 439 441 444 448
+ 449 450 451 452 453 455 456 459 461 462 463 465 466 467 468 469 470 471
+ 472 473 474 475 477 478 479 482 483 484 485 486 487 488 489 490 491 492
+ 493 494 495 496 497 499 502 504 505 506 510 511 512 513 514 515 517 518
+ 520 521 522 525 526 528 532 533 534 537 538 540 542 544 547 548 551 552
+ 555 556 557 558 559 560 561 565 566 568 569 570 573 574 576 577 578 579
+ 581 582 584 588 589 590 591 592 593 594 596 598 599 602 603 604 605 606
+ 609 611 612 613 614 615 617 618 620 622 623 625 628 629 630 632 633 634
+ 635 638 639 641 642 643 644 646 648 650 651 653 654 655 657 659 660 661
+ 662 664 665 666 667 668 669 671 672 675 676 677 678 681 682 683 684 685
+ 686 688 690 691 693 695 696 698 700 702 703 705 708 709 710 711 715 716
+ 720 723 725 727 729 730 731 733 737 739 740 742 744 748 749 751 752]</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.9824561403508771</v>
+        <v>0.9342105263157895</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4200072288513184</v>
+        <v>4.456925868988037</v>
       </c>
     </row>
     <row r="4">
@@ -508,19 +599,66 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[1 0 0 1 1 0 0 0 0 0 0 1 1 1 1 0 0 0 1 0 0 1 1 1 1 1 0 1 0 1]</t>
+          <t>[1 0 1 0 0 0 0 0 1 0 1 1 1 1 0 0 1 1 1 1 0 1 1 0 0 0 1 1 1 0 1 0 1 1 1 0 1
+ 0 1 1 0 0 0 1 1 0 1 0 1 0 1 0 1 1 1 1 0 0 0 0 0 1 1 0 0 0 1 1 0 1 0 1 1 1
+ 1 0 0 1 0 0 1 0 1 1 1 0 1 0 0 1 1 1 0 1 1 1 1 0 1 1 1 0 1 1 0 0 1 1 1 1 0
+ 1 0 1 0 0 1 0 0 1 1 1 1 0 0 1 1 1 1 1 0 0 0 0 1 1 1 1 0 1 1 1 1 1 1 0 1 0
+ 1 1 1 1 0 1 1 1 1 1 0 1 0 1 0 1 1 1 0 1 1 0 1 1 0 1 0 1 0 0 1 1 1 1 1 1 1
+ 1 1 1 1 0 1 0 0 0 0 1 1 1 0 0 1 1 1 0 1 1 1 1 0 1 1 1 1 1 1 1 0 1 1 1 1 1
+ 1 1 0 1 1 1 1 1 1 1 0 0 1 1 1 1 1 1 0 0 1 1 1 0 1 0 1 1 0 1 1 1 1 1 1 0 1
+ 0 1 1 0 0 1 1 0 1 0 0 1 1 0 1 1 0 0 1 1 1 1 0 1 1 0 0 1 1 1 1 1 0 0 1 1 1
+ 1 1 1 0 0 1 1 0 1 1 1 1 1 0 0 0 1 1 1 1 1 0 1 1 1 1 1 0 0 1 0 1 0 0 0 1 1
+ 1 1 1 1 1 1 1 0 1 0 1 1 1 1 0 1 1 1 1 1 1 1 1 0 1 0 1 0 1 0 1 1 1 1 1 0 0
+ 1 1 1 1 1 1 1 1 0 0 1 1 1 1 1 0 0 0 1 0 1 0 0 1 0 0 1 1 1 1 0 1 1 0 0 1 1
+ 0 0 1 0 0 1 0 1 0 0 1 1 1 1 1 1 1 1 1 0 1 1 1 0 0 1 1 1 0 0 0 1 0 0 1 1 0
+ 1 1 0 1 1 0 0 1 1 1 1 1 1 0 0 1 1 1 1 0 1 0 0 0 1 0 1 0 1 1 0 1 1 0 0 1 0
+ 1 1 1 0 0 1 0 1 1 0 0 0 1 0 0 0 0 1 0 0 0 1 1 0 1 1 0 0 0 0 0 0 1 1 0 0 1
+ 1 1 1 1 1 1 0 1 0 1 1 1 1 0 1 1 1 1 0 1 1 0 1 1 0 0 1 1 1 1 1 1 1 0 1 0 1
+ 1 1 0 0 0 0 1 1 0 1 1 1 0 1 1 1 1 0 1 0 1 0 1 1 1 1 1 1 1 1 0 1 1 0 0 1 1
+ 0 1 0 0 0 0 1 1 1 1 1 1 1 0 1 1 0 1 1 1 1 0 1 1 1 1 0 0 1 0 1 0 1 0 1 0 1
+ 0 0 1 1 0 1 1 0 1 0 1 1 1 1 1 1 1 1 1 1 1 1 1 0 1 1 1 1 0 1 1 1 0 1 1 0 0
+ 0 1 1 1 1 1 1 1 0 1 1 0 0 1 1 1 0 1 1 1 1 1 1 1 1 0 0 1 0 1 0 1 1 1 1 1 1
+ 0 1 0 1 1 1 0 1 0 1 0 1 0 1 1 1 1 1 1 1 1 1 1 1 1 0 0 0 1 1 1 1 0 1 1 0 1
+ 1 0 1 1 1 0 1 1 1 1 1 1 1]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[ 0  3  4 11 12 13 14 18 21 22 23 24 25 27 29]</t>
+          <t>[  0   2   8  10  11  12  13  16  17  18  19  21  22  26  27  28  30  32
+  33  34  36  38  39  43  44  46  48  50  52  53  54  55  61  62  66  67
+  69  71  72  73  74  77  80  82  83  84  86  89  90  91  93  94  95  96
+  98  99 100 102 103 106 107 108 109 111 113 116 119 120 121 122 125 126
+ 127 128 129 134 135 136 137 139 140 141 142 143 144 146 148 149 150 151
+ 153 154 155 156 157 159 161 163 164 165 167 168 170 171 173 175 178 179
+ 180 181 182 183 184 185 186 187 188 190 195 196 197 200 201 202 204 205
+ 206 207 209 210 211 212 213 214 215 217 218 219 220 221 222 223 225 226
+ 227 228 229 230 231 234 235 236 237 238 239 242 243 244 246 248 249 251
+ 252 253 254 255 256 258 260 261 264 265 267 270 271 273 274 277 278 279
+ 280 282 283 286 287 288 289 290 293 294 295 296 297 298 301 302 304 305
+ 306 307 308 312 313 314 315 316 318 319 320 321 322 325 327 331 332 333
+ 334 335 336 337 338 339 341 343 344 345 346 348 349 350 351 352 353 354
+ 355 357 359 361 363 364 365 366 367 370 371 372 373 374 375 376 377 380
+ 381 382 383 384 388 390 393 396 397 398 399 401 402 405 406 409 412 414
+ 417 418 419 420 421 422 423 424 425 427 428 429 432 433 434 438 441 442
+ 444 445 447 448 451 452 453 454 455 456 459 460 461 462 464 468 470 472
+ 473 475 476 479 481 482 483 486 488 489 493 498 502 503 505 506 513 514
+ 517 518 519 520 521 522 523 525 527 528 529 530 532 533 534 535 537 538
+ 540 541 544 545 546 547 548 549 550 552 554 555 556 561 562 564 565 566
+ 568 569 570 571 573 575 577 578 579 580 581 582 583 584 586 587 590 591
+ 593 598 599 600 601 602 603 604 606 607 609 610 611 612 614 615 616 617
+ 620 622 624 626 628 631 632 634 635 637 639 640 641 642 643 644 645 646
+ 647 648 649 650 651 653 654 655 656 658 659 660 662 663 667 668 669 670
+ 671 672 673 675 676 679 680 681 683 684 685 686 687 688 689 690 693 695
+ 697 698 699 700 701 702 704 706 707 708 710 712 714 716 717 718 719 720
+ 721 722 723 724 725 726 727 731 732 733 734 736 737 739 740 742 743 744
+ 746 747 748 749 750 751 752]</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.9824561403508771</v>
+        <v>0.9605263157894737</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5085852146148682</v>
+        <v>5.602130889892578</v>
       </c>
     </row>
     <row r="5">
@@ -529,19 +667,64 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>[1 1 0 0 0 1 1 1 0 0 0 0 1 1 0 1 1 0 1 0 1 1 1 0 0 0 1 1 1 0]</t>
+          <t>[0 1 1 1 1 1 0 1 1 1 1 1 1 1 0 1 0 0 1 0 0 0 0 1 1 1 1 0 1 0 1 0 0 0 1 0 0
+ 0 1 1 1 0 1 1 1 0 1 0 0 1 1 0 0 1 1 0 1 1 1 1 1 1 1 0 0 1 0 1 1 0 0 1 1 1
+ 0 1 1 1 1 1 1 1 0 1 1 0 1 0 1 1 1 0 0 0 1 1 1 0 1 1 0 1 1 1 1 1 0 1 0 1 1
+ 1 1 1 1 1 1 1 0 0 1 0 1 0 1 0 1 1 1 1 1 1 1 1 1 1 1 1 0 1 1 1 1 0 1 1 0 1
+ 1 1 0 1 1 0 1 1 0 0 0 1 1 0 0 1 0 1 1 0 0 1 1 1 0 1 0 1 1 1 1 0 1 0 0 1 1
+ 1 1 0 1 0 1 0 0 0 1 1 0 1 1 1 1 1 1 0 1 1 1 1 1 0 0 1 1 1 1 0 1 0 0 0 1 1
+ 0 1 1 1 1 0 1 1 1 1 1 1 1 1 1 1 1 0 0 1 1 1 0 1 0 1 1 1 1 1 0 1 1 1 0 1 1
+ 0 1 1 1 1 1 1 0 1 0 1 1 0 1 0 1 0 0 1 1 0 1 1 0 1 0 1 1 0 0 1 1 1 1 1 1 1
+ 0 1 1 1 0 1 0 0 0 1 0 0 1 0 1 1 1 1 0 1 0 1 0 0 0 1 0 1 0 0 0 1 0 1 1 1 1
+ 0 1 1 1 1 1 0 1 1 1 1 1 1 0 1 0 0 1 1 0 1 0 0 0 1 0 0 1 0 1 1 1 1 1 0 1 1
+ 1 0 0 1 0 1 1 0 1 0 0 0 0 0 1 1 1 1 0 1 1 0 0 1 1 0 1 0 0 1 1 1 1 1 0 1 1
+ 1 0 1 0 0 0 0 1 0 1 1 0 0 1 1 1 1 1 1 1 1 1 0 0 1 1 1 1 0 1 0 1 0 1 0 1 0
+ 0 0 1 1 0 0 1 0 0 1 0 1 1 1 0 1 1 0 0 1 1 1 0 0 1 1 0 1 1 1 1 0 0 1 0 0 1
+ 1 0 0 1 1 0 0 0 1 0 1 1 1 1 1 0 0 0 1 0 1 1 0 1 0 0 0 0 1 0 1 1 0 0 0 1 1
+ 1 1 1 1 1 1 0 1 1 1 1 0 0 0 0 1 1 1 1 0 0 1 1 0 1 1 1 0 0 1 0 1 0 1 1 1 1
+ 0 0 1 1 0 0 1 1 0 1 0 1 0 1 0 1 0 1 1 0 1 1 1 0 1 0 0 1 0 0 0 1 1 0 1 0 1
+ 1 1 1 1 1 0 1 0 1 1 1 1 0 1 1 0 0 1 1 1 0 0 1 0 1 0 1 1 1 1 0 1 0 1 0 1 1
+ 0 1 1 1 0 1 0 1 1 1 0 0 1 1 1 0 0 1 0 0 0 1 1 1 1 1 1 0 1 0 1 0 1 0 1 0 0
+ 1 0 1 1 0 1 1 0 0 1 0 1 1 1 0 1 1 0 1 1 1 1 1 0 0 0 0 1 1 0 1 0 1 1 1 0 1
+ 1 0 0 0 0 0 0 0 0 1 1 1 1 1 1 1 0 1 1 0 1 0 1 0 0 1 1 0 1 0 0 0 1 1 1 0 1
+ 0 1 0 1 0 1 1 0 1 1 1 1 1]</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[ 0  1  5  6  7 12 13 15 16 18 20 21 22 26 27 28]</t>
+          <t>[  1   2   3   4   5   7   8   9  10  11  12  13  15  18  23  24  25  26
+  28  30  34  38  39  40  42  43  44  46  49  50  53  54  56  57  58  59
+  60  61  62  65  67  68  71  72  73  75  76  77  78  79  80  81  83  84
+  86  88  89  90  94  95  96  98  99 101 102 103 104 105 107 109 110 111
+ 112 113 114 115 116 117 120 122 124 126 127 128 129 130 131 132 133 134
+ 135 136 137 139 140 141 142 144 145 147 148 149 151 152 154 155 159 160
+ 163 165 166 169 170 171 173 175 176 177 178 180 183 184 185 186 188 190
+ 194 195 197 198 199 200 201 202 204 205 206 207 208 211 212 213 214 216
+ 220 221 223 224 225 226 228 229 230 231 232 233 234 235 236 237 238 241
+ 242 243 245 247 248 249 250 251 253 254 255 257 258 260 261 262 263 264
+ 265 267 269 270 272 274 277 278 280 281 283 285 286 289 290 291 292 293
+ 294 295 297 298 299 301 305 308 310 311 312 313 315 317 321 323 327 329
+ 330 331 332 334 335 336 337 338 340 341 342 343 344 345 347 350 351 353
+ 357 360 362 363 364 365 366 368 369 370 373 375 376 378 384 385 386 387
+ 389 390 393 394 396 399 400 401 402 403 405 406 407 409 414 416 417 420
+ 421 422 423 424 425 426 427 428 431 432 433 434 436 438 440 442 446 447
+ 450 453 455 456 457 459 460 463 464 465 468 469 471 472 473 474 477 480
+ 481 484 485 489 491 492 493 494 495 499 501 502 504 509 511 512 516 517
+ 518 519 520 521 522 523 525 526 527 528 533 534 535 536 539 540 542 543
+ 544 547 549 551 552 553 554 557 558 561 562 564 566 568 570 572 573 575
+ 576 577 579 582 586 587 589 591 592 593 594 595 596 598 600 601 602 603
+ 605 606 609 610 611 614 616 618 619 620 621 623 625 627 628 630 631 632
+ 634 636 637 638 641 642 643 646 650 651 652 653 654 655 657 659 661 663
+ 666 668 669 671 672 675 677 678 679 681 682 684 685 686 687 688 693 694
+ 696 698 699 700 702 703 712 713 714 715 716 717 718 720 721 723 725 728
+ 729 731 735 736 737 739 741 743 745 746 748 749 750 751 752]</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.9824561403508771</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7248365879058838</v>
+        <v>7.670802593231201</v>
       </c>
     </row>
     <row r="6">
@@ -550,19 +733,65 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[0 1 0 1 1 0 1 0 1 0 0 1 0 0 0 0 0 1 1 1 0 1 1 0 0 1 0 1 0 1]</t>
+          <t>[0 0 1 1 1 1 1 0 1 0 1 1 1 1 1 0 1 1 1 0 1 1 1 1 1 1 0 1 1 0 0 0 1 1 1 0 0
+ 0 0 1 0 1 1 0 1 1 1 0 0 1 0 0 1 1 1 0 0 1 1 0 1 0 0 1 1 1 0 1 0 1 1 0 1 1
+ 0 0 0 1 1 1 0 0 1 1 1 1 0 1 1 1 1 0 1 1 0 1 1 1 1 1 1 0 1 1 0 1 0 1 0 1 1
+ 1 0 1 1 1 0 0 1 1 0 1 1 1 1 1 0 1 1 1 1 0 1 0 1 1 1 1 0 0 1 1 0 0 1 1 0 1
+ 1 0 0 0 0 0 1 1 1 0 0 1 0 0 1 0 0 1 0 1 1 0 0 0 0 1 1 1 1 0 0 1 0 1 1 1 1
+ 0 1 1 0 0 1 1 1 1 1 0 0 1 1 0 1 0 1 0 1 1 1 1 0 0 1 1 1 1 0 1 1 1 1 0 0 0
+ 1 0 0 0 0 1 1 0 1 1 1 1 1 1 1 0 0 1 1 1 1 1 1 0 0 1 0 1 0 0 0 1 1 1 1 0 1
+ 0 1 1 0 0 1 1 0 1 0 1 0 1 0 1 1 1 0 1 1 1 0 0 1 1 1 1 0 0 1 0 1 0 0 0 1 1
+ 0 0 1 1 1 0 1 1 0 1 0 0 1 1 1 1 1 0 0 1 0 1 0 1 1 1 1 1 1 1 0 1 0 1 0 0 1
+ 1 0 1 0 0 0 1 0 0 1 1 1 1 0 1 0 1 0 0 1 1 0 1 1 1 1 1 0 1 1 1 1 1 0 0 0 1
+ 1 1 0 1 0 0 1 0 1 1 0 1 1 0 1 1 1 1 0 0 1 1 1 1 1 0 1 1 1 1 1 0 0 1 0 1 1
+ 1 1 1 1 1 0 0 1 1 1 1 1 0 1 1 0 0 1 0 0 1 1 1 1 1 0 1 1 1 0 1 1 0 0 1 0 1
+ 1 0 1 1 1 1 0 0 1 1 1 0 0 0 1 0 1 1 1 1 1 0 1 0 0 1 0 1 1 1 1 1 1 1 0 1 1
+ 1 0 1 1 1 0 1 1 1 0 0 0 0 0 0 1 1 1 1 1 1 0 1 0 0 1 1 0 0 1 0 1 1 1 1 0 1
+ 1 1 1 0 1 1 1 1 0 1 1 0 1 0 0 0 1 1 0 0 1 1 1 1 1 1 1 1 0 1 0 1 1 1 0 1 0
+ 0 0 1 0 1 0 0 0 1 0 1 1 0 0 1 1 1 0 0 1 1 1 1 0 1 0 0 1 1 1 0 0 0 0 1 1 1
+ 1 0 1 1 1 0 1 0 1 1 1 1 1 0 0 1 1 1 0 0 0 0 0 1 1 1 0 1 1 0 1 1 1 1 1 1 1
+ 0 0 1 0 1 1 1 1 0 0 0 1 1 1 0 0 1 0 1 1 1 0 1 1 1 1 0 1 0 1 1 1 1 0 0 0 1
+ 1 1 1 1 1 0 0 0 0 1 1 0 1 0 0 1 1 1 0 0 0 1 0 0 1 1 1 1 1 0 1 1 0 1 1 0 1
+ 1 1 1 0 1 0 1 1 1 0 1 1 1 1 0 1 0 0 1 1 1 0 1 1 1 1 1 1 1 0 1 1 1 1 1 0 1
+ 0 1 0 1 0 0 1 1 1 1 1 1 0]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[ 1  3  4  6  8 11 17 18 19 21 22 25 27 29]</t>
+          <t>[  2   3   4   5   6   8  10  11  12  13  14  16  17  18  20  21  22  23
+  24  25  27  28  32  33  34  39  41  42  44  45  46  49  52  53  54  57
+  58  60  63  64  65  67  69  70  72  73  77  78  79  82  83  84  85  87
+  88  89  90  92  93  95  96  97  98  99 100 102 103 105 107 109 110 111
+ 113 114 115 118 119 121 122 123 124 125 127 128 129 130 132 134 135 136
+ 137 140 141 144 145 147 148 154 155 156 159 162 165 167 168 173 174 175
+ 176 179 181 182 183 184 186 187 190 191 192 193 194 197 198 200 202 204
+ 205 206 207 210 211 212 213 215 216 217 218 222 227 228 230 231 232 233
+ 234 235 236 239 240 241 242 243 244 247 249 253 254 255 256 258 260 261
+ 264 265 267 269 271 273 274 275 277 278 279 282 283 284 285 288 290 294
+ 295 298 299 300 302 303 305 308 309 310 311 312 315 317 319 320 321 322
+ 323 324 325 327 329 332 333 335 339 342 343 344 345 347 349 352 353 355
+ 356 357 358 359 361 362 363 364 365 369 370 371 373 376 378 379 381 382
+ 384 385 386 387 390 391 392 393 394 396 397 398 399 400 403 405 406 407
+ 408 409 410 411 414 415 416 417 418 420 421 424 427 428 429 430 431 433
+ 434 435 437 438 441 443 444 446 447 448 449 452 453 454 458 460 461 462
+ 463 464 466 469 471 472 473 474 475 476 477 479 480 481 483 484 485 487
+ 488 489 496 497 498 499 500 501 503 506 507 510 512 513 514 515 517 518
+ 519 520 522 523 524 525 527 528 530 534 535 538 539 540 541 542 543 544
+ 545 547 549 550 551 553 557 559 563 565 566 569 570 571 574 575 576 577
+ 579 582 583 584 589 590 591 592 594 595 596 598 600 601 602 603 604 607
+ 608 609 615 616 617 619 620 622 623 624 625 626 627 628 631 633 634 635
+ 636 640 641 642 645 647 648 649 651 652 653 654 656 658 659 660 661 665
+ 666 667 668 669 670 675 676 678 681 682 683 687 690 691 692 693 694 696
+ 697 699 700 702 703 704 705 707 709 710 711 713 714 715 716 718 721 722
+ 723 725 726 727 728 729 730 731 733 734 735 736 737 739 741 743 746 747
+ 748 749 750 751]</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.9824561403508771</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8500068187713623</v>
+        <v>9.8592848777771</v>
       </c>
     </row>
     <row r="7">
@@ -571,19 +800,66 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[1 0 0 0 1 1 0 1 1 1 0 0 0 1 1 1 1 0 1 1 0 1 1 0 1 1 1 0 0 1]</t>
+          <t>[1 0 1 1 1 0 1 1 1 0 0 1 0 1 1 0 1 0 1 1 1 1 0 1 1 1 1 1 1 0 1 0 1 1 1 1 0
+ 0 0 0 0 0 1 1 0 0 1 1 0 0 1 0 0 1 0 1 1 1 1 1 0 1 1 0 1 1 0 1 0 1 1 0 0 1
+ 1 1 0 1 1 1 1 0 1 1 0 0 1 0 1 0 1 0 1 1 1 1 1 0 1 0 1 1 0 1 0 1 1 0 1 0 0
+ 1 1 1 1 0 1 1 1 0 1 1 1 1 0 1 1 0 0 1 1 1 1 0 1 1 1 0 1 0 1 1 1 1 1 1 1 1
+ 0 1 1 1 1 0 1 1 0 1 1 1 0 1 0 1 0 1 1 1 1 1 1 1 0 0 1 0 1 1 0 0 1 0 1 1 1
+ 1 0 0 0 0 1 1 1 1 1 1 1 0 1 1 0 0 1 1 1 1 1 1 1 1 0 0 1 1 0 0 0 0 0 0 0 0
+ 1 1 1 1 1 1 0 1 1 0 1 1 1 1 0 1 0 1 1 1 1 1 0 0 0 1 1 0 1 1 1 0 1 0 1 1 0
+ 0 1 1 1 0 1 1 1 1 0 1 0 0 0 0 0 0 0 1 0 0 1 1 1 1 1 1 0 1 0 1 0 1 0 1 1 0
+ 1 1 1 0 0 1 0 0 1 1 1 0 1 1 1 1 1 1 1 1 1 0 1 0 1 1 1 1 1 1 0 0 0 0 1 1 1
+ 1 0 1 0 1 1 1 1 1 0 1 0 1 0 1 1 1 1 1 1 1 0 1 0 1 1 1 0 1 1 0 0 1 0 0 0 1
+ 1 1 1 1 1 1 0 1 1 1 1 0 1 1 0 1 0 1 1 0 1 1 1 0 1 1 0 0 1 1 1 0 1 1 1 1 0
+ 1 1 0 1 1 1 1 1 1 1 1 1 0 0 1 0 1 1 1 0 1 1 0 1 1 1 1 0 0 1 0 1 1 1 1 0 1
+ 0 1 1 0 1 1 1 1 0 1 1 1 0 1 0 1 1 0 1 1 0 0 1 0 0 1 0 1 1 1 1 1 0 1 1 0 0
+ 1 1 1 1 1 0 0 1 0 0 0 1 1 0 1 1 0 1 1 1 1 1 1 1 1 1 1 1 0 1 1 0 1 1 0 0 1
+ 1 1 0 1 1 0 1 1 1 1 0 0 1 1 1 1 1 1 0 1 1 0 1 1 0 0 0 0 1 1 1 0 1 1 1 0 1
+ 1 1 0 1 1 0 0 0 1 1 1 1 0 1 1 0 0 1 1 1 1 0 1 0 1 1 1 1 0 0 1 1 0 1 1 1 1
+ 0 1 1 0 1 1 1 0 1 0 1 1 1 0 1 1 1 1 1 1 0 1 1 1 1 1 1 1 1 0 0 1 1 0 1 0 1
+ 1 1 1 0 0 0 1 1 1 1 1 1 0 0 1 1 1 0 0 1 0 0 1 1 0 1 0 1 0 1 0 0 1 1 0 0 1
+ 0 1 1 1 1 0 0 1 0 1 1 0 0 0 1 0 0 0 1 0 0 1 1 1 0 1 0 0 1 1 1 0 1 1 1 1 0
+ 0 1 1 1 1 0 0 1 0 0 0 1 0 1 1 1 0 1 1 0 0 0 0 1 0 1 0 1 1 1 1 1 1 1 1 1 1
+ 1 1 1 1 1 0 1 1 1 0 0 0 1]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[ 0  4  5  7  8  9 13 14 15 16 18 19 21 22 24 25 26 29]</t>
+          <t>[  0   2   3   4   6   7   8  11  13  14  16  18  19  20  21  23  24  25
+  26  27  28  30  32  33  34  35  42  43  46  47  50  53  55  56  57  58
+  59  61  62  64  65  67  69  70  73  74  75  77  78  79  80  82  83  86
+  88  90  92  93  94  95  96  98 100 101 103 105 106 108 111 112 113 114
+ 116 117 118 120 121 122 123 125 126 129 130 131 132 134 135 136 138 140
+ 141 142 143 144 145 146 147 149 150 151 152 154 155 157 158 159 161 163
+ 165 166 167 168 169 170 171 174 176 177 180 182 183 184 185 190 191 192
+ 193 194 195 196 198 199 202 203 204 205 206 207 208 209 212 213 222 223
+ 224 225 226 227 229 230 232 233 234 235 237 239 240 241 242 243 247 248
+ 250 251 252 254 256 257 260 261 262 264 265 266 267 269 277 280 281 282
+ 283 284 285 287 289 291 293 294 296 297 298 301 304 305 306 308 309 310
+ 311 312 313 314 315 316 318 320 321 322 323 324 325 330 331 332 333 335
+ 337 338 339 340 341 343 345 347 348 349 350 351 352 353 355 357 358 359
+ 361 362 365 369 370 371 372 373 374 375 377 378 379 380 382 383 385 387
+ 388 390 391 392 394 395 398 399 400 402 403 404 405 407 408 410 411 412
+ 413 414 415 416 417 418 421 423 424 425 427 428 430 431 432 433 436 438
+ 439 440 441 443 445 446 448 449 450 451 453 454 455 457 459 460 462 463
+ 466 469 471 472 473 474 475 477 478 481 482 483 484 485 488 492 493 495
+ 496 498 499 500 501 502 503 504 505 506 507 508 510 511 513 514 517 518
+ 519 521 522 524 525 526 527 530 531 532 533 534 535 537 538 540 541 546
+ 547 548 550 551 552 554 555 556 558 559 563 564 565 566 568 569 572 573
+ 574 575 577 579 580 581 582 585 586 588 589 590 591 593 594 596 597 598
+ 600 602 603 604 606 607 608 609 610 611 613 614 615 616 617 618 619 620
+ 623 624 626 628 629 630 631 635 636 637 638 639 640 643 644 645 648 651
+ 652 654 656 658 661 662 665 667 668 669 670 673 675 676 680 684 687 688
+ 689 691 694 695 696 698 699 700 701 704 705 706 707 710 714 716 717 718
+ 720 721 726 728 730 731 732 733 734 735 736 737 738 739 740 741 742 743
+ 744 746 747 748 752]</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.9824561403508771</v>
+        <v>0.9605263157894737</v>
       </c>
       <c r="E7" t="n">
-        <v>0.991297721862793</v>
+        <v>11.9381103515625</v>
       </c>
     </row>
     <row r="8">
@@ -592,19 +868,63 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>[0 1 0 1 1 0 1 1 1 0 1 0 1 1 1 1 0 1 0 1 0 1 0 1 1 0 1 0 1 0]</t>
+          <t>[1 0 1 0 0 1 1 1 1 0 1 0 1 0 1 0 1 1 0 1 1 1 0 0 0 1 1 1 1 0 0 1 0 1 1 0 0
+ 0 1 1 1 0 0 1 1 0 1 0 1 0 1 0 1 1 1 1 1 1 1 0 1 1 0 0 0 1 1 0 1 0 1 1 1 1
+ 1 0 0 1 0 1 0 1 0 1 1 0 0 1 1 0 0 0 0 1 0 0 0 0 0 1 1 1 0 1 1 1 0 1 1 0 0
+ 1 1 1 1 0 0 0 0 0 1 1 1 1 1 0 1 1 1 1 1 0 0 0 1 0 1 1 1 1 1 1 1 0 1 0 1 1
+ 1 1 0 1 1 0 1 0 0 0 1 1 0 1 1 1 0 1 1 0 0 1 0 1 0 0 0 1 0 0 1 1 1 1 1 0 0
+ 0 1 0 0 1 1 1 0 0 1 1 1 0 0 1 0 1 0 1 0 0 1 0 1 0 0 1 1 0 0 1 1 0 0 1 0 0
+ 1 0 1 1 0 0 0 1 1 1 0 1 1 0 1 1 1 1 0 1 1 1 0 0 1 1 1 1 0 1 1 1 1 1 0 1 0
+ 0 1 1 1 1 1 0 1 0 0 0 1 1 0 1 1 0 1 1 0 1 1 0 0 1 1 1 1 1 0 1 1 0 1 0 0 0
+ 0 1 1 0 1 0 0 0 0 0 1 0 1 1 0 1 1 1 1 1 1 0 0 1 0 1 0 1 1 1 0 1 0 1 0 0 0
+ 1 0 0 1 1 0 1 1 0 1 1 0 1 1 0 0 0 0 1 1 1 1 1 1 1 1 1 1 1 1 1 1 0 1 0 1 1
+ 1 1 1 0 1 1 0 1 0 1 1 0 0 0 1 1 0 1 1 0 1 0 1 0 1 0 0 1 1 1 1 0 1 0 1 1 0
+ 0 1 0 1 1 1 0 0 0 1 1 1 0 1 1 0 1 1 1 1 1 1 0 1 0 1 0 1 1 1 1 1 1 1 1 0 1
+ 1 1 1 1 0 0 0 1 0 0 1 1 0 1 0 0 1 0 0 0 0 1 0 1 1 1 0 0 1 1 1 1 1 1 0 1 1
+ 1 1 1 1 1 1 1 0 1 1 1 1 1 1 0 1 0 1 1 1 0 1 1 1 0 1 0 0 0 1 0 1 1 1 0 0 0
+ 1 0 1 0 1 1 1 0 0 1 1 1 1 0 1 1 1 0 1 0 0 1 1 1 0 1 0 0 0 0 1 1 0 0 0 1 1
+ 0 1 0 0 1 0 1 0 1 1 1 1 1 1 1 1 0 1 0 0 0 0 1 1 1 0 1 0 1 0 1 1 0 0 0 0 0
+ 1 1 1 1 0 0 0 1 1 1 1 1 0 0 0 0 0 1 0 0 0 1 0 1 0 0 0 0 0 1 1 0 1 1 1 1 1
+ 1 0 0 1 1 0 0 1 1 0 1 1 0 1 0 1 0 1 1 1 1 0 1 1 1 0 1 1 0 0 1 1 1 1 0 1 1
+ 1 1 1 1 1 1 1 1 1 0 1 1 0 0 1 1 1 0 1 1 1 0 1 0 0 1 1 0 1 0 1 1 1 0 1 1 0
+ 1 0 1 0 1 1 0 1 1 0 1 1 1 1 1 1 1 0 1 1 1 1 1 1 1 0 1 0 0 1 0 1 1 0 1 0 1
+ 0 0 1 0 0 1 0 0 1 1 0 1 0]</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[ 1  3  4  6  7  8 10 12 13 14 15 17 19 21 23 24 26 28]</t>
+          <t>[  0   2   5   6   7   8  10  12  14  16  17  19  20  21  25  26  27  28
+  31  33  34  38  39  40  43  44  46  48  50  52  53  54  55  56  57  58
+  60  61  65  66  68  70  71  72  73  74  77  79  81  83  84  87  88  93
+  99 100 101 103 104 105 107 108 111 112 113 114 120 121 122 123 124 126
+ 127 128 129 130 134 136 137 138 139 140 141 142 144 146 147 148 149 151
+ 152 154 158 159 161 162 163 165 166 169 171 175 178 179 180 181 182 186
+ 189 190 191 194 195 196 199 201 203 206 208 211 212 215 216 219 222 224
+ 225 229 230 231 233 234 236 237 238 239 241 242 243 246 247 248 249 251
+ 252 253 254 255 257 260 261 262 263 264 266 270 271 273 274 276 277 279
+ 280 283 284 285 286 287 289 290 292 297 298 300 306 308 309 311 312 313
+ 314 315 316 319 321 323 324 325 327 329 333 336 337 339 340 342 343 345
+ 346 351 352 353 354 355 356 357 358 359 360 361 362 363 364 366 368 369
+ 370 371 372 374 375 377 379 380 384 385 387 388 390 392 394 397 398 399
+ 400 402 404 405 408 410 411 412 416 417 418 420 421 423 424 425 426 427
+ 428 430 432 434 435 436 437 438 439 440 441 443 444 445 446 447 451 454
+ 455 457 460 465 467 468 469 472 473 474 475 476 477 479 480 481 482 483
+ 484 485 486 487 489 490 491 492 493 494 496 498 499 500 502 503 504 506
+ 510 512 513 514 518 520 522 523 524 527 528 529 530 532 533 534 536 539
+ 540 541 543 548 549 553 554 556 559 561 563 564 565 566 567 568 569 570
+ 572 577 578 579 581 583 585 586 592 593 594 595 599 600 601 602 603 609
+ 613 615 621 622 624 625 626 627 628 629 632 633 636 637 639 640 642 644
+ 646 647 648 649 651 652 653 655 656 659 660 661 662 664 665 666 667 668
+ 669 670 671 672 673 674 676 677 680 681 682 684 685 686 688 691 692 694
+ 696 697 698 700 701 703 705 707 708 710 711 713 714 715 716 717 718 719
+ 721 722 723 724 725 726 727 729 732 734 735 737 739 742 745 748 749 751]</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.9824561403508771</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="E8" t="n">
-        <v>1.245683193206787</v>
+        <v>14.11221528053284</v>
       </c>
     </row>
     <row r="9">
@@ -613,19 +933,63 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>[0 1 1 0 1 0 0 1 1 0 0 1 1 1 0 1 0 0 1 1 1 1 1 1 0 0 1 0 0 0]</t>
+          <t>[0 1 0 0 1 0 1 1 1 0 0 1 0 0 0 0 1 0 1 1 0 0 1 0 1 1 0 0 0 0 0 0 0 1 0 0 1
+ 1 1 1 0 0 0 1 1 1 1 1 1 0 1 0 0 0 1 0 1 1 1 0 0 1 1 1 1 0 0 1 0 1 1 0 0 1
+ 1 1 0 0 0 1 1 0 0 1 1 0 1 1 1 1 0 1 1 1 1 1 1 0 1 1 1 0 1 1 1 1 1 1 1 0 1
+ 0 0 0 0 0 1 1 1 0 1 0 1 0 1 1 0 0 1 0 1 0 0 0 0 0 1 1 0 0 1 0 1 1 0 0 1 1
+ 0 1 1 1 0 1 0 0 0 1 1 1 0 1 0 1 0 1 0 1 1 1 1 0 0 0 1 0 0 1 1 0 0 0 1 1 1
+ 1 1 1 0 1 1 1 1 1 1 0 1 1 1 1 1 1 0 0 1 0 0 0 1 1 0 1 1 0 0 0 1 0 1 0 0 0
+ 1 0 0 0 1 0 0 1 1 1 1 1 0 1 0 0 1 1 0 1 0 1 1 0 1 1 0 1 1 0 1 1 0 0 1 1 0
+ 0 1 1 0 0 1 1 1 0 0 1 0 1 0 1 1 1 0 1 1 0 1 1 0 0 1 0 1 1 0 0 1 1 0 0 1 1
+ 1 0 0 1 0 1 1 0 1 0 0 1 1 1 0 0 0 0 1 0 1 1 1 0 1 1 0 1 1 1 1 0 1 1 1 1 0
+ 0 1 0 0 1 0 1 1 1 0 1 1 0 0 1 0 1 0 1 1 0 0 1 1 1 1 0 1 1 0 1 1 1 1 1 1 0
+ 0 1 0 0 1 0 0 1 0 0 0 1 0 1 1 1 1 0 0 1 1 0 0 0 1 1 1 1 1 1 1 1 0 1 0 1 1
+ 1 0 1 0 1 0 1 1 0 0 1 0 1 1 0 0 1 0 0 1 1 0 1 0 0 1 0 1 0 0 0 1 1 0 0 1 1
+ 1 1 0 1 0 0 0 1 1 0 0 1 0 1 1 1 1 1 1 1 0 1 1 1 0 1 1 1 1 1 1 1 1 1 0 1 1
+ 1 1 1 0 0 1 1 1 1 1 1 0 1 1 1 1 1 0 0 0 1 1 0 1 1 1 1 1 1 1 1 1 0 1 1 1 0
+ 1 0 0 1 1 1 0 0 0 1 0 1 0 0 0 0 0 1 0 1 1 1 0 1 0 1 0 1 0 0 1 1 0 1 0 0 0
+ 1 0 0 1 1 1 1 1 0 0 1 1 1 1 0 0 0 0 1 1 1 1 1 0 0 1 0 0 0 0 1 1 0 1 1 1 1
+ 0 1 1 0 1 1 0 0 1 0 0 1 1 1 1 1 0 1 0 1 1 0 1 0 0 0 0 0 1 0 1 0 1 1 1 1 1
+ 0 1 0 1 1 1 1 0 1 1 1 1 1 0 1 0 0 1 0 1 0 0 1 1 0 1 1 1 1 0 0 1 0 1 1 0 1
+ 1 1 0 1 0 1 0 0 0 0 0 1 0 1 1 1 1 1 1 0 0 1 0 1 1 0 0 0 0 0 1 1 1 0 0 1 1
+ 0 1 0 0 0 1 0 1 0 1 1 1 1 1 1 0 1 1 1 0 0 0 1 1 1 0 1 1 0 0 1 0 1 1 1 1 1
+ 1 1 0 1 1 1 0 1 0 1 1 1 1]</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[ 1  2  4  7  8 11 12 13 15 18 19 20 21 22 23 26]</t>
+          <t>[  1   4   6   7   8  11  16  18  19  22  24  25  33  36  37  38  39  43
+  44  45  46  47  48  50  54  56  57  58  61  62  63  64  67  69  70  73
+  74  75  79  80  83  84  86  87  88  89  91  92  93  94  95  96  98  99
+ 100 102 103 104 105 106 107 108 110 116 117 118 120 122 124 125 128 130
+ 136 137 140 142 143 146 147 149 150 151 153 157 158 159 161 163 165 167
+ 168 169 170 174 177 178 182 183 184 185 186 187 189 190 191 192 193 194
+ 196 197 198 199 200 201 204 208 209 211 212 216 218 222 226 229 230 231
+ 232 233 235 238 239 241 243 244 246 247 249 250 252 253 256 257 260 261
+ 264 265 266 269 271 273 274 275 277 278 280 281 284 286 287 290 291 294
+ 295 296 299 301 302 304 307 308 309 314 316 317 318 320 321 323 324 325
+ 326 328 329 330 331 334 337 339 340 341 343 344 347 349 351 352 355 356
+ 357 358 360 361 363 364 365 366 367 368 371 374 377 381 383 384 385 386
+ 389 390 394 395 396 397 398 399 400 401 403 405 406 407 409 411 413 414
+ 417 419 420 423 426 427 429 432 434 438 439 442 443 444 445 447 451 452
+ 455 457 458 459 460 461 462 463 465 466 467 469 470 471 472 473 474 475
+ 476 477 479 480 481 482 483 486 487 488 489 490 491 493 494 495 496 497
+ 501 502 504 505 506 507 508 509 510 511 512 514 515 516 518 521 522 523
+ 527 529 535 537 538 539 541 543 545 548 549 551 555 558 559 560 561 562
+ 565 566 567 568 573 574 575 576 577 580 585 586 588 589 590 591 593 594
+ 596 597 600 603 604 605 606 607 609 611 612 614 620 622 624 625 626 627
+ 628 630 632 633 634 635 637 638 639 640 641 643 646 648 651 652 654 655
+ 656 657 660 662 663 665 666 667 669 671 677 679 680 681 682 683 684 687
+ 689 690 696 697 698 701 702 704 708 710 712 713 714 715 716 717 719 720
+ 721 725 726 727 729 730 733 735 736 737 738 739 740 741 743 744 745 747
+ 749 750 751 752]</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.9824561403508771</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="E9" t="n">
-        <v>1.457375049591064</v>
+        <v>16.98240256309509</v>
       </c>
     </row>
     <row r="10">
@@ -634,19 +998,64 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>[1 1 1 0 1 0 0 1 1 0 0 1 1 1 1 1 1 0 1 1 1 1 0 0 0 0 1 1 0 1]</t>
+          <t>[1 0 0 1 1 1 1 1 1 1 1 1 0 0 1 1 1 1 1 1 0 0 1 0 1 1 1 0 0 1 1 0 1 1 1 1 1
+ 1 1 0 1 0 1 1 1 1 0 1 0 1 1 0 0 1 0 1 0 1 0 1 1 1 1 0 1 1 1 1 0 1 0 0 1 1
+ 1 1 0 1 1 0 0 0 1 1 1 0 1 1 1 0 0 0 1 1 1 0 1 0 1 0 1 1 0 0 0 1 0 0 1 1 1
+ 1 1 0 1 0 0 1 1 0 1 0 1 0 0 1 0 0 1 1 0 0 1 1 1 1 1 1 1 1 1 1 1 1 1 0 1 1
+ 1 0 0 0 1 1 0 1 0 1 0 1 0 1 1 1 1 1 0 1 1 1 1 0 1 0 1 1 0 1 1 0 1 0 0 1 1
+ 1 1 0 1 1 1 0 1 1 1 1 0 0 0 1 0 0 1 0 1 0 1 1 1 1 1 1 0 0 0 1 0 0 0 1 1 1
+ 0 0 1 1 1 0 1 1 1 0 1 1 0 1 1 1 1 1 1 1 1 0 0 1 1 1 1 1 0 1 0 1 1 1 0 0 1
+ 1 0 1 1 1 0 1 0 1 1 1 0 1 1 0 0 0 1 1 1 1 1 1 1 1 1 0 1 0 1 0 0 1 1 0 1 1
+ 1 1 1 0 1 1 1 0 1 1 1 1 0 1 1 1 1 1 0 0 1 0 1 1 0 1 0 1 0 1 1 1 0 0 1 1 1
+ 0 1 0 0 1 0 1 1 0 0 0 1 0 1 1 1 1 1 0 0 1 1 0 1 1 0 1 0 1 0 0 1 0 1 1 0 0
+ 0 1 1 0 0 1 1 1 1 1 1 1 0 0 1 1 1 0 0 0 1 0 0 0 1 1 0 1 0 1 1 1 1 1 1 0 0
+ 1 1 1 1 0 1 0 1 0 0 0 1 1 0 0 0 0 1 1 0 0 0 1 1 1 1 1 0 1 0 0 1 1 1 1 1 0
+ 0 0 0 0 1 1 0 0 0 0 1 1 0 0 1 1 0 0 1 0 0 1 1 1 1 1 1 1 1 0 1 1 0 0 1 0 1
+ 0 0 0 0 0 1 1 1 1 0 0 1 1 0 1 0 0 1 0 0 0 1 0 0 1 1 0 1 1 1 0 1 0 1 1 0 1
+ 1 0 1 1 0 0 1 1 1 1 1 1 0 0 0 1 1 0 0 1 1 1 0 1 0 0 1 1 1 1 0 1 1 1 0 1 1
+ 1 1 1 1 0 1 0 0 0 1 1 0 1 1 0 1 1 1 0 1 0 0 0 1 1 0 0 1 0 0 1 0 1 1 0 1 0
+ 1 0 1 1 1 1 1 0 1 1 1 1 1 1 1 0 1 1 1 0 0 1 1 1 1 0 1 1 1 1 0 1 1 1 0 0 1
+ 1 1 1 1 1 0 1 0 0 0 1 1 1 1 1 0 0 0 1 0 1 1 1 1 0 0 1 1 1 0 0 1 1 0 0 0 1
+ 1 0 0 0 0 1 0 1 0 1 1 1 1 1 1 1 0 1 1 0 1 1 0 1 1 1 0 1 1 1 0 1 1 1 0 0 1
+ 0 1 1 1 0 0 0 1 1 0 1 0 1 1 0 0 0 1 1 0 0 1 1 0 0 1 1 0 1 0 1 0 0 1 1 1 1
+ 1 1 1 1 1 0 0 0 0 1 1 1 1]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[ 0  1  2  4  7  8 11 12 13 14 15 16 18 19 20 21 26 27 29]</t>
+          <t>[  0   3   4   5   6   7   8   9  10  11  14  15  16  17  18  19  22  24
+  25  26  29  30  32  33  34  35  36  37  38  40  42  43  44  45  47  49
+  50  53  55  57  59  60  61  62  64  65  66  67  69  72  73  74  75  77
+  78  82  83  84  86  87  88  92  93  94  96  98 100 101 105 108 109 110
+ 111 112 114 117 118 120 122 125 128 129 132 133 134 135 136 137 138 139
+ 140 141 142 143 144 146 147 148 152 153 155 157 159 161 162 163 164 165
+ 167 168 169 170 172 174 175 177 178 180 183 184 185 186 188 189 190 192
+ 193 194 195 199 202 204 206 207 208 209 210 211 215 219 220 221 224 225
+ 226 228 229 230 232 233 235 236 237 238 239 240 241 242 245 246 247 248
+ 249 251 253 254 255 258 259 261 262 263 265 267 268 269 271 272 276 277
+ 278 279 280 281 282 283 284 286 288 291 292 294 295 296 297 298 300 301
+ 302 304 305 306 307 309 310 311 312 313 316 318 319 321 323 325 326 327
+ 330 331 332 334 337 339 340 344 346 347 348 349 350 353 354 356 357 359
+ 361 364 366 367 371 372 375 376 377 378 379 380 381 384 385 386 390 394
+ 395 397 399 400 401 402 403 404 407 408 409 410 412 414 418 419 424 425
+ 429 430 431 432 433 435 438 439 440 441 442 448 449 454 455 458 459 462
+ 465 466 467 468 469 470 471 472 474 475 478 480 486 487 488 489 492 493
+ 495 498 502 505 506 508 509 510 512 514 515 517 518 520 521 524 525 526
+ 527 528 529 533 534 537 538 539 541 544 545 546 547 549 550 551 553 554
+ 555 556 557 558 560 564 565 567 568 570 571 572 574 578 579 582 585 587
+ 588 590 592 594 595 596 597 598 600 601 602 603 604 605 606 608 609 610
+ 613 614 615 616 618 619 620 621 623 624 625 628 629 630 631 632 633 635
+ 639 640 641 642 643 647 649 650 651 652 655 656 657 660 661 665 666 671
+ 673 675 676 677 678 679 680 681 683 684 686 687 689 690 691 693 694 695
+ 697 698 699 702 704 705 706 710 711 713 715 716 720 721 724 725 728 729
+ 731 733 736 737 738 739 740 741 742 743 744 749 750 751 752]</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.9824561403508771</v>
+        <v>0.9605263157894737</v>
       </c>
       <c r="E10" t="n">
-        <v>2.277767658233643</v>
+        <v>19.18589949607849</v>
       </c>
     </row>
     <row r="11">
@@ -655,19 +1064,66 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>[0 0 1 0 0 1 0 1 0 1 0 1 0 1 0 1 1 0 0 1 0 1 0 0 0 0 0 0 0 0]</t>
+          <t>[1 1 1 1 0 1 0 0 0 0 1 1 0 1 0 0 1 0 0 0 1 0 1 1 0 1 1 0 1 0 1 1 1 1 0 1 1
+ 0 1 1 1 1 1 1 0 0 1 0 1 0 0 1 0 1 1 1 0 1 1 1 0 1 1 0 1 1 1 1 1 0 1 1 1 1
+ 1 0 1 1 1 0 0 0 1 0 0 1 0 1 1 1 1 0 0 1 1 1 0 1 1 1 0 0 1 1 0 0 1 1 1 0 1
+ 1 0 0 0 1 1 1 1 1 1 1 0 1 1 1 1 0 0 1 1 0 0 1 0 0 1 1 1 1 0 0 0 1 1 0 0 0
+ 0 1 1 1 1 1 1 1 1 1 1 0 1 1 1 0 1 1 1 1 1 1 0 1 0 1 1 1 1 0 1 1 1 0 1 0 0
+ 0 0 0 1 0 1 0 1 0 0 1 0 1 1 1 0 1 1 1 1 0 1 1 1 1 1 0 0 0 1 0 0 1 1 0 1 0
+ 1 1 1 0 0 1 1 0 1 1 1 1 0 1 0 0 1 1 1 0 1 0 0 1 0 1 1 1 1 1 1 1 1 0 1 1 1
+ 1 1 1 0 0 1 1 0 1 0 0 0 0 1 1 0 0 1 0 0 0 0 1 1 1 0 0 1 1 0 1 1 1 1 1 1 1
+ 1 1 0 1 0 0 0 1 1 1 0 1 1 1 0 1 1 0 0 1 1 1 0 1 1 1 0 1 1 0 0 1 0 1 1 0 0
+ 1 1 1 1 1 0 1 0 0 1 1 1 1 1 0 0 0 1 0 0 1 0 0 1 0 1 1 1 0 1 1 1 0 1 1 0 1
+ 1 0 1 0 1 1 1 1 0 1 1 1 1 0 0 0 1 0 0 1 0 1 0 1 1 0 1 1 1 1 0 1 1 0 0 1 1
+ 0 0 1 1 1 1 0 1 0 0 1 1 1 1 1 1 1 0 0 1 1 0 0 1 0 0 1 0 1 1 1 1 1 0 1 1 1
+ 1 0 1 0 1 0 0 0 0 1 1 1 0 1 1 1 0 1 0 1 0 0 1 1 0 1 0 1 1 1 1 1 0 1 1 1 1
+ 0 1 0 1 1 1 0 1 1 1 1 1 1 1 1 0 1 0 1 1 1 1 1 0 0 1 1 0 0 1 0 0 1 1 0 0 1
+ 1 0 1 1 1 0 0 0 1 1 0 0 1 0 1 1 0 1 1 1 1 1 1 1 0 0 1 1 1 1 1 1 1 0 1 0 1
+ 1 1 0 1 1 1 1 1 1 1 1 1 0 1 1 1 1 1 0 1 1 1 1 1 1 1 1 0 1 1 1 1 0 1 1 1 1
+ 1 0 1 1 1 1 0 1 1 1 0 1 1 0 1 0 1 1 1 1 1 0 1 0 1 0 1 0 1 1 0 1 1 0 1 1 1
+ 1 0 1 1 0 1 1 0 0 1 1 0 1 0 1 1 1 1 1 1 1 0 1 1 1 0 1 1 1 0 0 1 1 1 0 1 1
+ 0 1 0 0 1 1 1 0 1 1 1 1 1 0 0 1 1 0 0 1 1 1 0 0 1 1 0 1 0 1 1 1 1 0 0 0 1
+ 1 0 1 1 1 1 0 1 1 1 1 1 0 1 1 0 1 1 1 1 0 1 1 0 1 1 1 1 1 1 1 1 1 1 1 1 0
+ 1 1 1 0 0 1 1 1 1 1 0 1 0]</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[ 2  5  7  9 11 13 15 16 19 21]</t>
+          <t>[  0   1   2   3   5  10  11  13  16  20  22  23  25  26  28  30  31  32
+  33  35  36  38  39  40  41  42  43  46  48  51  53  54  55  57  58  59
+  61  62  64  65  66  67  68  70  71  72  73  74  76  77  78  82  85  87
+  88  89  90  93  94  95  97  98  99 102 103 106 107 108 110 111 115 116
+ 117 118 119 120 121 123 124 125 126 129 130 133 136 137 138 139 143 144
+ 149 150 151 152 153 154 155 156 157 158 160 161 162 164 165 166 167 168
+ 169 171 173 174 175 176 178 179 180 182 188 190 192 195 197 198 199 201
+ 202 203 204 206 207 208 209 210 214 217 218 220 222 223 224 227 228 230
+ 231 232 233 235 238 239 240 242 245 247 248 249 250 251 252 253 254 256
+ 257 258 259 260 261 264 265 267 272 273 276 281 282 283 286 287 289 290
+ 291 292 293 294 295 296 297 299 303 304 305 307 308 309 311 312 315 316
+ 317 319 320 321 323 324 327 329 330 333 334 335 336 337 339 342 343 344
+ 345 346 350 353 356 358 359 360 362 363 364 366 367 369 370 372 374 375
+ 376 377 379 380 381 382 386 389 391 393 394 396 397 398 399 401 402 405
+ 406 409 410 411 412 414 417 418 419 420 421 422 423 426 427 430 433 435
+ 436 437 438 439 441 442 443 444 446 448 453 454 455 457 458 459 461 463
+ 466 467 469 471 472 473 474 475 477 478 479 480 482 484 485 486 488 489
+ 490 491 492 493 494 495 497 499 500 501 502 503 506 507 510 513 514 517
+ 518 520 521 522 526 527 530 532 533 535 536 537 538 539 540 541 544 545
+ 546 547 548 549 550 552 554 555 556 558 559 560 561 562 563 564 565 566
+ 568 569 570 571 572 574 575 576 577 578 579 580 581 583 584 585 586 588
+ 589 590 591 592 594 595 596 597 599 600 601 603 604 606 608 609 610 611
+ 612 614 616 618 620 621 623 624 626 627 628 629 631 632 634 635 638 639
+ 641 643 644 645 646 647 648 649 651 652 653 655 656 657 660 661 662 664
+ 665 667 670 671 672 674 675 676 677 678 681 682 685 686 687 690 691 693
+ 695 696 697 698 702 703 705 706 707 708 710 711 712 713 714 716 717 719
+ 720 721 722 724 725 727 728 729 730 731 732 733 734 735 736 737 738 740
+ 741 742 745 746 747 748 749 751]</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.9824561403508771</v>
+        <v>0.9605263157894737</v>
       </c>
       <c r="E11" t="n">
-        <v>1.787230730056763</v>
+        <v>20.84542441368103</v>
       </c>
     </row>
     <row r="12">
@@ -676,19 +1132,59 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>[0 1 0 0 1 1 0 1 1 1 1 0 1 1 1 1 0 1 1 1 1 1 1 1 0 1 0 1 1 1]</t>
+          <t>[1 0 1 0 0 0 0 1 0 1 0 0 1 1 0 0 0 0 1 1 0 1 1 0 1 1 0 0 1 0 1 0 0 0 0 1 1
+ 1 0 1 0 0 1 1 0 0 1 1 0 1 0 1 1 1 0 1 1 0 0 0 1 1 1 1 1 0 0 0 1 0 0 0 0 1
+ 0 0 0 1 0 1 0 0 1 0 0 1 1 1 1 1 0 0 1 1 1 0 0 0 0 1 0 0 1 1 1 1 0 1 0 1 1
+ 0 1 0 1 1 0 0 0 0 1 1 1 1 1 0 0 0 0 1 0 0 0 0 0 0 1 0 1 0 0 0 1 1 0 1 0 0
+ 1 0 0 1 0 0 1 1 0 1 1 0 1 0 1 0 0 1 0 0 0 1 0 1 0 1 0 1 0 0 0 1 0 0 0 1 1
+ 0 0 0 0 1 1 1 1 0 0 1 0 0 1 1 1 0 0 0 0 0 1 1 0 1 1 1 1 0 0 1 0 0 0 0 0 0
+ 1 1 1 0 0 0 0 0 1 1 0 0 0 0 0 0 0 1 0 1 0 1 0 1 1 0 1 0 0 1 0 1 1 1 0 1 0
+ 0 1 0 0 1 0 1 1 1 1 0 0 1 0 1 0 1 0 1 1 0 1 1 1 0 0 0 1 1 0 1 1 1 1 0 0 0
+ 1 0 0 0 1 1 1 0 0 0 0 1 1 0 1 0 1 1 1 1 0 1 0 1 0 0 0 1 0 0 1 0 1 1 1 0 0
+ 1 1 1 1 0 0 0 0 1 1 1 0 1 0 0 1 0 1 0 0 1 0 0 0 1 1 1 1 1 1 1 0 0 1 1 0 0
+ 0 1 1 1 1 0 1 1 1 0 0 0 0 0 1 1 0 0 0 0 1 0 0 0 1 1 1 1 1 0 0 0 1 0 1 0 0
+ 1 1 1 0 1 0 0 1 0 0 0 0 1 1 0 1 0 1 1 0 1 0 0 1 1 0 1 0 0 0 0 1 0 0 0 1 0
+ 0 1 0 1 0 0 0 0 1 1 1 0 0 1 0 1 1 1 0 1 1 0 0 1 1 1 0 0 1 1 0 0 0 1 1 0 0
+ 1 0 0 0 1 1 1 0 1 0 0 1 1 0 0 1 0 1 1 0 1 0 1 1 1 1 1 0 0 1 0 0 0 1 1 0 1
+ 0 1 1 0 0 0 0 1 0 1 1 1 0 1 0 1 0 0 0 1 0 0 0 0 1 1 0 0 1 1 0 0 1 0 1 0 0
+ 1 1 0 1 1 1 1 0 1 0 0 1 0 1 0 0 1 0 0 0 0 1 1 1 0 0 1 1 1 1 0 0 1 0 1 1 1
+ 1 1 1 0 1 0 1 1 0 0 1 0 1 0 1 0 1 1 0 0 0 0 1 0 1 1 0 1 0 0 1 1 1 1 0 1 1
+ 1 0 1 1 1 0 0 1 0 0 1 1 1 0 0 1 0 0 0 1 1 0 1 0 1 0 1 0 1 1 1 1 1 1 0 1 0
+ 0 1 1 1 1 0 1 0 0 0 0 1 0 0 0 1 0 0 0 0 1 0 1 0 0 0 1 1 1 0 1 0 1 1 1 1 1
+ 1 0 0 0 1 0 1 0 0 1 0 0 0 0 0 0 1 1 0 1 0 0 1 0 0 0 1 1 0 0 1 1 0 1 0 1 1
+ 1 1 0 1 0 1 1 0 1 1 1 0 1]</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[ 1  4  5  7  8  9 10 12 13 14 15 17 18 19 20 21 22 23 25 27 28 29]</t>
+          <t>[  0   2   7   9  12  13  18  19  21  22  24  25  28  30  35  36  37  39
+  42  43  46  47  49  51  52  53  55  56  60  61  62  63  64  68  73  77
+  79  82  85  86  87  88  89  92  93  94  99 102 103 104 105 107 109 110
+ 112 114 115 120 121 122 123 124 129 136 138 142 143 145 148 151 154 155
+ 157 158 160 162 165 169 171 173 175 179 183 184 189 190 191 192 195 198
+ 199 200 206 207 209 210 211 212 215 222 223 224 230 231 239 241 243 245
+ 246 248 251 253 254 255 257 260 263 265 266 267 268 271 273 275 277 278
+ 280 281 282 286 287 289 290 291 292 296 300 301 302 307 308 310 312 313
+ 314 315 317 319 323 326 328 329 330 333 334 335 336 341 342 343 345 348
+ 350 353 357 358 359 360 361 362 363 366 367 371 372 373 374 376 377 378
+ 384 385 390 394 395 396 397 398 402 404 407 408 409 411 414 419 420 422
+ 424 425 427 430 431 433 438 442 445 447 452 453 454 457 459 460 461 463
+ 464 467 468 469 472 473 477 478 481 485 486 487 489 492 493 496 498 499
+ 501 503 504 505 506 507 510 514 515 517 519 520 525 527 528 529 531 533
+ 537 542 543 546 547 550 552 555 556 558 559 560 561 563 566 568 571 576
+ 577 578 581 582 583 584 587 589 590 591 592 593 594 596 598 599 602 604
+ 606 608 609 614 616 617 619 622 623 624 625 627 628 629 631 632 633 636
+ 639 640 641 644 648 649 651 653 655 657 658 659 660 661 662 664 667 668
+ 669 670 672 677 681 686 688 692 693 694 696 698 699 700 701 702 703 707
+ 709 712 719 720 722 725 729 730 733 734 736 738 739 740 741 743 745 746
+ 748 749 750 752]</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.9824561403508771</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="E12" t="n">
-        <v>1.575090885162354</v>
+        <v>24.82994294166565</v>
       </c>
     </row>
     <row r="13">
@@ -697,19 +1193,63 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>[0 1 1 0 0 0 0 0 1 0 0 1 0 0 1 1 1 0 0 0 1 0 0 0 0 0 0 0 0 1]</t>
+          <t>[0 0 1 1 1 1 1 1 1 1 1 1 0 1 1 0 1 0 1 1 1 1 1 1 0 0 0 1 1 1 1 0 1 0 1 1 0
+ 1 0 1 0 0 1 1 1 0 1 0 0 1 1 1 1 1 1 0 0 1 1 0 1 1 0 1 1 1 0 1 1 1 1 0 1 0
+ 0 0 1 0 1 0 0 0 1 1 0 1 0 1 1 1 1 1 1 1 0 1 1 0 0 1 1 0 0 0 0 0 0 1 0 0 1
+ 1 1 1 1 0 1 0 0 0 1 0 1 1 1 0 1 1 1 0 1 1 0 1 0 0 0 0 0 0 1 0 0 0 1 1 0 0
+ 1 0 0 0 0 0 1 0 1 1 0 1 1 1 1 0 0 1 0 1 1 1 1 1 0 0 1 0 1 0 1 0 1 1 0 1 1
+ 1 1 1 1 1 0 0 1 0 0 1 1 0 0 0 1 1 1 1 0 1 0 1 0 1 1 1 1 1 0 1 0 0 0 1 1 1
+ 1 0 0 1 0 1 0 0 1 0 0 0 1 1 1 1 1 1 1 1 1 0 1 1 1 1 1 0 1 0 0 1 0 0 1 0 1
+ 0 1 0 1 0 0 1 1 1 1 0 1 1 1 1 0 0 0 1 0 0 1 1 1 0 1 1 1 0 0 1 1 0 1 0 0 0
+ 1 1 0 0 0 0 1 1 1 1 1 0 0 1 0 1 0 0 1 0 1 1 1 0 1 1 0 1 1 0 1 0 0 1 0 1 0
+ 0 1 0 1 1 0 0 1 1 1 0 1 0 0 0 0 1 1 1 1 1 1 1 1 0 0 0 1 1 0 0 1 1 1 0 1 1
+ 1 0 0 1 1 0 1 1 1 1 0 0 1 1 1 1 1 1 1 0 0 0 1 1 1 0 0 1 1 1 0 1 1 1 0 0 1
+ 1 0 1 1 1 0 0 1 0 1 0 0 0 1 0 0 1 0 1 0 1 0 0 1 1 0 1 1 1 1 0 1 1 0 1 1 1
+ 1 1 1 1 1 0 0 0 0 1 1 0 0 0 0 0 0 0 1 1 0 1 0 1 0 0 1 1 1 1 1 0 1 1 0 0 0
+ 0 1 1 0 0 0 1 0 1 0 1 1 1 1 1 1 0 1 0 1 0 1 1 1 1 0 1 1 0 0 0 0 0 1 1 1 0
+ 1 1 1 1 1 1 1 0 1 1 0 0 1 0 1 0 0 1 1 1 1 1 1 0 0 0 0 1 0 1 0 1 1 0 0 1 0
+ 0 1 1 1 1 1 1 1 0 1 0 1 1 1 0 1 1 0 1 1 1 1 0 1 0 0 0 1 1 0 0 1 1 0 0 1 1
+ 1 1 0 0 0 0 1 1 1 0 1 0 0 1 1 0 1 1 1 1 1 0 1 1 1 1 0 0 0 1 1 1 1 1 0 0 1
+ 1 0 1 1 1 1 0 0 0 1 0 1 0 0 0 1 1 0 1 0 1 1 0 0 1 1 1 0 1 0 0 1 1 0 0 1 0
+ 1 1 0 1 1 0 0 0 0 0 1 0 1 0 1 1 1 0 1 0 0 1 0 1 1 0 1 0 0 1 1 1 1 0 1 1 1
+ 0 0 1 0 0 1 1 0 1 0 1 1 0 0 1 1 0 1 1 1 1 1 1 1 0 1 0 1 0 1 0 0 1 1 0 0 1
+ 0 0 1 0 0 0 1 1 1 1 0 1 0]</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[ 1  2  8 11 14 15 16 20 29]</t>
+          <t>[  2   3   4   5   6   7   8   9  10  11  13  14  16  18  19  20  21  22
+  23  27  28  29  30  32  34  35  37  39  42  43  44  46  49  50  51  52
+  53  54  57  58  60  61  63  64  65  67  68  69  70  72  76  78  82  83
+  85  87  88  89  90  91  92  93  95  96  99 100 107 110 111 112 113 114
+ 116 120 122 123 124 126 127 128 130 131 133 140 144 145 148 154 156 157
+ 159 160 161 162 165 167 168 169 170 171 174 176 178 180 181 183 184 185
+ 186 187 188 189 192 195 196 200 201 202 203 205 207 209 210 211 212 213
+ 215 219 220 221 222 225 227 230 234 235 236 237 238 239 240 241 242 244
+ 245 246 247 248 250 253 256 258 260 262 265 266 267 268 270 271 272 273
+ 277 280 281 282 284 285 286 289 290 292 296 297 302 303 304 305 306 309
+ 311 314 316 317 318 320 321 323 324 326 329 331 334 336 337 340 341 342
+ 344 349 350 351 352 353 354 355 356 360 361 364 365 366 368 369 370 373
+ 374 376 377 378 379 382 383 384 385 386 387 388 392 393 394 397 398 399
+ 401 402 403 406 407 409 410 411 414 416 420 423 425 427 430 431 433 434
+ 435 436 438 439 441 442 443 444 445 446 447 448 453 454 462 463 465 467
+ 470 471 472 473 474 476 477 482 483 487 489 491 492 493 494 495 496 498
+ 500 502 503 504 505 507 508 514 515 516 518 519 520 521 522 523 524 526
+ 527 530 532 535 536 537 538 539 540 545 547 549 550 553 556 557 558 559
+ 560 561 562 564 566 567 568 570 571 573 574 575 576 578 582 583 586 587
+ 590 591 592 593 598 599 600 602 605 606 608 609 610 611 612 614 615 616
+ 617 621 622 623 624 625 628 629 631 632 633 634 638 640 644 645 647 649
+ 650 653 654 655 657 660 661 664 666 667 669 670 676 678 680 681 682 684
+ 687 689 690 692 695 696 697 698 700 701 702 705 708 709 711 713 714 717
+ 718 720 721 722 723 724 725 726 728 730 732 735 736 739 742 746 747 748
+ 749 751]</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.9824561403508771</v>
+        <v>0.9605263157894737</v>
       </c>
       <c r="E13" t="n">
-        <v>1.779201030731201</v>
+        <v>25.81079268455505</v>
       </c>
     </row>
     <row r="14">
@@ -718,19 +1258,64 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>[1 0 0 1 1 0 1 0 1 1 1 0 0 0 1 0 0 0 1 1 0 1 1 1 1 1 1 0 0 1]</t>
+          <t>[1 1 1 0 0 1 1 1 1 1 1 1 1 1 1 1 0 0 1 0 1 1 0 0 0 1 0 1 0 0 0 0 0 1 0 1 1
+ 1 0 1 0 0 0 1 1 1 0 0 0 0 0 0 1 1 1 0 1 0 0 1 1 1 0 0 1 1 0 0 1 0 1 0 1 1
+ 1 0 0 1 0 1 1 1 0 1 1 0 0 1 1 0 1 0 0 0 1 0 1 1 0 0 1 0 0 0 1 0 1 1 1 1 1
+ 1 0 1 0 0 1 1 1 1 1 1 0 1 0 1 1 1 1 1 1 1 1 1 0 1 0 0 0 0 1 1 0 1 0 1 1 0
+ 0 1 1 0 1 1 1 0 1 0 1 1 0 1 0 1 1 1 0 1 1 1 0 1 1 0 1 1 1 0 1 1 1 0 1 1 1
+ 0 1 1 1 1 0 1 0 0 1 1 0 0 1 0 1 0 1 1 1 1 0 1 0 0 1 1 0 1 0 1 1 0 1 0 1 0
+ 0 0 0 0 1 1 1 0 0 1 1 1 1 0 1 1 1 0 1 1 0 1 1 1 0 1 0 1 0 1 0 1 1 1 0 1 1
+ 0 0 0 1 0 0 1 0 1 1 1 1 1 1 1 1 1 1 0 0 1 0 1 1 1 1 0 0 1 1 0 0 1 1 1 0 1
+ 0 1 1 1 0 0 0 0 1 0 0 1 1 1 0 1 1 0 1 0 0 1 1 1 0 1 1 1 1 1 1 1 1 1 1 1 0
+ 0 1 0 1 1 1 1 0 0 1 1 0 1 1 0 1 1 1 0 0 1 0 1 0 0 0 0 1 1 1 0 1 1 1 1 0 0
+ 0 0 0 0 1 0 1 0 1 1 0 1 1 0 1 0 0 0 0 1 0 1 0 1 1 1 1 1 1 0 1 1 0 1 1 1 1
+ 1 1 1 1 1 1 0 1 0 0 1 0 1 1 1 0 1 1 1 1 0 0 1 1 1 0 1 1 1 0 1 1 1 1 0 0 1
+ 0 1 1 1 0 0 0 1 1 1 0 1 1 0 1 0 1 1 1 1 0 0 1 1 1 1 0 1 0 0 1 0 1 0 1 1 0
+ 1 1 0 0 1 0 1 1 1 0 1 0 0 0 1 1 0 1 1 1 1 1 0 1 1 0 1 0 1 1 1 0 0 0 1 1 0
+ 1 1 1 1 0 0 1 0 1 1 0 1 0 1 1 1 1 1 1 1 1 1 1 1 1 1 1 0 1 0 1 0 0 1 0 1 1
+ 0 1 1 0 0 1 1 1 1 1 1 0 1 1 0 1 0 0 1 0 1 0 1 1 0 0 1 1 0 0 1 0 0 0 1 1 1
+ 0 0 1 0 1 1 1 1 1 1 0 1 0 1 1 1 0 1 0 0 1 1 1 1 1 0 0 1 0 1 1 1 1 1 1 1 1
+ 1 1 1 1 0 1 0 0 0 1 0 0 1 1 0 1 0 1 1 0 0 0 1 1 1 1 1 0 1 1 0 0 0 1 0 0 1
+ 1 1 1 1 1 1 1 0 1 1 0 1 1 1 0 0 0 1 0 1 1 1 0 1 0 1 0 1 1 1 0 1 1 0 1 0 1
+ 1 1 1 1 1 1 0 0 1 1 0 1 1 0 0 1 1 0 1 0 1 0 0 0 0 0 1 1 1 0 1 1 0 1 1 1 0
+ 0 0 0 1 1 0 1 1 0 1 1 1 0]</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[ 0  3  4  6  8  9 10 14 18 19 21 22 23 24 25 26 29]</t>
+          <t>[  0   1   2   5   6   7   8   9  10  11  12  13  14  15  18  20  21  25
+  27  33  35  36  37  39  43  44  45  52  53  54  56  59  60  61  64  65
+  68  70  72  73  74  77  79  80  81  83  84  87  88  90  94  96  97 100
+ 104 106 107 108 109 110 111 113 116 117 118 119 120 121 123 125 126 127
+ 128 129 130 131 132 133 135 140 141 143 145 146 149 150 152 153 154 156
+ 158 159 161 163 164 165 167 168 169 171 172 174 175 176 178 179 180 182
+ 183 184 186 187 188 189 191 194 195 198 200 202 203 204 205 207 210 211
+ 213 215 216 218 220 226 227 228 231 232 233 234 236 237 238 240 241 243
+ 244 245 247 249 251 253 254 255 257 258 262 265 267 268 269 270 271 272
+ 273 274 275 276 279 281 282 283 284 287 288 291 292 293 295 297 298 299
+ 304 307 308 309 311 312 314 317 318 319 321 322 323 324 325 326 327 328
+ 329 330 331 334 336 337 338 339 342 343 345 346 348 349 350 353 355 360
+ 361 362 364 365 366 367 374 376 378 379 381 382 384 389 391 393 394 395
+ 396 397 398 400 401 403 404 405 406 407 408 409 410 411 412 414 417 419
+ 420 421 423 424 425 426 429 430 431 433 434 435 437 438 439 440 443 445
+ 446 447 451 452 453 455 456 458 460 461 462 463 466 467 468 469 471 474
+ 476 478 479 481 482 485 487 488 489 491 495 496 498 499 500 501 502 504
+ 505 507 509 510 511 515 516 518 519 520 521 524 526 527 529 531 532 533
+ 534 535 536 537 538 539 540 541 542 543 544 546 548 551 553 554 556 557
+ 560 561 562 563 564 565 567 568 570 573 575 577 578 581 582 585 589 590
+ 591 594 596 597 598 599 600 601 603 605 606 607 609 612 613 614 615 616
+ 619 621 622 623 624 625 626 627 628 629 630 631 632 634 638 641 642 644
+ 646 647 651 652 653 654 655 657 658 662 665 666 667 668 669 670 671 672
+ 674 675 677 678 679 683 685 686 687 689 691 693 694 695 697 698 700 702
+ 703 704 705 706 707 708 711 712 714 715 718 719 721 723 729 730 731 733
+ 734 736 737 738 743 744 746 747 749 750 751]</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.9824561403508771</v>
+        <v>0.9605263157894737</v>
       </c>
       <c r="E14" t="n">
-        <v>1.790918111801147</v>
+        <v>28.58653569221497</v>
       </c>
     </row>
     <row r="15">
@@ -739,19 +1324,59 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>[1 1 0 1 1 1 0 1 1 0 1 1 0 0 1 0 1 0 0 0 0 1 0 0 1 0 1 0 0 1]</t>
+          <t>[0 1 1 1 0 1 1 1 1 1 0 0 0 1 1 0 0 0 1 0 0 1 1 1 1 1 0 1 1 0 1 0 0 1 0 1 1
+ 1 1 0 1 0 1 0 0 0 0 1 1 1 1 1 0 0 0 0 1 0 0 1 0 0 1 1 0 1 0 1 1 0 1 1 1 0
+ 1 1 0 0 0 0 0 1 1 1 0 1 1 1 1 0 0 0 1 0 0 1 0 1 0 1 1 1 0 0 0 0 0 1 0 0 1
+ 0 0 0 0 0 0 1 1 1 1 1 1 0 1 0 1 0 0 1 1 0 1 1 0 0 0 0 0 0 1 1 1 0 1 0 1 1
+ 0 1 0 1 0 0 0 0 1 0 0 1 1 0 0 1 1 1 0 1 0 0 1 0 0 1 1 0 1 1 1 1 1 1 0 0 1
+ 0 0 1 1 1 1 0 1 0 0 1 1 1 1 1 0 0 1 1 1 1 1 1 1 0 0 1 0 1 1 1 0 1 0 0 0 1
+ 1 0 0 1 0 0 1 0 1 1 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 1 0 0 1 0 0 1 0 1 1 0 1
+ 1 1 0 0 1 0 1 1 0 0 0 1 0 0 1 1 1 0 0 1 0 1 1 0 1 0 1 1 0 1 0 1 0 1 0 0 1
+ 0 1 1 1 0 1 1 0 0 0 0 1 0 1 1 1 1 0 1 1 0 0 1 1 1 1 1 1 1 0 1 1 0 0 0 0 1
+ 1 1 0 0 0 1 1 0 0 0 0 0 0 0 1 1 0 1 0 0 0 0 0 0 1 0 0 1 0 1 0 1 1 0 0 0 1
+ 0 1 0 1 1 0 1 0 0 1 0 0 1 1 1 1 0 0 1 1 0 1 0 0 1 0 0 1 1 1 1 0 1 1 0 0 1
+ 0 1 0 1 1 1 1 0 0 1 0 1 1 0 0 0 0 1 1 1 0 1 0 0 1 1 1 0 0 0 1 0 1 1 0 0 0
+ 1 0 1 1 1 1 0 0 1 1 0 1 0 0 1 1 0 1 1 0 0 1 0 0 1 0 0 0 0 0 0 1 1 1 1 1 0
+ 1 0 0 0 1 1 0 0 1 1 1 0 0 0 1 0 0 0 0 1 1 1 0 1 0 0 0 0 1 0 1 0 1 0 1 0 1
+ 1 0 0 0 0 0 0 0 0 1 1 0 0 0 1 0 0 0 0 1 0 0 1 0 0 0 1 1 1 0 1 0 1 1 1 0 0
+ 1 0 1 0 0 1 1 0 0 0 0 1 1 0 1 1 1 1 0 0 1 0 0 0 1 1 0 0 0 0 1 0 1 0 1 1 0
+ 1 0 0 0 0 1 0 0 0 1 1 0 1 0 0 1 1 0 0 1 0 1 1 0 0 1 0 0 0 1 1 0 1 1 1 1 1
+ 0 1 1 0 1 1 0 0 0 1 1 0 0 1 0 1 1 1 1 1 0 0 0 1 1 1 0 0 1 1 0 0 1 0 1 0 1
+ 1 1 0 1 0 1 0 0 1 0 0 1 1 1 1 0 1 0 1 1 0 1 0 1 0 0 0 1 0 0 0 0 0 0 1 1 0
+ 0 1 1 1 0 1 0 0 0 0 1 0 0 1 1 0 1 0 1 1 1 0 0 0 0 0 1 0 1 0 1 1 0 1 0 1 0
+ 1 0 0 0 1 1 1 0 1 1 0 1 1]</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[ 0  1  3  4  5  7  8 10 11 14 16 21 24 26 29]</t>
+          <t>[  1   2   3   5   6   7   8   9  13  14  18  21  22  23  24  25  27  28
+  30  33  35  36  37  38  40  42  47  48  49  50  51  56  59  62  63  65
+  67  68  70  71  72  74  75  81  82  83  85  86  87  88  92  95  97  99
+ 100 101 107 110 117 118 119 120 121 122 124 126 129 130 132 133 140 141
+ 142 144 146 147 149 151 156 159 160 163 164 165 167 170 173 174 176 177
+ 178 179 180 181 184 187 188 189 190 192 195 196 197 198 199 202 203 204
+ 205 206 207 208 211 213 214 215 217 221 222 225 228 230 231 234 236 240
+ 247 250 253 255 256 258 259 260 263 265 266 270 273 274 275 278 280 281
+ 283 285 286 288 290 292 295 297 298 299 301 302 307 309 310 311 312 314
+ 315 318 319 320 321 322 323 324 326 327 332 333 334 338 339 347 348 350
+ 357 360 362 364 365 369 371 373 374 376 379 382 383 384 385 388 389 391
+ 394 397 398 399 400 402 403 406 408 410 411 412 413 416 418 419 424 425
+ 426 428 431 432 433 437 439 440 444 446 447 448 449 452 453 455 458 459
+ 461 462 465 468 475 476 477 478 479 481 485 486 489 490 491 495 500 501
+ 502 504 509 511 513 515 517 518 527 528 532 537 540 544 545 546 548 550
+ 551 552 555 557 560 561 566 567 569 570 571 572 575 579 580 585 587 589
+ 590 592 597 601 602 604 607 608 611 613 614 617 621 622 624 625 626 627
+ 628 630 631 633 634 638 639 642 644 645 646 647 648 652 653 654 657 658
+ 661 663 665 666 667 669 671 674 677 678 679 680 682 684 685 687 689 693
+ 700 701 704 705 706 708 713 716 717 719 721 722 723 729 731 733 734 736
+ 738 740 744 745 746 748 749 751 752]</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.9824561403508771</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="E15" t="n">
-        <v>1.968245029449463</v>
+        <v>31.48484349250793</v>
       </c>
     </row>
     <row r="16">
@@ -760,19 +1385,65 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>[0 1 1 1 1 1 0 0 1 1 1 1 0 1 1 1 1 1 0 1 1 1 1 0 1 1 1 1 1 1]</t>
+          <t>[0 1 1 1 0 1 1 1 0 1 1 1 0 0 1 0 1 1 1 1 0 1 1 1 1 0 1 1 1 1 1 1 1 1 1 0 1
+ 1 1 1 0 0 1 1 0 0 0 1 1 0 1 0 1 1 1 1 1 1 1 0 1 1 1 1 0 1 1 1 1 1 0 1 0 1
+ 1 1 1 1 0 1 1 0 1 1 0 0 0 0 0 1 0 0 0 0 0 1 1 0 1 1 0 1 1 0 1 0 0 1 1 1 0
+ 0 0 0 1 1 0 0 1 0 1 0 0 1 1 1 0 1 0 0 0 0 1 0 1 0 1 0 1 1 1 1 0 1 1 0 0 1
+ 1 1 1 0 1 0 0 0 1 1 1 1 0 1 0 1 0 1 1 1 0 1 1 1 1 1 1 0 1 0 1 0 0 1 1 1 1
+ 1 1 0 1 0 1 0 1 0 0 0 1 1 0 0 1 0 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 0 1 1 1
+ 1 1 0 0 0 0 1 0 0 1 1 0 0 1 1 1 0 1 1 1 0 1 1 0 1 0 1 0 1 1 1 1 1 1 1 1 1
+ 0 1 1 1 0 0 1 1 0 1 0 1 1 0 0 1 0 1 1 1 1 1 1 1 1 0 1 0 1 1 1 1 0 0 1 1 1
+ 0 1 0 1 1 1 0 0 0 1 1 1 1 0 1 1 1 0 1 0 1 0 1 0 1 1 1 1 1 1 0 0 1 0 0 1 0
+ 0 0 1 1 1 1 1 1 0 0 0 0 1 0 0 1 0 1 1 1 0 1 0 1 1 1 0 0 0 1 1 1 0 1 0 1 1
+ 0 1 0 0 0 1 1 1 0 0 0 0 1 1 1 1 1 1 1 0 0 1 1 1 1 1 1 0 1 1 1 0 1 1 0 1 0
+ 1 1 0 1 1 0 1 0 1 1 0 0 1 1 1 1 1 1 0 1 1 1 1 0 1 0 1 1 1 0 1 1 1 1 1 1 1
+ 0 1 0 1 1 1 0 0 1 0 0 0 1 1 1 0 1 1 0 1 1 1 1 1 0 0 1 0 1 0 1 0 1 0 0 0 1
+ 1 1 1 1 0 1 0 1 1 0 1 1 1 1 1 0 0 0 0 1 1 0 0 1 1 1 1 0 0 1 0 1 1 1 0 1 0
+ 1 0 1 1 1 1 1 1 1 1 1 0 0 1 1 1 1 0 1 0 1 0 0 1 1 1 1 1 1 1 0 1 1 1 1 0 1
+ 0 1 1 0 0 0 1 0 1 0 1 1 0 1 1 1 1 1 0 1 1 1 0 1 1 0 0 0 1 1 0 0 0 1 1 1 1
+ 0 1 1 0 1 0 0 1 0 1 1 1 1 1 1 1 1 1 1 1 0 1 1 1 0 1 1 0 0 1 0 1 1 1 1 1 1
+ 1 1 0 1 0 1 0 1 0 1 1 0 1 1 1 1 1 0 1 0 1 1 0 0 0 1 0 0 1 1 0 0 0 0 1 0 0
+ 0 1 0 0 1 0 1 0 1 0 0 0 1 1 1 0 1 1 1 1 1 1 1 1 0 1 0 0 1 0 1 1 1 0 1 1 1
+ 1 1 1 1 1 0 0 0 1 0 1 0 1 0 0 1 0 1 1 0 1 1 1 1 1 1 1 0 0 1 1 0 0 1 0 0 0
+ 1 0 1 1 0 0 1 1 0 1 1 0 0]</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[ 1  2  3  4  5  8  9 10 11 13 14 15 16 17 19 20 21 22 24 25 26 27 28 29]</t>
+          <t>[  1   2   3   5   6   7   9  10  11  14  16  17  18  19  21  22  23  24
+  26  27  28  29  30  31  32  33  34  36  37  38  39  42  43  47  48  50
+  52  53  54  55  56  57  58  60  61  62  63  65  66  67  68  69  71  73
+  74  75  76  77  79  80  82  83  89  95  96  98  99 101 102 104 107 108
+ 109 114 115 118 120 123 124 125 127 132 134 136 138 139 140 141 143 144
+ 147 148 149 150 152 156 157 158 159 161 163 165 166 167 169 170 171 172
+ 173 174 176 178 181 182 183 184 185 186 188 190 192 196 197 200 202 203
+ 204 205 206 207 208 209 210 211 212 213 214 215 216 217 219 220 221 222
+ 223 228 231 232 235 236 237 239 240 241 243 244 246 248 250 251 252 253
+ 254 255 256 257 258 260 261 262 265 266 268 270 271 274 276 277 278 279
+ 280 281 282 283 285 287 288 289 290 293 294 295 297 299 300 301 305 306
+ 307 308 310 311 312 314 316 318 320 321 322 323 324 325 328 331 335 336
+ 337 338 339 340 345 348 350 351 352 354 356 357 358 362 363 364 366 368
+ 369 371 375 376 377 382 383 384 385 386 387 388 391 392 393 394 395 396
+ 398 399 400 402 403 405 407 408 410 411 413 415 416 419 420 421 422 423
+ 424 426 427 428 429 431 433 434 435 437 438 439 440 441 442 443 445 447
+ 448 449 452 456 457 458 460 461 463 464 465 466 467 470 472 474 476 480
+ 481 482 483 484 486 488 489 491 492 493 494 495 500 501 504 505 506 507
+ 510 512 513 514 516 518 520 521 522 523 524 525 526 527 528 531 532 533
+ 534 536 538 541 542 543 544 545 546 547 549 550 551 552 554 556 557 561
+ 563 565 566 568 569 570 571 572 574 575 576 578 579 583 584 588 589 590
+ 591 593 594 596 599 601 602 603 604 605 606 607 608 609 610 611 613 614
+ 615 617 618 621 623 624 625 626 627 628 629 630 632 634 636 638 639 641
+ 642 643 644 645 647 649 650 654 657 658 663 667 670 672 674 678 679 680
+ 682 683 684 685 686 687 688 689 691 694 696 697 698 700 701 702 703 704
+ 705 706 707 711 713 715 718 720 721 723 724 725 726 727 728 729 732 733
+ 736 740 742 743 746 747 749 750]</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.9824561403508771</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="E16" t="n">
-        <v>2.098940372467041</v>
+        <v>32.7048819065094</v>
       </c>
     </row>
     <row r="17">
@@ -781,19 +1452,64 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>[1 1 1 1 0 1 0 1 0 1 0 0 1 1 1 0 0 1 1 0 0 1 1 0 0 0 1 1 0 1]</t>
+          <t>[1 1 1 1 1 1 0 0 1 1 1 0 1 1 0 1 1 1 1 1 0 0 1 0 1 1 0 0 1 1 0 0 0 1 1 0 0
+ 1 1 1 1 0 1 1 1 1 1 1 0 1 0 0 1 0 1 0 0 1 1 1 0 1 1 1 1 0 1 1 1 0 0 0 1 1
+ 0 0 0 1 0 0 0 0 0 0 1 1 0 1 1 1 1 1 0 1 1 1 0 0 0 0 1 1 1 1 1 1 1 0 1 1 0
+ 1 1 0 1 0 1 0 1 1 1 1 0 0 1 0 1 1 1 0 1 0 1 1 1 0 1 0 0 1 0 0 0 1 1 1 0 0
+ 0 1 1 0 1 1 1 1 1 0 1 0 1 0 1 1 1 1 1 0 1 1 0 1 1 1 0 1 1 1 0 0 1 1 1 0 1
+ 1 1 1 0 1 1 1 1 1 0 0 1 1 1 1 0 0 1 1 0 1 0 0 1 1 1 1 0 1 1 1 1 1 1 1 0 0
+ 1 0 1 0 0 0 1 0 1 0 0 1 1 1 0 1 1 1 1 0 1 1 1 0 1 1 1 1 1 0 0 1 1 0 0 1 1
+ 1 1 0 1 0 0 1 0 1 1 1 0 1 1 0 1 1 0 1 1 1 0 1 0 0 0 0 1 1 1 0 0 0 1 1 0 1
+ 0 1 0 1 1 0 0 0 1 0 1 1 1 1 1 1 0 1 0 1 1 1 1 1 1 0 1 0 1 0 1 0 1 1 0 1 1
+ 0 1 1 1 1 0 1 0 1 0 1 0 0 1 1 0 0 1 1 1 0 1 0 1 0 1 1 1 1 1 1 1 0 1 1 0 1
+ 0 0 1 1 1 1 1 1 0 0 0 0 1 0 1 1 1 1 0 1 1 1 0 1 0 1 1 0 0 1 0 0 1 1 1 1 0
+ 0 1 0 1 1 0 1 0 1 1 0 1 0 1 1 0 1 0 0 1 1 0 1 1 1 1 1 1 1 0 1 0 0 0 0 1 1
+ 1 1 1 1 1 0 0 0 1 1 1 1 1 1 1 1 0 1 0 0 0 0 0 1 1 1 1 1 1 1 0 1 1 0 1 1 0
+ 1 0 0 1 0 1 1 1 1 1 1 0 1 0 1 1 1 0 1 0 0 0 1 0 0 1 0 0 0 0 1 1 0 1 0 1 1
+ 0 0 0 0 1 0 0 0 1 0 1 1 1 0 1 0 1 0 0 1 0 1 1 0 0 1 1 0 1 0 0 1 0 1 1 0 1
+ 1 1 1 1 1 1 0 0 1 0 0 1 1 1 0 1 0 0 1 0 1 1 0 0 0 1 0 1 0 1 0 1 0 1 1 1 1
+ 0 1 0 1 1 1 1 1 1 0 1 1 1 0 0 0 1 0 0 1 1 1 1 1 0 0 0 1 1 0 1 1 0 1 1 1 0
+ 0 1 1 1 0 1 1 1 0 1 1 0 1 0 1 0 0 1 1 0 1 0 1 1 1 0 1 1 1 0 1 1 1 1 0 0 1
+ 1 1 0 0 1 0 0 0 1 1 1 1 1 0 1 0 1 1 1 1 0 1 1 0 0 0 1 1 1 1 1 1 1 0 0 0 0
+ 0 1 1 0 1 1 1 1 0 0 1 1 0 0 1 1 0 1 1 1 1 0 1 1 1 0 1 1 1 1 1 1 1 0 1 1 0
+ 1 1 0 1 1 1 0 1 0 1 1 0 1]</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>[ 0  1  2  3  5  7  9 12 13 14 17 18 21 22 26 27 29]</t>
+          <t>[  0   1   2   3   4   5   8   9  10  12  13  15  16  17  18  19  22  24
+  25  28  29  33  34  37  38  39  40  42  43  44  45  46  47  49  52  54
+  57  58  59  61  62  63  64  66  67  68  72  73  77  84  85  87  88  89
+  90  91  93  94  95 100 101 102 103 104 105 106 108 109 111 112 114 116
+ 118 119 120 121 124 126 127 128 130 132 133 134 136 139 143 144 145 149
+ 150 152 153 154 155 156 158 160 162 163 164 165 166 168 169 171 172 173
+ 175 176 177 180 181 182 184 185 186 187 189 190 191 192 193 196 197 198
+ 199 202 203 205 208 209 210 211 213 214 215 216 217 218 219 222 224 228
+ 230 233 234 235 237 238 239 240 242 243 244 246 247 248 249 250 253 254
+ 257 258 259 260 262 265 267 268 269 271 272 274 275 277 278 279 281 286
+ 287 288 292 293 295 297 299 300 304 306 307 308 309 310 311 313 315 316
+ 317 318 319 320 322 324 326 328 329 331 332 334 335 336 337 339 341 343
+ 346 347 350 351 352 354 356 358 359 360 361 362 363 364 366 367 369 372
+ 373 374 375 376 377 382 384 385 386 387 389 390 391 393 395 396 399 402
+ 403 404 405 408 410 411 413 415 416 418 420 421 423 426 427 429 430 431
+ 432 433 434 435 437 442 443 444 445 446 447 448 452 453 454 455 456 457
+ 458 459 461 467 468 469 470 471 472 473 475 476 478 479 481 484 486 487
+ 488 489 490 491 493 495 496 497 499 503 506 511 512 514 516 517 522 526
+ 528 529 530 532 534 537 539 540 543 544 546 549 551 552 554 555 556 557
+ 558 559 560 563 566 567 568 570 573 575 576 580 582 584 586 588 589 590
+ 591 593 595 596 597 598 599 600 602 603 604 608 611 612 613 614 615 619
+ 620 622 623 625 626 627 630 631 632 634 635 636 638 639 641 643 646 647
+ 649 651 652 653 655 656 657 659 660 661 662 665 666 667 670 674 675 676
+ 677 678 680 682 683 684 685 687 688 692 693 694 695 696 697 698 704 705
+ 707 708 709 710 713 714 717 718 720 721 722 723 725 726 727 729 730 731
+ 732 733 734 735 737 738 740 741 743 744 745 747 749 750 752]</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.9824561403508771</v>
+        <v>0.9605263157894737</v>
       </c>
       <c r="E17" t="n">
-        <v>2.169750213623047</v>
+        <v>35.81272912025452</v>
       </c>
     </row>
     <row r="18">
@@ -802,19 +1518,65 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>[1 0 0 1 0 1 0 0 0 0 0 0 0 1 0 0 1 1 1 0 1 1 1 0 1 0 0 1 1 1]</t>
+          <t>[1 1 0 0 0 1 0 1 1 0 1 0 1 0 1 1 1 1 1 1 1 1 0 0 0 0 0 0 0 0 1 0 1 0 0 0 1
+ 1 1 0 1 0 0 1 0 1 0 1 0 0 0 1 0 1 1 1 1 1 0 1 1 0 1 0 0 1 1 1 0 1 1 1 1 1
+ 1 1 0 1 1 0 0 0 1 1 1 1 1 1 1 1 1 0 0 0 1 1 1 1 0 1 1 0 1 1 1 0 1 1 0 1 0
+ 0 1 1 0 0 0 1 0 1 0 1 1 1 1 1 0 1 1 0 0 1 1 1 1 1 0 0 1 1 0 1 1 0 0 1 0 1
+ 1 0 0 0 0 1 0 1 0 1 0 0 1 1 1 0 0 0 0 1 1 0 0 1 1 0 1 0 1 0 0 1 1 1 1 0 1
+ 0 1 1 1 1 1 0 0 0 1 1 0 0 1 1 0 1 0 1 1 0 0 1 0 0 1 1 1 1 0 1 0 0 0 1 0 1
+ 0 1 1 0 1 1 0 1 0 1 1 1 1 1 0 0 0 0 1 1 1 1 1 1 0 1 1 0 0 1 1 1 1 0 1 1 0
+ 1 1 0 0 0 0 1 1 0 1 1 0 0 1 1 1 1 1 1 0 1 0 1 1 1 0 0 1 0 1 1 1 1 1 1 0 1
+ 0 1 0 1 1 0 1 0 1 1 1 1 1 1 1 1 0 1 1 0 0 0 0 0 1 1 1 1 1 0 0 1 0 0 1 1 1
+ 1 0 1 1 1 0 0 0 0 0 0 1 1 1 1 1 0 1 1 1 0 1 0 1 0 1 1 0 1 1 1 0 0 1 0 1 0
+ 1 0 0 1 0 1 1 1 1 1 0 0 0 0 1 0 0 0 1 0 0 1 1 1 0 1 1 0 1 0 0 0 1 1 0 1 1
+ 1 0 1 1 1 1 1 0 0 0 1 1 0 1 1 1 1 0 0 1 1 1 0 0 1 1 0 0 1 0 1 1 0 1 0 1 1
+ 0 0 0 1 0 1 0 1 1 1 0 1 0 1 0 1 1 1 1 0 0 0 0 1 0 1 1 1 1 1 1 0 1 1 1 1 1
+ 1 1 1 1 0 1 1 1 0 1 1 1 1 0 0 1 1 0 0 1 1 1 0 1 1 1 1 1 0 0 1 1 1 0 0 0 1
+ 1 1 0 1 1 1 1 0 0 0 1 1 0 1 1 1 1 0 1 1 1 1 1 0 0 1 1 1 0 1 0 0 1 1 0 1 0
+ 0 1 1 1 1 1 1 1 0 1 0 0 1 1 1 0 1 1 0 1 1 1 1 1 1 1 1 1 1 0 1 0 1 0 0 1 1
+ 0 1 1 1 0 1 1 1 1 1 1 1 1 1 0 1 1 1 1 0 0 0 0 1 1 1 1 0 1 0 0 1 1 0 1 1 1
+ 0 0 1 0 0 1 1 1 1 1 1 1 1 0 0 0 1 0 0 0 1 1 0 0 0 1 0 1 1 1 1 0 1 1 1 1 0
+ 1 0 0 1 1 1 1 1 1 1 1 0 1 1 1 0 1 0 1 1 1 0 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1
+ 0 1 1 1 1 1 0 1 1 0 1 1 1 0 1 1 1 0 1 1 0 1 1 1 1 1 1 0 0 1 0 1 1 1 1 1 0
+ 1 0 1 1 1 0 0 1 1 1 1 0 0]</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>[ 0  3  5 13 16 17 18 20 21 22 24 27 28 29]</t>
+          <t>[  0   1   5   7   8  10  12  14  15  16  17  18  19  20  21  30  32  36
+  37  38  40  43  45  47  51  53  54  55  56  57  59  60  62  65  66  67
+  69  70  71  72  73  74  75  77  78  82  83  84  85  86  87  88  89  90
+  94  95  96  97  99 100 102 103 104 106 107 109 112 113 117 119 121 122
+ 123 124 125 127 128 131 132 133 134 135 138 139 141 142 145 147 148 153
+ 155 157 160 161 162 167 168 171 172 174 176 179 180 181 182 184 186 187
+ 188 189 190 194 195 198 199 201 203 204 207 210 211 212 213 215 219 221
+ 223 224 226 227 229 231 232 233 234 235 240 241 242 243 244 245 247 248
+ 251 252 253 254 256 257 259 260 265 266 268 269 272 273 274 275 276 277
+ 279 281 282 283 286 288 289 290 291 292 293 295 297 299 300 302 304 305
+ 306 307 308 309 310 311 313 314 320 321 322 323 324 327 330 331 332 333
+ 335 336 337 344 345 346 347 348 350 351 352 354 356 358 359 361 362 363
+ 366 368 370 373 375 376 377 378 379 384 388 391 392 393 395 396 398 402
+ 403 405 406 407 409 410 411 412 413 417 418 420 421 422 423 426 427 428
+ 431 432 435 437 438 440 442 443 447 449 451 452 453 455 457 459 460 461
+ 462 467 469 470 471 472 473 474 476 477 478 479 480 481 482 483 484 486
+ 487 488 490 491 492 493 496 497 500 501 502 504 505 506 507 508 511 512
+ 513 517 518 519 521 522 523 524 528 529 531 532 533 534 536 537 538 539
+ 540 543 544 545 547 550 551 553 556 557 558 559 560 561 562 564 567 568
+ 569 571 572 574 575 576 577 578 579 580 581 582 583 585 587 590 591 593
+ 594 595 597 598 599 600 601 602 603 604 605 607 608 609 610 615 616 617
+ 618 620 623 624 626 627 628 631 634 635 636 637 638 639 640 641 645 649
+ 650 654 656 657 658 659 661 662 663 664 666 669 670 671 672 673 674 675
+ 676 678 679 680 682 684 685 686 688 689 690 691 692 693 694 695 696 697
+ 698 699 700 701 702 704 705 706 707 708 710 711 713 714 715 717 718 719
+ 721 722 724 725 726 727 728 729 732 734 735 736 737 738 740 742 743 744
+ 747 748 749 750]</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.9824561403508771</v>
+        <v>0.9605263157894737</v>
       </c>
       <c r="E18" t="n">
-        <v>2.376135110855103</v>
+        <v>36.1648120880127</v>
       </c>
     </row>
     <row r="19">
@@ -823,19 +1585,65 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>[1 0 0 1 1 0 1 1 0 0 1 0 1 0 0 1 0 1 0 0 1 0 1 1 0 0 0 0 0 1]</t>
+          <t>[0 1 1 0 0 1 1 0 0 0 0 0 0 1 1 1 1 1 1 1 0 0 1 1 1 1 0 1 1 1 1 1 1 0 0 0 0
+ 1 1 1 1 0 1 1 0 0 0 0 1 1 0 0 0 1 1 1 1 1 0 1 1 0 1 1 1 0 1 0 1 1 1 0 1 0
+ 1 1 0 1 1 1 1 1 1 1 1 0 1 1 0 1 0 0 0 0 1 0 1 1 0 0 0 1 0 1 1 0 1 0 1 1 1
+ 0 1 1 1 0 1 1 1 0 0 1 1 1 1 1 1 1 1 1 1 0 1 1 0 0 1 1 1 1 1 1 0 0 1 1 1 0
+ 0 1 1 0 1 1 0 0 1 1 1 1 1 0 0 1 0 1 0 1 0 1 1 0 0 1 0 0 0 1 1 1 1 0 1 1 1
+ 0 1 1 1 0 0 0 0 1 1 1 1 1 1 1 0 1 1 1 1 1 0 0 1 1 1 0 1 1 0 1 1 1 0 1 1 1
+ 0 1 0 1 0 0 0 0 1 1 0 1 0 0 1 0 1 0 1 0 0 0 1 1 0 0 1 1 0 1 1 1 1 1 1 0 1
+ 1 0 0 1 1 1 1 1 1 1 1 0 1 1 0 1 0 1 0 0 0 0 0 0 0 1 0 1 1 0 1 1 1 1 1 1 1
+ 1 0 1 1 1 1 1 0 0 0 1 1 1 1 0 0 1 1 1 1 0 0 1 1 1 0 1 0 0 1 1 1 1 1 0 1 0
+ 1 1 1 1 1 0 0 1 1 0 0 1 1 0 0 1 1 1 1 0 1 1 0 1 1 1 1 1 1 1 1 0 1 0 0 0 0
+ 0 1 1 1 0 0 0 0 0 1 1 1 0 1 0 0 0 1 0 1 1 0 1 1 1 1 1 1 1 1 0 1 0 0 1 1 0
+ 1 1 1 0 1 1 1 1 1 0 0 1 1 0 1 0 0 1 1 0 1 0 0 0 1 0 0 1 1 1 0 1 1 1 0 0 1
+ 1 1 1 1 1 0 1 0 0 0 1 1 0 1 0 1 1 0 0 1 0 0 1 0 1 1 0 1 0 1 0 1 0 1 1 0 0
+ 0 1 1 1 1 0 0 0 1 1 1 1 1 0 0 1 1 1 1 1 0 1 1 0 1 1 1 1 0 1 1 0 1 1 1 0 1
+ 1 1 1 0 1 0 1 0 0 0 0 1 1 1 0 0 1 1 0 1 1 1 1 1 0 1 0 1 1 0 0 1 1 0 0 1 1
+ 1 1 1 1 1 0 1 1 0 0 1 1 0 1 1 1 0 1 0 0 0 1 1 0 0 0 1 0 1 1 1 1 0 0 1 0 1
+ 0 1 1 1 0 1 1 1 1 1 1 1 1 1 1 1 0 0 0 1 0 1 1 1 0 1 0 1 1 1 0 0 1 1 1 1 1
+ 0 1 1 1 1 1 1 1 0 1 1 0 0 1 1 1 1 1 1 0 0 1 1 1 1 0 0 1 1 1 1 1 0 0 1 1 1
+ 0 1 1 0 0 1 0 0 0 0 1 1 1 1 1 0 0 1 1 1 0 0 1 0 1 1 1 0 1 1 0 0 1 1 1 1 1
+ 1 0 1 0 1 0 1 1 0 1 0 0 1 0 0 1 0 1 0 0 1 0 0 0 1 1 0 0 1 0 1 1 1 0 1 0 1
+ 1 1 1 1 1 1 0 1 1 0 0 1 1]</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>[ 0  3  4  6  7 10 12 15 17 20 22 23 29]</t>
+          <t>[  1   2   5   6  13  14  15  16  17  18  19  22  23  24  25  27  28  29
+  30  31  32  37  38  39  40  42  43  48  49  53  54  55  56  57  59  60
+  62  63  64  66  68  69  70  72  74  75  77  78  79  80  81  82  83  84
+  86  87  89  94  96  97 101 103 104 106 108 109 110 112 113 114 116 117
+ 118 121 122 123 124 125 126 127 128 129 130 132 133 136 137 138 139 140
+ 141 144 145 146 149 150 152 153 156 157 158 159 160 163 165 167 169 170
+ 173 177 178 179 180 182 183 184 186 187 188 193 194 195 196 197 198 199
+ 201 202 203 204 205 208 209 210 212 213 215 216 217 219 220 221 223 225
+ 230 231 233 236 238 240 244 245 248 249 251 252 253 254 255 256 258 259
+ 262 263 264 265 266 267 268 269 271 272 274 276 284 286 287 289 290 291
+ 292 293 294 295 296 298 299 300 301 302 306 307 308 309 312 313 314 315
+ 318 319 320 322 325 326 327 328 329 331 333 334 335 336 337 340 341 344
+ 345 348 349 350 351 353 354 356 357 358 359 360 361 362 363 365 371 372
+ 373 379 380 381 383 387 389 390 392 393 394 395 396 397 398 399 401 404
+ 405 407 408 409 411 412 413 414 415 418 419 421 424 425 427 431 434 435
+ 436 438 439 440 443 444 445 446 447 448 450 454 455 457 459 460 463 466
+ 468 469 471 473 475 477 478 482 483 484 485 489 490 491 492 493 496 497
+ 498 499 500 502 503 505 506 507 508 510 511 513 514 515 517 518 519 520
+ 522 524 529 530 531 534 535 537 538 539 540 541 543 545 546 549 550 553
+ 554 555 556 557 558 559 561 562 565 566 568 569 570 572 576 577 581 583
+ 584 585 586 589 591 593 594 595 597 598 599 600 601 602 603 604 605 606
+ 607 611 613 614 615 617 619 620 621 624 625 626 627 628 630 631 632 633
+ 634 635 636 638 639 642 643 644 645 646 647 650 651 652 653 656 657 658
+ 659 660 663 664 665 667 668 671 676 677 678 679 680 683 684 685 688 690
+ 691 692 694 695 698 699 700 701 702 703 705 707 709 710 712 715 718 720
+ 723 727 728 731 733 734 735 737 739 740 741 742 743 744 745 747 748 751
+ 752]</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0.9605263157894737</v>
       </c>
       <c r="E19" t="n">
-        <v>2.562513589859009</v>
+        <v>66.325688123703</v>
       </c>
     </row>
     <row r="20">
@@ -844,19 +1652,60 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>[1 1 0 0 1 1 0 0 0 1 1 0 0 0 1 0 1 1 1 1 0 1 1 1 1 1 1 1 1 1]</t>
+          <t>[0 1 1 1 1 1 1 1 1 0 1 1 1 0 1 0 0 0 1 1 1 0 0 1 0 0 1 0 0 0 1 1 1 1 0 0 1
+ 0 0 0 0 1 1 0 0 0 1 1 1 0 0 1 1 1 1 1 0 0 1 1 1 1 0 1 0 1 1 0 1 1 1 1 1 0
+ 0 0 1 1 0 0 0 1 1 1 0 1 1 1 0 0 0 0 0 1 1 0 0 0 0 1 0 1 1 1 1 1 0 0 1 1 1
+ 1 1 0 0 0 0 1 0 0 0 1 1 0 1 1 1 0 1 0 1 0 0 1 0 1 0 0 1 0 1 1 0 1 0 1 0 1
+ 1 0 0 1 0 1 1 1 1 0 0 1 1 0 1 1 0 0 1 1 1 0 1 0 1 1 0 1 1 1 1 1 1 1 0 0 0
+ 0 0 1 0 1 0 0 1 1 1 0 1 0 1 0 1 0 1 1 1 0 1 1 1 1 0 0 1 0 1 0 0 0 0 0 1 0
+ 0 1 0 0 1 1 1 1 0 0 0 0 0 0 0 1 0 1 1 0 0 1 0 1 1 1 0 1 1 1 0 0 1 1 0 0 0
+ 1 0 1 1 1 1 1 0 0 1 0 0 1 0 1 1 1 0 0 0 1 1 0 0 1 1 1 0 1 0 1 1 0 0 0 1 1
+ 0 0 1 1 1 0 1 1 0 0 0 1 0 1 0 0 1 1 1 1 1 0 1 0 0 1 1 1 0 1 1 0 0 1 1 0 0
+ 0 1 0 0 0 0 1 0 1 0 1 1 0 0 0 0 1 1 0 0 0 0 0 0 0 1 1 1 0 1 1 1 0 0 1 1 0
+ 1 0 0 0 1 1 0 0 0 0 0 1 0 0 1 0 0 1 1 1 0 0 1 0 0 1 0 0 0 1 1 1 1 0 0 1 0
+ 1 1 0 1 1 1 0 1 1 1 1 0 0 1 1 1 1 0 0 1 0 1 0 1 0 0 0 1 0 1 1 1 0 1 0 0 1
+ 1 1 1 0 0 1 1 0 1 1 0 1 1 1 0 0 1 0 0 0 0 1 1 1 1 0 1 1 0 0 0 0 0 0 1 1 0
+ 0 1 0 1 1 0 0 0 0 1 1 1 0 1 1 1 1 1 1 1 0 0 0 1 1 1 0 0 0 1 1 1 0 1 0 0 0
+ 1 0 1 1 0 0 1 0 1 0 0 1 0 0 0 1 0 1 1 1 0 0 1 0 1 0 1 0 0 1 0 0 0 1 0 0 0
+ 0 1 0 0 0 1 0 0 1 1 0 0 1 1 1 0 1 1 0 1 1 1 0 1 0 0 1 1 0 1 0 0 0 1 1 0 1
+ 0 0 0 0 0 1 0 0 1 0 1 1 0 1 0 1 1 0 1 0 1 0 1 0 1 1 1 1 1 0 0 1 0 0 1 1 0
+ 1 1 1 1 0 1 1 1 1 1 1 0 1 1 1 1 1 1 1 0 0 1 1 1 1 1 1 1 1 1 0 0 0 0 0 0 1
+ 0 1 1 0 0 1 1 1 1 0 1 1 0 1 0 0 1 1 0 0 1 0 1 1 1 1 1 1 0 0 1 0 0 1 0 1 1
+ 1 0 0 1 1 0 1 1 1 1 0 1 1 0 0 0 0 1 0 0 0 1 0 0 1 0 0 0 1 1 1 0 0 1 0 0 0
+ 1 0 0 1 1 1 0 1 0 1 0 0 1]</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>[ 0  1  4  5  9 10 14 16 17 18 19 21 22 23 24 25 26 27 28 29]</t>
+          <t>[  1   2   3   4   5   6   7   8  10  11  12  14  18  19  20  23  26  30
+  31  32  33  36  41  42  46  47  48  51  52  53  54  55  58  59  60  61
+  63  65  66  68  69  70  71  72  76  77  81  82  83  85  86  87  93  94
+  99 101 102 103 104 105 108 109 110 111 112 117 121 122 124 125 126 128
+ 130 133 135 138 140 141 143 145 147 148 151 153 154 155 156 159 160 162
+ 163 166 167 168 170 172 173 175 176 177 178 179 180 181 187 189 192 193
+ 194 196 198 200 202 203 204 206 207 208 209 212 214 220 223 226 227 228
+ 229 237 239 240 243 245 246 247 249 250 251 254 255 259 261 262 263 264
+ 265 268 271 273 274 275 279 280 283 284 285 287 289 290 294 295 298 299
+ 300 302 303 307 309 312 313 314 315 316 318 321 322 323 325 326 329 330
+ 334 339 341 343 344 349 350 358 359 360 362 363 364 367 368 370 374 375
+ 381 384 387 388 389 392 395 399 400 401 402 405 407 408 410 411 412 414
+ 415 416 417 420 421 422 423 426 428 430 434 436 437 438 440 443 444 445
+ 446 449 450 452 453 455 456 457 460 465 466 467 468 470 471 478 479 482
+ 484 485 490 491 492 494 495 496 497 498 499 500 504 505 506 510 511 512
+ 514 518 520 521 524 526 529 533 535 536 537 540 542 544 547 551 556 560
+ 563 564 567 568 569 571 572 574 575 576 578 581 582 584 588 589 591 597
+ 600 602 603 605 607 608 610 612 614 616 617 618 619 620 623 626 627 629
+ 630 631 632 634 635 636 637 638 639 641 642 643 644 645 646 647 650 651
+ 652 653 654 655 656 657 658 665 667 668 671 672 673 674 676 677 679 682
+ 683 686 688 689 690 691 692 693 696 699 701 702 703 706 707 709 710 711
+ 712 714 715 720 724 727 731 732 733 736 740 743 744 745 747 749 752]</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.9824561403508771</v>
+        <v>0.9605263157894737</v>
       </c>
       <c r="E20" t="n">
-        <v>2.747861385345459</v>
+        <v>61.64050245285034</v>
       </c>
     </row>
     <row r="21">
@@ -865,19 +1714,65 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>[0 1 0 1 0 0 0 0 0 1 0 0 1 0 0 1 1 1 1 0 1 0 1 1 1 0 0 0 1 1]</t>
+          <t>[1 1 1 0 1 0 1 1 1 1 1 1 1 0 1 0 1 1 1 1 0 0 0 1 0 1 1 1 0 0 0 0 1 1 0 1 1
+ 1 1 0 1 0 1 0 1 1 1 0 1 1 0 1 1 1 1 1 0 0 0 1 1 0 1 1 1 1 1 1 1 1 1 1 0 1
+ 0 0 0 1 0 0 1 1 1 0 1 1 1 0 1 1 0 0 0 1 0 1 1 1 1 0 0 0 1 1 0 1 1 1 0 1 1
+ 0 1 1 1 1 1 1 0 1 0 1 0 1 0 1 0 1 0 0 1 1 0 1 1 1 1 1 0 0 0 1 1 0 1 1 0 0
+ 0 0 1 1 1 1 0 0 0 1 1 0 1 1 1 1 0 1 1 0 0 1 1 1 1 0 1 0 1 1 1 1 1 1 1 0 0
+ 0 0 1 1 1 1 1 0 1 0 1 1 1 0 1 1 0 0 1 1 1 1 1 1 1 0 0 1 1 0 1 1 0 1 1 1 1
+ 0 1 0 1 0 0 0 0 0 1 1 1 1 1 1 0 1 0 1 1 0 1 1 0 0 1 0 1 1 1 0 1 1 0 1 0 0
+ 0 1 1 0 0 1 1 1 0 1 1 0 0 1 1 1 1 1 1 0 1 0 1 1 1 1 0 0 0 1 1 1 1 0 0 0 1
+ 1 1 1 1 1 1 1 0 1 1 1 1 0 0 0 0 0 1 1 0 1 1 0 1 0 1 1 1 0 1 1 1 1 0 1 1 0
+ 1 1 1 1 0 0 0 1 1 1 1 1 0 0 0 1 0 0 1 1 0 0 0 0 1 0 0 1 0 1 1 0 1 1 0 0 1
+ 1 1 0 0 1 0 1 1 0 1 0 1 0 0 0 0 1 1 1 0 1 1 0 0 1 1 0 0 1 0 0 0 1 1 1 1 1
+ 1 0 1 1 0 0 0 1 1 0 1 1 1 1 1 1 0 0 1 0 1 1 1 0 1 1 1 1 1 0 0 1 1 1 0 0 1
+ 1 1 1 1 1 0 1 1 1 1 1 1 1 1 1 0 0 0 0 1 1 0 0 0 1 1 1 1 1 1 1 1 0 1 1 1 0
+ 1 1 1 0 1 0 0 0 0 0 1 0 1 1 0 1 1 0 1 1 1 1 0 0 1 1 1 0 0 0 1 0 1 1 1 1 1
+ 1 0 1 1 1 1 0 1 0 1 0 1 1 0 1 1 1 1 1 1 1 0 0 1 1 1 0 0 0 0 1 1 1 0 0 0 1
+ 1 0 1 0 1 0 0 1 1 0 0 1 1 0 1 1 1 0 1 1 0 0 0 1 0 1 1 1 1 1 1 0 0 1 0 1 1
+ 1 1 1 0 1 1 1 1 0 0 1 1 0 1 0 0 0 1 0 1 1 0 1 1 1 1 1 1 1 1 1 1 1 0 1 1 0
+ 1 1 0 1 1 1 0 1 1 1 0 0 0 1 1 1 1 1 1 1 0 0 0 0 0 0 1 1 1 1 1 1 0 1 0 0 1
+ 1 1 1 1 1 1 1 1 1 1 1 1 0 1 0 1 1 1 1 1 1 1 0 1 1 1 1 0 1 0 1 1 0 1 0 1 1
+ 0 0 0 1 1 1 1 0 0 0 1 1 1 0 0 1 0 0 0 1 1 0 1 0 0 0 1 0 0 1 0 0 0 0 1 0 0
+ 1 1 1 1 1 0 1 0 0 1 1 0 1]</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>[ 1  3  9 12 15 16 17 18 20 22 23 24 28 29]</t>
+          <t>[  0   1   2   4   6   7   8   9  10  11  12  14  16  17  18  19  23  25
+  26  27  32  33  35  36  37  38  40  42  44  45  46  48  49  51  52  53
+  54  55  59  60  62  63  64  65  66  67  68  69  70  71  73  77  80  81
+  82  84  85  86  88  89  93  95  96  97  98 102 103 105 106 107 109 110
+ 112 113 114 115 116 117 119 121 123 125 127 130 131 133 134 135 136 137
+ 141 142 144 145 150 151 152 153 157 158 160 161 162 163 165 166 169 170
+ 171 172 174 176 177 178 179 180 181 182 187 188 189 190 191 193 195 196
+ 197 199 200 203 204 205 206 207 208 209 212 213 215 216 218 219 220 221
+ 223 225 231 232 233 234 235 236 238 240 241 243 244 247 249 250 251 253
+ 254 256 260 261 264 265 266 268 269 272 273 274 275 276 277 279 281 282
+ 283 284 288 289 290 291 295 296 297 298 299 300 301 302 304 305 306 307
+ 313 314 316 317 319 321 322 323 325 326 327 328 330 331 333 334 335 336
+ 340 341 342 343 344 348 351 352 357 360 362 363 365 366 369 370 371 374
+ 376 377 379 381 386 387 388 390 391 394 395 398 402 403 404 405 406 407
+ 409 410 414 415 417 418 419 420 421 422 425 427 428 429 431 432 433 434
+ 435 438 439 440 443 444 445 446 447 448 450 451 452 453 454 455 456 457
+ 458 463 464 468 469 470 471 472 473 474 475 477 478 479 481 482 483 485
+ 491 493 494 496 497 499 500 501 502 505 506 507 511 513 514 515 516 517
+ 518 520 521 522 523 525 527 529 530 532 533 534 535 536 537 538 541 542
+ 543 548 549 550 554 555 557 559 562 563 566 567 569 570 571 573 574 578
+ 580 581 582 583 584 585 588 590 591 592 593 594 596 597 598 599 602 603
+ 605 609 611 612 614 615 616 617 618 619 620 621 622 623 624 626 627 629
+ 630 632 633 634 636 637 638 642 643 644 645 646 647 648 655 656 657 658
+ 659 660 662 665 666 667 668 669 670 671 672 673 674 675 676 677 679 681
+ 682 683 684 685 686 687 689 690 691 692 694 696 697 699 701 702 706 707
+ 708 709 713 714 715 718 722 723 725 729 732 737 740 741 742 743 744 746
+ 749 750 752]</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.9824561403508771</v>
+        <v>0.9605263157894737</v>
       </c>
       <c r="E21" t="n">
-        <v>2.983577728271484</v>
+        <v>41.91761422157288</v>
       </c>
     </row>
     <row r="22">
@@ -886,19 +1781,63 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>[1 0 1 0 1 1 0 0 0 0 0 0 0 1 1 0 1 0 0 0 0 1 1 1 1 0 0 0 0 0]</t>
+          <t>[0 0 1 0 1 1 0 1 1 1 1 1 0 1 1 1 0 0 1 1 0 1 1 0 0 0 1 0 0 1 1 1 1 1 1 1 0
+ 1 0 1 0 0 1 1 1 1 0 0 0 0 1 0 0 1 0 1 0 1 0 1 0 0 1 1 1 1 1 0 1 0 1 1 1 1
+ 1 0 0 1 1 0 1 0 1 1 0 1 1 1 0 1 0 1 0 1 0 1 1 1 1 1 1 0 1 1 0 0 0 1 0 0 0
+ 1 1 1 0 1 1 0 0 0 0 1 0 1 1 1 1 1 0 0 1 1 0 1 1 1 1 0 1 1 1 1 1 0 1 1 0 0
+ 1 0 1 1 0 1 1 1 0 1 0 0 0 0 0 1 1 0 1 1 0 0 0 1 1 1 1 1 1 0 1 0 1 1 1 1 1
+ 1 0 1 1 0 0 0 0 0 0 1 1 0 1 0 1 1 1 0 0 1 1 0 0 0 0 1 0 1 0 0 1 0 1 0 0 0
+ 1 0 0 1 0 1 1 0 0 1 0 1 1 0 1 1 0 0 0 0 1 1 1 1 0 0 0 1 1 1 0 0 0 0 0 1 1
+ 1 1 0 1 1 1 1 1 1 1 0 0 1 1 1 0 1 1 1 1 1 0 1 0 0 1 1 0 1 0 1 1 1 1 1 1 1
+ 1 1 0 0 0 1 1 1 1 0 1 0 0 1 0 0 0 1 0 1 0 0 1 0 0 1 1 0 1 0 1 1 0 1 1 1 1
+ 1 1 1 0 1 1 1 1 0 1 1 0 1 0 0 1 0 1 1 0 1 0 1 0 0 1 1 1 1 1 0 0 0 1 1 0 1
+ 0 1 1 1 0 1 0 1 0 0 1 1 1 0 1 0 1 0 0 1 0 1 1 1 1 0 0 0 1 1 1 0 0 0 1 0 0
+ 0 1 1 1 1 0 0 1 1 1 1 1 1 0 1 0 1 0 1 0 0 0 1 1 0 1 1 0 0 0 1 1 0 1 0 1 1
+ 1 0 0 1 1 0 1 0 1 1 1 1 1 0 0 1 1 0 0 1 1 0 1 0 1 0 1 0 0 0 1 1 0 1 1 0 1
+ 1 1 1 1 0 1 0 0 0 0 1 1 1 1 0 1 1 1 1 0 0 1 1 0 1 0 0 0 0 0 1 0 0 1 1 0 1
+ 1 1 1 0 1 1 0 1 0 1 1 0 0 0 1 0 1 1 0 1 1 0 1 0 0 1 0 1 1 0 1 0 1 0 1 0 0
+ 1 1 1 1 0 1 0 1 1 0 0 1 1 0 0 1 1 0 0 0 1 1 1 1 0 1 1 0 0 0 1 0 1 0 0 1 1
+ 0 1 1 1 1 1 0 0 0 1 1 0 1 1 1 1 1 0 1 1 1 1 0 1 1 1 0 1 1 1 1 0 1 0 1 1 1
+ 0 0 0 0 0 0 0 1 0 0 1 0 0 1 0 0 1 1 1 1 1 0 1 1 1 1 1 0 1 0 0 0 1 1 0 0 0
+ 0 1 0 1 0 1 1 1 0 1 1 1 0 1 1 1 0 1 1 0 1 0 0 1 1 1 1 1 0 1 1 1 0 1 0 0 1
+ 0 1 1 1 1 0 0 1 0 1 1 1 1 1 1 1 1 1 0 0 1 0 1 0 0 1 0 1 1 1 0 0 1 0 1 0 0
+ 0 1 1 1 1 0 0 1 0 1 0 1 0]</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>[ 0  2  4  5 13 14 16 21 22 23 24]</t>
+          <t>[  2   4   5   7   8   9  10  11  13  14  15  18  19  21  22  26  29  30
+  31  32  33  34  35  37  39  42  43  44  45  50  53  55  57  59  62  63
+  64  65  66  68  70  71  72  73  74  77  78  80  82  83  85  86  87  89
+  91  93  95  96  97  98  99 100 102 103 107 111 112 113 115 116 121 123
+ 124 125 126 127 130 131 133 134 135 136 138 139 140 141 142 144 145 148
+ 150 151 153 154 155 157 163 164 166 167 171 172 173 174 175 176 178 180
+ 181 182 183 184 185 187 188 195 196 198 200 201 202 205 206 211 213 216
+ 218 222 225 227 228 231 233 234 236 237 242 243 244 245 249 250 251 257
+ 258 259 260 262 263 264 265 266 267 268 271 272 273 275 276 277 278 279
+ 281 284 285 287 289 290 291 292 293 294 295 296 297 301 302 303 304 306
+ 309 313 315 318 321 322 324 326 327 329 330 331 332 333 334 335 337 338
+ 339 340 342 343 345 348 350 351 353 355 358 359 360 361 362 366 367 369
+ 371 372 373 375 377 380 381 382 384 386 389 391 392 393 394 398 399 400
+ 404 408 409 410 411 414 415 416 417 418 419 421 423 425 429 430 432 433
+ 437 438 440 442 443 444 447 448 450 452 453 454 455 456 459 460 463 464
+ 466 468 470 474 475 477 478 480 481 482 483 484 486 491 492 493 494 496
+ 497 498 499 502 503 505 511 514 515 517 518 519 520 522 523 525 527 528
+ 532 534 535 537 538 540 543 545 546 548 550 552 555 556 557 558 560 562
+ 563 566 567 570 571 575 576 577 578 580 581 585 587 590 591 593 594 595
+ 596 597 601 602 604 605 606 607 608 610 611 612 613 615 616 617 619 620
+ 621 622 624 626 627 628 636 639 642 645 646 647 648 649 651 652 653 654
+ 655 657 661 662 667 669 671 672 673 675 676 677 679 680 681 683 684 686
+ 689 690 691 692 693 695 696 697 699 702 704 705 706 707 710 712 713 714
+ 715 716 717 718 719 720 723 725 728 730 731 732 735 737 741 742 743 744
+ 747 749 751]</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.9824561403508771</v>
+        <v>0.9605263157894737</v>
       </c>
       <c r="E22" t="n">
-        <v>2.964164257049561</v>
+        <v>43.58846092224121</v>
       </c>
     </row>
     <row r="23">
@@ -907,19 +1846,65 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>[0 0 0 1 1 0 0 0 0 1 0 1 0 1 0 0 1 1 0 1 1 0 1 1 0 1 0 0 1 1]</t>
+          <t>[0 0 1 1 1 0 0 0 1 1 0 1 1 1 1 1 1 1 0 1 1 1 1 0 0 0 0 1 0 1 0 0 0 1 1 1 1
+ 1 0 1 1 0 1 0 1 1 0 1 0 1 1 0 1 0 0 1 0 0 1 1 0 0 1 1 1 1 0 1 1 1 1 1 1 1
+ 1 1 1 1 0 0 0 0 1 1 0 1 1 1 1 1 1 0 0 0 1 1 1 1 1 0 1 1 1 0 1 1 1 0 0 0 0
+ 1 0 0 0 1 0 1 0 0 0 1 1 1 0 1 1 1 1 1 1 0 1 0 1 1 0 1 0 1 1 1 0 0 1 0 0 1
+ 0 1 0 1 0 1 1 1 1 1 0 1 1 0 0 1 0 0 0 1 1 1 1 1 0 0 1 1 1 0 0 1 1 1 1 1 0
+ 1 0 0 1 0 0 0 1 0 1 0 1 1 1 1 1 1 1 1 1 0 1 0 1 1 1 1 1 1 0 0 1 1 0 1 0 0
+ 1 1 1 0 1 1 0 1 1 0 0 1 0 0 1 0 1 0 0 1 1 1 1 1 1 1 1 1 1 1 1 0 1 0 0 0 1
+ 1 0 1 1 1 1 1 0 1 1 1 1 1 1 1 1 1 1 1 1 1 0 1 1 1 0 0 1 0 0 0 1 0 1 1 1 1
+ 1 1 1 0 1 1 0 1 1 1 0 1 1 1 0 0 0 1 0 1 1 1 0 1 1 1 1 1 0 0 0 1 1 1 0 1 0
+ 1 0 1 1 1 0 1 0 1 1 1 0 1 0 1 1 1 0 1 0 0 0 0 1 0 1 1 1 0 1 1 1 0 1 1 1 1
+ 1 1 1 1 1 1 1 0 1 1 1 1 0 1 0 0 1 1 1 1 0 0 0 1 1 1 1 0 1 1 1 1 1 1 1 0 1
+ 1 1 0 1 1 0 0 1 1 0 1 0 0 1 1 1 1 1 0 1 1 1 0 0 1 0 0 1 0 1 1 1 1 0 1 1 0
+ 1 1 1 0 0 1 0 0 0 0 1 1 1 1 1 1 1 0 1 0 1 1 1 1 1 1 0 1 1 1 0 1 1 0 1 0 1
+ 1 1 1 1 1 0 1 1 1 0 0 0 0 1 1 1 1 0 1 0 1 1 1 1 0 1 1 1 1 0 1 0 1 0 1 0 1
+ 1 1 0 0 0 0 0 0 1 1 0 0 0 1 1 1 0 1 0 0 0 0 1 1 1 1 1 1 1 0 0 1 0 0 1 1 1
+ 0 1 1 1 0 0 1 0 1 0 1 1 1 0 1 1 1 1 1 0 1 0 1 0 0 1 0 0 1 0 0 1 1 0 1 1 0
+ 1 0 1 0 1 1 1 1 1 1 1 1 0 1 0 0 1 1 1 0 1 0 1 1 1 1 0 1 0 0 0 1 0 1 1 1 1
+ 1 1 0 1 0 1 1 1 1 1 0 1 1 1 0 1 1 0 0 0 0 0 1 1 1 1 0 1 1 1 0 0 1 1 0 1 1
+ 1 1 0 1 1 0 1 1 0 0 0 0 1 1 1 1 1 1 1 0 0 0 0 1 1 1 1 1 1 0 1 0 1 0 0 1 1
+ 1 1 0 1 1 0 1 1 0 1 0 1 1 1 0 1 1 1 1 0 1 1 1 1 1 1 1 1 0 0 0 1 0 0 1 1 0
+ 1 1 1 0 1 1 1 1 0 0 0 1 0]</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>[ 3  4  9 11 13 16 17 19 20 22 23 25 28 29]</t>
+          <t>[  2   3   4   8   9  11  12  13  14  15  16  17  19  20  21  22  27  29
+  33  34  35  36  37  39  40  42  44  45  47  49  50  52  55  58  59  62
+  63  64  65  67  68  69  70  71  72  73  74  75  76  77  82  83  85  86
+  87  88  89  90  94  95  96  97  98 100 101 102 104 105 106 111 115 117
+ 121 122 123 125 126 127 128 129 130 132 134 135 137 139 140 141 144 147
+ 149 151 153 154 155 156 157 159 160 163 167 168 169 170 171 174 175 176
+ 179 180 181 182 183 185 188 192 194 196 197 198 199 200 201 202 203 204
+ 206 208 209 210 211 212 213 216 217 219 222 223 224 226 227 229 230 233
+ 236 238 241 242 243 244 245 246 247 248 249 250 251 252 254 258 259 261
+ 262 263 264 265 267 268 269 270 271 272 273 274 275 276 277 278 279 281
+ 282 283 286 290 292 293 294 295 296 297 298 300 301 303 304 305 307 308
+ 309 313 315 316 317 319 320 321 322 323 327 328 329 331 333 335 336 337
+ 339 341 342 343 345 347 348 349 351 356 358 359 360 362 363 364 366 367
+ 368 369 370 371 372 373 374 375 376 378 379 380 381 383 386 387 388 389
+ 393 394 395 396 398 399 400 401 402 403 404 406 407 408 410 411 414 415
+ 417 420 421 422 423 424 426 427 428 431 434 436 437 438 439 441 442 444
+ 445 446 449 454 455 456 457 458 459 460 462 464 465 466 467 468 469 471
+ 472 473 475 476 478 480 481 482 483 484 485 487 488 489 494 495 496 497
+ 499 501 502 503 504 506 507 508 509 511 513 515 517 518 519 526 527 531
+ 532 533 535 540 541 542 543 544 545 546 549 552 553 554 556 557 558 561
+ 563 565 566 567 569 570 571 572 573 575 577 580 583 586 587 589 590 592
+ 594 596 597 598 599 600 601 602 603 605 608 609 610 612 614 615 616 617
+ 619 623 625 626 627 628 629 630 632 634 635 636 637 638 640 641 642 644
+ 645 651 652 653 654 656 657 658 661 662 664 665 666 667 669 670 672 673
+ 678 679 680 681 682 683 684 689 690 691 692 693 694 696 698 701 702 703
+ 704 706 707 709 710 712 714 715 716 718 719 720 721 723 724 725 726 727
+ 728 729 730 734 737 738 740 741 742 744 745 746 747 751]</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.9824561403508771</v>
+        <v>0.9605263157894737</v>
       </c>
       <c r="E23" t="n">
-        <v>3.903103113174438</v>
+        <v>53.61142659187317</v>
       </c>
     </row>
     <row r="24">
@@ -928,19 +1913,64 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>[1 0 0 0 1 1 0 0 1 1 1 1 1 0 1 0 0 0 1 0 0 1 1 1 0 0 0 1 0 0]</t>
+          <t>[0 1 1 0 1 1 1 1 1 1 1 1 1 1 0 0 0 1 0 0 1 0 1 0 1 1 0 0 0 1 1 1 1 0 0 1 1
+ 0 1 0 0 1 0 1 1 0 1 1 1 1 1 1 0 0 0 1 0 1 0 0 1 1 1 1 1 1 0 0 1 0 1 0 1 0
+ 1 1 0 0 0 1 0 0 1 0 1 0 1 1 0 1 0 0 0 1 1 1 1 1 1 0 1 1 1 0 1 1 0 1 0 1 0
+ 0 1 1 0 1 0 0 1 0 0 0 1 1 1 1 0 1 1 0 1 0 1 1 1 1 0 1 0 1 1 0 0 1 1 0 0 1
+ 0 0 0 1 0 1 1 1 1 0 1 1 1 1 0 0 1 1 0 1 0 1 1 1 1 0 1 0 1 1 1 1 0 1 1 1 0
+ 0 1 1 1 0 1 1 1 1 1 1 0 1 1 0 1 1 1 1 0 1 0 1 0 1 1 0 0 1 0 1 1 0 1 1 1 1
+ 0 1 1 1 1 1 0 1 1 1 1 0 1 0 1 0 1 1 1 0 1 1 0 1 1 1 1 0 1 1 1 1 1 0 1 1 0
+ 1 1 0 1 0 0 1 0 1 0 1 0 0 0 1 1 0 0 1 1 1 0 1 1 0 0 0 1 0 0 1 0 0 0 1 1 1
+ 1 1 0 1 0 1 1 0 0 0 0 0 1 1 0 1 0 0 0 1 0 0 0 1 0 0 0 0 1 1 1 1 1 1 1 1 1
+ 1 1 0 1 1 1 1 1 1 1 0 1 1 0 1 0 1 1 1 1 1 1 0 1 1 1 1 1 1 1 1 1 1 1 0 0 0
+ 0 1 1 1 0 0 1 0 0 1 1 0 0 0 1 0 1 0 0 1 0 1 1 1 1 1 0 0 1 0 1 0 0 1 0 1 0
+ 0 1 0 0 0 1 1 1 1 1 1 0 1 1 0 0 1 1 1 1 0 1 0 1 1 0 1 1 1 0 1 0 1 1 1 1 1
+ 1 1 1 0 0 0 1 0 1 0 0 0 0 1 1 1 0 1 1 1 1 0 0 0 0 1 1 0 0 1 1 0 1 0 1 1 0
+ 1 0 0 0 1 1 1 1 0 1 0 1 1 1 1 1 1 0 1 0 0 1 0 1 0 0 1 1 1 0 0 1 0 1 0 0 1
+ 1 1 1 1 1 1 0 1 1 1 1 0 0 1 0 0 0 1 1 0 1 0 1 1 1 1 1 0 1 0 1 0 0 1 0 1 1
+ 0 0 1 1 1 1 0 1 1 0 1 0 1 0 1 0 1 1 0 0 0 0 1 1 0 0 1 1 0 1 1 0 1 1 0 0 0
+ 1 1 1 0 1 0 1 1 0 1 1 0 1 0 1 1 1 1 1 0 1 1 1 0 0 1 0 1 1 1 1 1 1 0 0 0 0
+ 1 1 0 0 1 1 1 0 1 1 1 1 1 0 1 1 0 1 1 1 1 1 1 0 1 1 1 1 0 0 0 0 1 0 1 0 1
+ 0 1 1 1 1 1 0 1 1 1 1 0 0 1 1 1 0 1 1 0 0 0 0 0 1 1 1 1 1 1 0 0 1 1 1 1 1
+ 1 0 0 1 0 0 0 0 1 1 1 0 1 0 0 0 0 1 1 0 0 1 0 1 1 1 0 1 1 1 1 0 0 0 1 1 0
+ 1 1 1 1 0 1 1 1 1 0 1 1 0]</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>[ 0  4  5  8  9 10 11 12 14 18 21 22 23 27]</t>
+          <t>[  1   2   4   5   6   7   8   9  10  11  12  13  17  20  22  24  25  29
+  30  31  32  35  36  38  41  43  44  46  47  48  49  50  51  55  57  60
+  61  62  63  64  65  68  70  72  74  75  79  82  84  86  87  89  93  94
+  95  96  97  98 100 101 102 104 105 107 109 112 113 115 118 122 123 124
+ 125 127 128 130 132 133 134 135 137 139 140 143 144 147 151 153 154 155
+ 156 158 159 160 161 164 165 167 169 170 171 172 174 176 177 178 179 181
+ 182 183 186 187 188 190 191 192 193 194 195 197 198 200 201 202 203 205
+ 207 209 210 213 215 216 218 219 220 221 223 224 225 226 227 229 230 231
+ 232 234 236 238 239 240 242 243 245 246 247 248 250 251 252 253 254 256
+ 257 259 260 262 265 267 269 273 274 277 278 279 281 282 286 289 293 294
+ 295 296 297 299 301 302 308 309 311 315 319 324 325 326 327 328 329 330
+ 331 332 333 334 336 337 338 339 340 341 342 344 345 347 349 350 351 352
+ 353 354 356 357 358 359 360 361 362 363 364 365 366 371 372 373 376 379
+ 380 384 386 389 391 392 393 394 395 398 400 403 405 408 412 413 414 415
+ 416 417 419 420 423 424 425 426 428 430 431 433 434 435 437 439 440 441
+ 442 443 444 445 446 450 452 457 458 459 461 462 463 464 469 470 473 474
+ 476 478 479 481 485 486 487 488 490 492 493 494 495 496 497 499 502 504
+ 507 508 509 512 514 517 518 519 520 521 522 523 525 526 527 528 531 535
+ 536 538 540 541 542 543 544 546 548 551 553 554 557 558 559 560 562 563
+ 565 567 569 571 572 577 578 581 582 584 585 587 588 592 593 594 596 598
+ 599 601 602 604 606 607 608 609 610 612 613 614 617 619 620 621 622 623
+ 624 629 630 633 634 635 637 638 639 640 641 643 644 646 647 648 649 650
+ 651 653 654 655 656 661 663 665 667 668 669 670 671 673 674 675 676 679
+ 680 681 683 684 690 691 692 693 694 695 698 699 700 701 702 703 706 711
+ 712 713 715 720 721 724 726 727 728 730 731 732 733 737 738 740 741 742
+ 743 745 746 747 748 750 751]</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.9824561403508771</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="E24" t="n">
-        <v>3.800419569015503</v>
+        <v>56.19400572776794</v>
       </c>
     </row>
     <row r="25">
@@ -949,19 +1979,64 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>[0 0 0 0 1 1 0 1 1 0 1 1 1 0 0 0 0 0 0 0 1 1 0 1 1 0 1 1 0 0]</t>
+          <t>[1 0 1 1 0 1 1 0 1 1 1 1 1 0 1 1 0 1 0 0 0 0 1 1 0 0 1 1 1 1 0 0 1 0 1 0 1
+ 0 1 1 0 0 1 0 1 0 0 1 1 0 1 1 0 1 1 1 0 1 1 1 1 1 0 0 1 1 1 0 1 1 0 0 1 1
+ 1 1 0 1 1 0 0 1 1 1 0 1 1 1 0 1 1 1 1 0 1 0 1 1 1 0 1 1 0 1 1 0 0 0 1 0 1
+ 1 0 0 1 0 0 0 1 1 1 1 0 1 1 0 0 1 1 0 1 1 1 0 1 0 1 1 0 0 1 1 1 1 1 1 1 0
+ 0 1 0 0 1 1 0 0 0 1 1 1 1 0 1 1 1 1 1 1 0 0 0 0 1 0 1 1 1 1 1 0 1 1 1 1 1
+ 0 1 1 1 1 0 0 1 1 0 1 0 1 1 1 1 1 0 1 1 1 1 0 0 1 1 1 0 1 0 0 0 1 1 0 1 0
+ 0 1 1 0 0 1 0 1 1 0 0 0 0 1 1 0 0 1 0 1 0 1 0 0 1 1 0 1 0 1 1 1 0 1 0 0 0
+ 1 0 1 0 1 0 0 1 1 1 0 1 0 1 1 1 1 1 1 1 1 1 0 0 1 0 0 1 0 1 1 1 1 0 0 0 0
+ 1 1 1 0 1 0 0 1 1 0 1 1 1 0 1 1 1 0 1 0 1 1 1 1 0 1 1 0 1 1 1 1 1 1 1 1 1
+ 1 1 0 1 0 1 1 0 0 1 1 1 1 1 0 0 0 1 1 0 0 0 1 1 0 0 1 1 1 1 0 1 0 1 0 1 1
+ 1 1 1 1 1 1 0 1 1 1 1 0 1 1 1 1 1 1 1 1 0 0 1 1 1 1 1 1 1 1 1 0 1 0 0 1 1
+ 1 1 1 0 0 1 1 0 1 1 0 0 1 0 1 1 0 1 0 0 1 1 0 1 0 1 0 0 0 1 1 0 1 1 1 1 1
+ 1 0 0 1 1 1 1 1 0 0 0 1 1 1 1 1 0 0 1 1 1 0 0 0 1 0 0 1 1 0 0 1 1 0 1 0 0
+ 1 0 1 1 0 1 0 1 0 1 1 1 1 1 0 1 0 1 0 0 1 1 0 1 1 1 0 0 1 0 1 1 1 1 1 0 0
+ 1 1 1 1 1 1 0 1 1 1 0 0 1 1 0 1 0 0 1 1 1 0 0 1 1 1 1 0 1 1 1 1 0 1 0 0 1
+ 1 0 0 0 0 1 1 0 1 1 0 1 0 1 1 1 1 1 0 1 1 1 0 0 1 1 0 1 1 1 1 1 1 1 1 1 0
+ 1 0 0 0 0 0 0 0 0 1 1 1 0 1 1 1 0 1 1 1 0 0 0 1 0 1 1 1 1 1 0 1 1 0 1 1 1
+ 0 1 0 1 1 1 0 1 0 0 1 1 1 0 0 1 0 0 1 0 1 0 0 1 0 1 1 0 0 1 1 1 1 1 1 1 1
+ 1 0 1 1 1 0 0 1 1 1 1 1 1 0 0 1 0 1 0 1 0 1 1 0 1 0 1 0 1 1 0 1 1 1 0 1 1
+ 1 0 1 0 0 0 0 0 1 0 1 0 0 1 1 1 1 0 0 0 0 1 1 0 1 1 0 1 1 1 0 1 1 0 1 1 0
+ 0 1 0 1 1 1 1 1 0 0 1 1 1]</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>[ 4  5  7  8 10 11 12 20 21 23 24 26 27]</t>
+          <t>[  0   2   3   5   6   8   9  10  11  12  14  15  17  22  23  26  27  28
+  29  32  34  36  38  39  42  44  47  48  50  51  53  54  55  57  58  59
+  60  61  64  65  66  68  69  72  73  74  75  77  78  81  82  83  85  86
+  87  89  90  91  92  94  96  97  98 100 101 103 104 108 110 111 114 118
+ 119 120 121 123 124 127 128 130 131 132 134 136 137 140 141 142 143 144
+ 145 146 149 152 153 157 158 159 160 162 163 164 165 166 167 172 174 175
+ 176 177 178 180 181 182 183 184 186 187 188 189 192 193 195 197 198 199
+ 200 201 203 204 205 206 209 210 211 213 217 218 220 223 224 227 229 230
+ 235 236 239 241 243 246 247 249 251 252 253 255 259 261 263 266 267 268
+ 270 272 273 274 275 276 277 278 279 280 283 286 288 289 290 291 296 297
+ 298 300 303 304 306 307 308 310 311 312 314 316 317 318 319 321 322 324
+ 325 326 327 328 329 330 331 332 333 334 336 338 339 342 343 344 345 346
+ 350 351 355 356 359 360 361 362 364 366 368 369 370 371 372 373 374 375
+ 377 378 379 380 382 383 384 385 386 387 388 389 392 393 394 395 396 397
+ 398 399 400 402 405 406 407 408 409 412 413 415 416 419 421 422 424 427
+ 428 430 432 436 437 439 440 441 442 443 444 447 448 449 450 451 455 456
+ 457 458 459 462 463 464 468 471 472 475 476 478 481 483 484 486 488 490
+ 491 492 493 494 496 498 501 502 504 505 506 509 511 512 513 514 515 518
+ 519 520 521 522 523 525 526 527 530 531 533 536 537 538 541 542 543 544
+ 546 547 548 549 551 554 555 560 561 563 564 566 568 569 570 571 572 574
+ 575 576 579 580 582 583 584 585 586 587 588 589 590 592 601 602 603 605
+ 606 607 609 610 611 615 617 618 619 620 621 623 624 626 627 628 630 632
+ 633 634 636 639 640 641 644 647 649 652 654 655 658 659 660 661 662 663
+ 664 665 666 668 669 670 673 674 675 676 677 678 681 683 685 687 688 690
+ 692 694 695 697 698 699 701 702 703 705 711 713 716 717 718 719 724 725
+ 727 728 730 731 732 734 735 737 738 741 743 744 745 746 747 750 751 752]</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0.9824561403508771</v>
+        <v>0.9605263157894737</v>
       </c>
       <c r="E25" t="n">
-        <v>3.977004528045654</v>
+        <v>67.72334575653076</v>
       </c>
     </row>
     <row r="26">
@@ -970,19 +2045,64 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>[1 1 1 1 0 1 0 1 1 1 0 1 1 0 1 1 0 0 0 1 1 0 1 0 1 1 0 0 0 1]</t>
+          <t>[0 1 1 1 1 1 1 1 0 1 1 1 1 1 1 1 1 0 1 1 1 1 0 1 1 1 1 1 0 0 1 1 1 1 1 1 0
+ 1 1 1 1 0 0 0 1 0 0 1 0 0 1 0 0 1 1 1 1 1 0 1 1 0 1 1 0 0 1 1 1 1 1 1 0 0
+ 1 1 1 1 1 1 0 0 1 0 0 1 1 0 0 0 0 0 0 1 1 1 0 1 1 0 0 1 1 1 1 0 1 1 1 0 1
+ 1 1 0 1 1 1 1 1 1 0 1 0 0 0 1 1 0 1 1 1 0 0 1 1 1 1 0 0 0 1 0 1 1 0 1 1 0
+ 0 1 0 1 1 0 0 0 1 1 0 0 1 0 1 0 1 0 1 0 0 0 1 1 0 1 1 1 0 1 0 1 1 1 0 0 1
+ 1 1 0 1 0 1 0 1 0 1 1 1 1 0 1 1 1 1 0 1 0 1 1 1 1 1 1 1 0 1 1 1 1 1 0 1 0
+ 1 0 1 1 0 1 0 1 1 0 1 0 1 1 0 1 1 0 0 1 1 0 1 0 1 1 1 1 0 1 1 1 1 0 0 1 1
+ 1 0 0 1 0 0 1 1 0 1 0 0 1 0 0 0 0 0 0 1 0 1 1 0 0 0 0 0 1 1 0 1 0 0 1 1 0
+ 0 1 1 1 0 1 0 1 1 1 0 0 1 1 0 1 0 1 0 0 0 0 1 1 1 0 1 0 0 1 0 0 0 0 1 1 0
+ 1 1 1 1 1 1 1 1 0 0 0 1 1 1 1 1 1 0 1 1 0 1 1 0 0 1 1 1 0 1 1 1 1 0 1 0 1
+ 0 0 1 1 1 1 0 0 1 1 1 0 1 1 0 1 1 1 1 1 1 0 1 0 1 0 1 0 0 1 1 1 1 0 0 1 1
+ 1 1 0 1 1 0 1 0 0 0 1 1 0 0 1 1 0 0 1 1 1 1 0 1 1 1 0 1 1 1 1 1 1 1 1 1 1
+ 1 1 1 1 0 1 1 0 1 0 1 1 0 0 0 1 0 1 0 1 1 1 1 1 0 1 1 0 0 0 0 0 1 0 0 1 1
+ 0 1 1 0 0 0 1 1 1 1 1 1 1 1 0 1 1 1 1 0 1 1 1 0 1 0 1 1 0 1 1 0 0 1 1 0 1
+ 1 1 0 1 1 1 1 0 1 0 1 1 1 1 0 0 0 0 1 0 1 1 1 1 0 1 0 1 1 1 1 0 1 1 1 1 0
+ 1 1 0 0 0 1 1 1 1 1 1 0 0 1 0 0 1 1 1 0 0 0 1 1 0 0 1 0 1 1 0 0 1 1 0 1 0
+ 1 0 0 0 0 1 1 1 1 0 0 0 1 1 0 1 1 0 1 1 1 1 0 1 1 0 1 0 1 1 0 0 1 0 0 0 1
+ 1 1 0 0 0 1 1 1 1 1 1 1 1 0 1 1 0 0 1 1 0 0 1 0 0 0 1 0 1 1 0 1 1 1 0 1 0
+ 0 1 1 0 1 1 1 0 1 1 0 1 1 1 1 1 1 1 1 0 1 1 0 1 1 0 1 1 0 0 0 1 1 1 1 1 0
+ 1 0 0 0 1 0 0 1 1 0 1 1 1 1 1 1 1 1 0 1 0 1 1 0 1 0 1 1 0 1 1 1 0 1 0 1 0
+ 0 1 0 1 0 1 1 1 1 0 0 1 0]</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>[ 0  1  2  3  5  7  8  9 11 12 14 15 19 20 22 24 25 29]</t>
+          <t>[  1   2   3   4   5   6   7   9  10  11  12  13  14  15  16  18  19  20
+  21  23  24  25  26  27  30  31  32  33  34  35  37  38  39  40  44  47
+  50  53  54  55  56  57  59  60  62  63  66  67  68  69  70  71  74  75
+  76  77  78  79  82  85  86  93  94  95  97  98 101 102 103 104 106 107
+ 108 110 111 112 114 115 116 117 118 119 121 125 126 128 129 130 133 134
+ 135 136 140 142 143 145 146 149 151 152 156 157 160 162 164 166 170 171
+ 173 174 175 177 179 180 181 184 185 186 188 190 192 194 195 196 197 199
+ 200 201 202 204 206 207 208 209 210 211 212 214 215 216 217 218 220 222
+ 224 225 227 229 230 232 234 235 237 238 241 242 244 246 247 248 249 251
+ 252 253 254 257 258 259 262 265 266 268 271 278 280 281 287 288 290 293
+ 294 297 298 299 301 303 304 305 308 309 311 313 318 319 320 322 325 330
+ 331 333 334 335 336 337 338 339 340 344 345 346 347 348 349 351 352 354
+ 355 358 359 360 362 363 364 365 367 369 372 373 374 375 378 379 380 382
+ 383 385 386 387 388 389 390 392 394 396 399 400 401 402 405 406 407 408
+ 410 411 413 417 418 421 422 425 426 427 428 430 431 432 434 435 436 437
+ 438 439 440 441 442 443 444 445 446 447 449 450 452 454 455 459 461 463
+ 464 465 466 467 469 470 476 479 480 482 483 487 488 489 490 491 492 493
+ 494 496 497 498 499 501 502 503 505 507 508 510 511 514 515 517 518 519
+ 521 522 523 524 526 528 529 530 531 536 538 539 540 541 543 545 546 547
+ 548 550 551 552 553 555 556 560 561 562 563 564 565 568 571 572 573 577
+ 578 581 583 584 587 588 590 592 597 598 599 600 604 605 607 608 610 611
+ 612 613 615 616 618 620 621 624 628 629 630 634 635 636 637 638 639 640
+ 641 643 644 647 648 651 655 657 658 660 661 662 664 667 668 670 671 672
+ 674 675 677 678 679 680 681 682 683 684 686 687 689 690 692 693 697 698
+ 699 700 701 703 707 710 711 713 714 715 716 717 718 719 720 722 724 725
+ 727 729 730 732 733 734 736 738 741 743 745 746 747 748 751]</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.9824561403508771</v>
+        <v>0.9605263157894737</v>
       </c>
       <c r="E26" t="n">
-        <v>4.355267524719238</v>
+        <v>72.21194958686829</v>
       </c>
     </row>
   </sheetData>
